--- a/median-income-hhsize/data/median-income-by-re-hhsize.xlsx
+++ b/median-income-hhsize/data/median-income-by-re-hhsize.xlsx
@@ -31,28 +31,28 @@
     <t xml:space="preserve">TABLE_TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">ARACE_HINCP_median</t>
+    <t xml:space="preserve">PRACE_HINCP_median</t>
   </si>
   <si>
-    <t xml:space="preserve">PRACE_HINCP_median</t>
+    <t xml:space="preserve">ARACE_HINCP_median</t>
   </si>
   <si>
     <t xml:space="preserve">HRACE_HINCP_median</t>
   </si>
   <si>
-    <t xml:space="preserve">ARACE_HINCP_median_moe</t>
+    <t xml:space="preserve">PRACE_HINCP_median_moe</t>
   </si>
   <si>
-    <t xml:space="preserve">PRACE_HINCP_median_moe</t>
+    <t xml:space="preserve">ARACE_HINCP_median_moe</t>
   </si>
   <si>
     <t xml:space="preserve">HRACE_HINCP_median_moe</t>
   </si>
   <si>
-    <t xml:space="preserve">ARACE_reliability</t>
+    <t xml:space="preserve">PRACE_reliability</t>
   </si>
   <si>
-    <t xml:space="preserve">PRACE_reliability</t>
+    <t xml:space="preserve">ARACE_reliability</t>
   </si>
   <si>
     <t xml:space="preserve">HRACE_reliability</t>
@@ -585,10 +585,10 @@
         <v>81142.95</v>
       </c>
       <c r="H3" t="n">
+        <v>7540.3439543915</v>
+      </c>
+      <c r="I3" t="n">
         <v>7388.99327150796</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7540.3439543915</v>
       </c>
       <c r="J3" t="n">
         <v>7540.3439543915</v>
@@ -617,19 +617,19 @@
         <v>15</v>
       </c>
       <c r="E4" t="n">
+        <v>42194.334</v>
+      </c>
+      <c r="F4" t="n">
         <v>42269.92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42194.334</v>
       </c>
       <c r="G4" t="n">
         <v>42194.334</v>
       </c>
       <c r="H4" t="n">
+        <v>3715.05004212277</v>
+      </c>
+      <c r="I4" t="n">
         <v>3728.96715330379</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3715.05004212277</v>
       </c>
       <c r="J4" t="n">
         <v>3715.05004212277</v>
@@ -658,19 +658,19 @@
         <v>15</v>
       </c>
       <c r="E5" t="n">
+        <v>55795.58</v>
+      </c>
+      <c r="F5" t="n">
         <v>55893.362</v>
-      </c>
-      <c r="F5" t="n">
-        <v>55795.58</v>
       </c>
       <c r="G5" t="n">
         <v>55795.58</v>
       </c>
       <c r="H5" t="n">
+        <v>4185.05239397604</v>
+      </c>
+      <c r="I5" t="n">
         <v>4332.8213222906</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4185.05239397604</v>
       </c>
       <c r="J5" t="n">
         <v>4185.05239397604</v>
@@ -822,19 +822,19 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
+        <v>57487.0912</v>
+      </c>
+      <c r="F9" t="n">
         <v>57521.324</v>
-      </c>
-      <c r="F9" t="n">
-        <v>57487.0912</v>
       </c>
       <c r="G9" t="n">
         <v>57487.0912</v>
       </c>
       <c r="H9" t="n">
+        <v>1253.34432695792</v>
+      </c>
+      <c r="I9" t="n">
         <v>1209.8527365922</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1253.34432695792</v>
       </c>
       <c r="J9" t="n">
         <v>1253.34432695792</v>
@@ -872,10 +872,10 @@
         <v>57959.25</v>
       </c>
       <c r="H10" t="n">
+        <v>1264.48170014687</v>
+      </c>
+      <c r="I10" t="n">
         <v>1028.22535144888</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1264.48170014687</v>
       </c>
       <c r="J10" t="n">
         <v>1264.48170014687</v>
@@ -945,19 +945,19 @@
         <v>15</v>
       </c>
       <c r="E12" t="n">
+        <v>58063.978</v>
+      </c>
+      <c r="F12" t="n">
         <v>58418.3814</v>
-      </c>
-      <c r="F12" t="n">
-        <v>58063.978</v>
       </c>
       <c r="G12" t="n">
         <v>58063.978</v>
       </c>
       <c r="H12" t="n">
+        <v>2548.72529318913</v>
+      </c>
+      <c r="I12" t="n">
         <v>2418.39874562034</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2548.72529318913</v>
       </c>
       <c r="J12" t="n">
         <v>2548.72529318913</v>
@@ -995,10 +995,10 @@
         <v>57959.25</v>
       </c>
       <c r="H13" t="n">
+        <v>1264.48170014687</v>
+      </c>
+      <c r="I13" t="n">
         <v>1028.22535144888</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1264.48170014687</v>
       </c>
       <c r="J13" t="n">
         <v>1264.48170014687</v>
@@ -1068,19 +1068,19 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
+        <v>93795.656</v>
+      </c>
+      <c r="F15" t="n">
         <v>94201.536</v>
-      </c>
-      <c r="F15" t="n">
-        <v>93795.656</v>
       </c>
       <c r="G15" t="n">
         <v>93795.656</v>
       </c>
       <c r="H15" t="n">
+        <v>9630.05604155624</v>
+      </c>
+      <c r="I15" t="n">
         <v>9617.59724163919</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9630.05604155624</v>
       </c>
       <c r="J15" t="n">
         <v>9630.05604155624</v>
@@ -1159,10 +1159,10 @@
         <v>62496.4534</v>
       </c>
       <c r="H17" t="n">
+        <v>5866.83054177101</v>
+      </c>
+      <c r="I17" t="n">
         <v>5954.21661223373</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5866.83054177101</v>
       </c>
       <c r="J17" t="n">
         <v>5866.83054177101</v>
@@ -1314,19 +1314,19 @@
         <v>15</v>
       </c>
       <c r="E21" t="n">
+        <v>64817.844</v>
+      </c>
+      <c r="F21" t="n">
         <v>64854.1344</v>
-      </c>
-      <c r="F21" t="n">
-        <v>64817.844</v>
       </c>
       <c r="G21" t="n">
         <v>64817.844</v>
       </c>
       <c r="H21" t="n">
+        <v>2162.62587050882</v>
+      </c>
+      <c r="I21" t="n">
         <v>2025.48263815248</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2162.62587050882</v>
       </c>
       <c r="J21" t="n">
         <v>2162.62587050882</v>
@@ -1355,19 +1355,19 @@
         <v>15</v>
       </c>
       <c r="E22" t="n">
+        <v>64105.56</v>
+      </c>
+      <c r="F22" t="n">
         <v>64331.5858</v>
-      </c>
-      <c r="F22" t="n">
-        <v>64105.56</v>
       </c>
       <c r="G22" t="n">
         <v>64105.56</v>
       </c>
       <c r="H22" t="n">
+        <v>2214.60709266114</v>
+      </c>
+      <c r="I22" t="n">
         <v>2114.88132442924</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2214.60709266114</v>
       </c>
       <c r="J22" t="n">
         <v>2214.60709266114</v>
@@ -1437,19 +1437,19 @@
         <v>15</v>
       </c>
       <c r="E24" t="n">
+        <v>63210.116</v>
+      </c>
+      <c r="F24" t="n">
         <v>63639.2565</v>
-      </c>
-      <c r="F24" t="n">
-        <v>63210.116</v>
       </c>
       <c r="G24" t="n">
         <v>63210.116</v>
       </c>
       <c r="H24" t="n">
+        <v>3816.48143296037</v>
+      </c>
+      <c r="I24" t="n">
         <v>3577.34262726563</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3816.48143296037</v>
       </c>
       <c r="J24" t="n">
         <v>3816.48143296037</v>
@@ -1478,19 +1478,19 @@
         <v>15</v>
       </c>
       <c r="E25" t="n">
+        <v>64105.56</v>
+      </c>
+      <c r="F25" t="n">
         <v>64331.5858</v>
-      </c>
-      <c r="F25" t="n">
-        <v>64105.56</v>
       </c>
       <c r="G25" t="n">
         <v>64105.56</v>
       </c>
       <c r="H25" t="n">
+        <v>2214.60709266114</v>
+      </c>
+      <c r="I25" t="n">
         <v>2114.88132442924</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2214.60709266114</v>
       </c>
       <c r="J25" t="n">
         <v>2214.60709266114</v>
@@ -1815,10 +1815,10 @@
         <v>49171.35314</v>
       </c>
       <c r="H33" t="n">
+        <v>2917.94605346304</v>
+      </c>
+      <c r="I33" t="n">
         <v>2962.98381458141</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2917.94605346304</v>
       </c>
       <c r="J33" t="n">
         <v>2917.94605346304</v>
@@ -1847,19 +1847,19 @@
         <v>15</v>
       </c>
       <c r="E34" t="n">
+        <v>49147.596</v>
+      </c>
+      <c r="F34" t="n">
         <v>49171.35314</v>
-      </c>
-      <c r="F34" t="n">
-        <v>49147.596</v>
       </c>
       <c r="G34" t="n">
         <v>49147.596</v>
       </c>
       <c r="H34" t="n">
+        <v>2717.26132515061</v>
+      </c>
+      <c r="I34" t="n">
         <v>2734.44430974366</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2717.26132515061</v>
       </c>
       <c r="J34" t="n">
         <v>2717.26132515061</v>
@@ -1970,19 +1970,19 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
+        <v>49147.596</v>
+      </c>
+      <c r="F37" t="n">
         <v>49171.35314</v>
-      </c>
-      <c r="F37" t="n">
-        <v>49147.596</v>
       </c>
       <c r="G37" t="n">
         <v>49147.596</v>
       </c>
       <c r="H37" t="n">
+        <v>2717.26132515061</v>
+      </c>
+      <c r="I37" t="n">
         <v>2734.44430974366</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2717.26132515061</v>
       </c>
       <c r="J37" t="n">
         <v>2717.26132515061</v>
@@ -2143,10 +2143,10 @@
         <v>49956.382</v>
       </c>
       <c r="H41" t="n">
+        <v>3489.91625982277</v>
+      </c>
+      <c r="I41" t="n">
         <v>3983.44333322349</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3489.91625982277</v>
       </c>
       <c r="J41" t="n">
         <v>3489.91625982277</v>
@@ -2298,19 +2298,19 @@
         <v>15</v>
       </c>
       <c r="E45" t="n">
+        <v>50683.8836</v>
+      </c>
+      <c r="F45" t="n">
         <v>50723.904</v>
-      </c>
-      <c r="F45" t="n">
-        <v>50683.8836</v>
       </c>
       <c r="G45" t="n">
         <v>50683.8836</v>
       </c>
       <c r="H45" t="n">
+        <v>2822.14856241887</v>
+      </c>
+      <c r="I45" t="n">
         <v>2842.41542380844</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2822.14856241887</v>
       </c>
       <c r="J45" t="n">
         <v>2822.14856241887</v>
@@ -2348,10 +2348,10 @@
         <v>49844.955</v>
       </c>
       <c r="H46" t="n">
+        <v>1900.05386102308</v>
+      </c>
+      <c r="I46" t="n">
         <v>1880.39830998911</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1900.05386102308</v>
       </c>
       <c r="J46" t="n">
         <v>1900.05386102308</v>
@@ -2430,10 +2430,10 @@
         <v>48685.77</v>
       </c>
       <c r="H48" t="n">
+        <v>2497.03150804952</v>
+      </c>
+      <c r="I48" t="n">
         <v>2421.89417571162</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2497.03150804952</v>
       </c>
       <c r="J48" t="n">
         <v>2497.03150804952</v>
@@ -2471,10 +2471,10 @@
         <v>49844.955</v>
       </c>
       <c r="H49" t="n">
+        <v>1900.05386102308</v>
+      </c>
+      <c r="I49" t="n">
         <v>1880.39830998911</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1900.05386102308</v>
       </c>
       <c r="J49" t="n">
         <v>1900.05386102308</v>
@@ -2544,19 +2544,19 @@
         <v>15</v>
       </c>
       <c r="E51" t="n">
+        <v>59200.17059</v>
+      </c>
+      <c r="F51" t="n">
         <v>60277.62</v>
-      </c>
-      <c r="F51" t="n">
-        <v>59200.17059</v>
       </c>
       <c r="G51" t="n">
         <v>59200.17059</v>
       </c>
       <c r="H51" t="n">
+        <v>16061.4886294892</v>
+      </c>
+      <c r="I51" t="n">
         <v>15640.5668101562</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16061.4886294892</v>
       </c>
       <c r="J51" t="n">
         <v>16061.4886294892</v>
@@ -2594,10 +2594,10 @@
         <v>57959.25</v>
       </c>
       <c r="H52" t="n">
+        <v>13493.2900645125</v>
+      </c>
+      <c r="I52" t="n">
         <v>9389.01023308629</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13493.2900645125</v>
       </c>
       <c r="J52" t="n">
         <v>13493.2900645125</v>
@@ -2799,10 +2799,10 @@
         <v>50975.9</v>
       </c>
       <c r="H57" t="n">
+        <v>3326.3870604713</v>
+      </c>
+      <c r="I57" t="n">
         <v>3295.86949196496</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3326.3870604713</v>
       </c>
       <c r="J57" t="n">
         <v>3326.3870604713</v>
@@ -2831,19 +2831,19 @@
         <v>15</v>
       </c>
       <c r="E58" t="n">
+        <v>50975.9</v>
+      </c>
+      <c r="F58" t="n">
         <v>51004.14</v>
-      </c>
-      <c r="F58" t="n">
-        <v>50975.9</v>
       </c>
       <c r="G58" t="n">
         <v>50975.9</v>
       </c>
       <c r="H58" t="n">
+        <v>2566.40103174919</v>
+      </c>
+      <c r="I58" t="n">
         <v>2623.1295232966</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2566.40103174919</v>
       </c>
       <c r="J58" t="n">
         <v>2566.40103174919</v>
@@ -2913,19 +2913,19 @@
         <v>15</v>
       </c>
       <c r="E60" t="n">
+        <v>52163.325</v>
+      </c>
+      <c r="F60" t="n">
         <v>52742.9175</v>
-      </c>
-      <c r="F60" t="n">
-        <v>52163.325</v>
       </c>
       <c r="G60" t="n">
         <v>52163.325</v>
       </c>
       <c r="H60" t="n">
+        <v>5496.06924302693</v>
+      </c>
+      <c r="I60" t="n">
         <v>5362.25188809543</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5496.06924302693</v>
       </c>
       <c r="J60" t="n">
         <v>5496.06924302693</v>
@@ -2954,19 +2954,19 @@
         <v>15</v>
       </c>
       <c r="E61" t="n">
+        <v>50975.9</v>
+      </c>
+      <c r="F61" t="n">
         <v>51004.14</v>
-      </c>
-      <c r="F61" t="n">
-        <v>50975.9</v>
       </c>
       <c r="G61" t="n">
         <v>50975.9</v>
       </c>
       <c r="H61" t="n">
+        <v>2566.40103174919</v>
+      </c>
+      <c r="I61" t="n">
         <v>2623.1295232966</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2566.40103174919</v>
       </c>
       <c r="J61" t="n">
         <v>2566.40103174919</v>
@@ -3050,28 +3050,28 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
+        <v>104790.324</v>
+      </c>
+      <c r="F2" t="n">
         <v>79522.404</v>
-      </c>
-      <c r="F2" t="n">
-        <v>104790.324</v>
       </c>
       <c r="G2" t="n">
         <v>98689.3424</v>
       </c>
       <c r="H2" t="n">
+        <v>15822.4300201947</v>
+      </c>
+      <c r="I2" t="n">
         <v>33695.9560823451</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15822.4300201947</v>
       </c>
       <c r="J2" t="n">
         <v>35447.7617337198</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -3091,19 +3091,19 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
+        <v>168220.47</v>
+      </c>
+      <c r="F3" t="n">
         <v>166922.64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>168220.47</v>
       </c>
       <c r="G3" t="n">
         <v>169152.14272</v>
       </c>
       <c r="H3" t="n">
+        <v>4378.05449506362</v>
+      </c>
+      <c r="I3" t="n">
         <v>5148.33313797044</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4378.05449506362</v>
       </c>
       <c r="J3" t="n">
         <v>5599.7699157011</v>
@@ -3132,19 +3132,19 @@
         <v>15</v>
       </c>
       <c r="E4" t="n">
+        <v>90578.4</v>
+      </c>
+      <c r="F4" t="n">
         <v>82302.135</v>
-      </c>
-      <c r="F4" t="n">
-        <v>90578.4</v>
       </c>
       <c r="G4" t="n">
         <v>83455.942</v>
       </c>
       <c r="H4" t="n">
+        <v>3386.94136874966</v>
+      </c>
+      <c r="I4" t="n">
         <v>3953.03360856948</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3386.94136874966</v>
       </c>
       <c r="J4" t="n">
         <v>4781.05303472336</v>
@@ -3173,19 +3173,19 @@
         <v>15</v>
       </c>
       <c r="E5" t="n">
+        <v>97243.5968</v>
+      </c>
+      <c r="F5" t="n">
         <v>79657.094</v>
-      </c>
-      <c r="F5" t="n">
-        <v>97243.5968</v>
       </c>
       <c r="G5" t="n">
         <v>80013.236</v>
       </c>
       <c r="H5" t="n">
+        <v>2785.92080225877</v>
+      </c>
+      <c r="I5" t="n">
         <v>4054.35456069757</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2785.92080225877</v>
       </c>
       <c r="J5" t="n">
         <v>4262.41122413464</v>
@@ -3208,29 +3208,35 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>140840.9775</v>
-      </c>
-      <c r="F6"/>
+        <v>100733.1765</v>
+      </c>
+      <c r="F6" t="n">
+        <v>87678.548</v>
+      </c>
       <c r="G6" t="n">
-        <v>135799.7976</v>
+        <v>87150.2324</v>
       </c>
       <c r="H6" t="n">
-        <v>5898.46796957727</v>
-      </c>
-      <c r="I6"/>
+        <v>10372.2809386968</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13962.7543099189</v>
+      </c>
       <c r="J6" t="n">
-        <v>8157.7013376749</v>
+        <v>12853.0678797997</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
@@ -3243,29 +3249,35 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>181639.8848</v>
-      </c>
-      <c r="F7"/>
+        <v>130236.96</v>
+      </c>
+      <c r="F7" t="n">
+        <v>128066.344</v>
+      </c>
       <c r="G7" t="n">
-        <v>182331.744</v>
+        <v>127023.98</v>
       </c>
       <c r="H7" t="n">
-        <v>5531.44262432623</v>
-      </c>
-      <c r="I7"/>
+        <v>20630.6096080569</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14583.2886212473</v>
+      </c>
       <c r="J7" t="n">
-        <v>5282.99897805594</v>
+        <v>13911.2412571425</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7"/>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
       <c r="M7" t="s">
         <v>18</v>
       </c>
@@ -3278,29 +3290,35 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>142732.52</v>
-      </c>
-      <c r="F8"/>
+        <v>126809.76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100849.095</v>
+      </c>
       <c r="G8" t="n">
-        <v>137233.384</v>
+        <v>107486.368</v>
       </c>
       <c r="H8" t="n">
-        <v>3214.69867679675</v>
-      </c>
-      <c r="I8"/>
+        <v>4332.25277201833</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6428.32084072217</v>
+      </c>
       <c r="J8" t="n">
-        <v>3056.4370514043</v>
+        <v>8227.9137695208</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8"/>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
       <c r="M8" t="s">
         <v>18</v>
       </c>
@@ -3313,29 +3331,35 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>119396.055</v>
-      </c>
-      <c r="F9"/>
+        <v>142732.52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>140840.9775</v>
+      </c>
       <c r="G9" t="n">
-        <v>110122.575</v>
+        <v>141652.407</v>
       </c>
       <c r="H9" t="n">
-        <v>4710.37812679202</v>
-      </c>
-      <c r="I9"/>
+        <v>1428.63578540444</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1479.34869364543</v>
+      </c>
       <c r="J9" t="n">
-        <v>8095.95197053973</v>
+        <v>1460.92572429665</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L9"/>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
@@ -3348,28 +3372,28 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>87678.548</v>
+        <v>136521.1</v>
       </c>
       <c r="F10" t="n">
-        <v>100733.1765</v>
+        <v>136521.1</v>
       </c>
       <c r="G10" t="n">
-        <v>87150.2324</v>
+        <v>136521.1</v>
       </c>
       <c r="H10" t="n">
-        <v>13962.7543099189</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="I10" t="n">
-        <v>10372.2809386968</v>
+        <v>1085.28363716262</v>
       </c>
       <c r="J10" t="n">
-        <v>12853.0678797997</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
@@ -3389,32 +3413,26 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="n">
-        <v>128066.344</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" t="n">
-        <v>130236.96</v>
+        <v>140840.9775</v>
       </c>
       <c r="G11" t="n">
-        <v>127023.98</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14583.2886212473</v>
-      </c>
+        <v>135799.7976</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="n">
-        <v>20630.6096080569</v>
+        <v>5898.46796957727</v>
       </c>
       <c r="J11" t="n">
-        <v>13911.2412571425</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
+        <v>8157.7013376749</v>
+      </c>
+      <c r="K11"/>
       <c r="L11" t="s">
         <v>18</v>
       </c>
@@ -3430,32 +3448,26 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
-        <v>100849.095</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" t="n">
-        <v>126809.76</v>
+        <v>181639.8848</v>
       </c>
       <c r="G12" t="n">
-        <v>107486.368</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6428.32084072217</v>
-      </c>
+        <v>182331.744</v>
+      </c>
+      <c r="H12"/>
       <c r="I12" t="n">
-        <v>4332.25277201833</v>
+        <v>5531.44262432623</v>
       </c>
       <c r="J12" t="n">
-        <v>8227.9137695208</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
+        <v>5282.99897805594</v>
+      </c>
+      <c r="K12"/>
       <c r="L12" t="s">
         <v>18</v>
       </c>
@@ -3471,32 +3483,26 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="n">
-        <v>140840.9775</v>
-      </c>
+      <c r="E13"/>
       <c r="F13" t="n">
         <v>142732.52</v>
       </c>
       <c r="G13" t="n">
-        <v>141652.407</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1479.34869364543</v>
-      </c>
+        <v>137233.384</v>
+      </c>
+      <c r="H13"/>
       <c r="I13" t="n">
-        <v>1428.63578540444</v>
+        <v>3214.69867679675</v>
       </c>
       <c r="J13" t="n">
-        <v>1460.92572429665</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
+        <v>3056.4370514043</v>
+      </c>
+      <c r="K13"/>
       <c r="L13" t="s">
         <v>18</v>
       </c>
@@ -3512,32 +3518,26 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="n">
-        <v>136521.1</v>
-      </c>
+      <c r="E14"/>
       <c r="F14" t="n">
-        <v>136521.1</v>
+        <v>119396.055</v>
       </c>
       <c r="G14" t="n">
-        <v>136521.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1085.28363716262</v>
-      </c>
+        <v>110122.575</v>
+      </c>
+      <c r="H14"/>
       <c r="I14" t="n">
-        <v>1066.12046660227</v>
+        <v>4710.37812679202</v>
       </c>
       <c r="J14" t="n">
-        <v>1066.12046660227</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
+        <v>8095.95197053973</v>
+      </c>
+      <c r="K14"/>
       <c r="L14" t="s">
         <v>18</v>
       </c>
@@ -3558,24 +3558,24 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15"/>
+      <c r="F15" t="n">
         <v>146520.984</v>
       </c>
-      <c r="F15"/>
       <c r="G15" t="n">
         <v>142510.016</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15"/>
+      <c r="I15" t="n">
         <v>2779.0023197814</v>
       </c>
-      <c r="I15"/>
       <c r="J15" t="n">
         <v>2092.37650366124</v>
       </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15"/>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" t="s">
         <v>18</v>
       </c>
@@ -3594,19 +3594,19 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
+        <v>126809.76</v>
+      </c>
+      <c r="F16" t="n">
         <v>143752.038</v>
-      </c>
-      <c r="F16" t="n">
-        <v>126809.76</v>
       </c>
       <c r="G16" t="n">
         <v>140082.52</v>
       </c>
       <c r="H16" t="n">
+        <v>4332.25277201833</v>
+      </c>
+      <c r="I16" t="n">
         <v>2296.1021089012</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4332.25277201833</v>
       </c>
       <c r="J16" t="n">
         <v>2299.14129540471</v>
@@ -3635,19 +3635,19 @@
         <v>15</v>
       </c>
       <c r="E17" t="n">
+        <v>123669.7088</v>
+      </c>
+      <c r="F17" t="n">
         <v>131060.256</v>
-      </c>
-      <c r="F17" t="n">
-        <v>123669.7088</v>
       </c>
       <c r="G17" t="n">
         <v>130236.96</v>
       </c>
       <c r="H17" t="n">
+        <v>2431.18244156743</v>
+      </c>
+      <c r="I17" t="n">
         <v>1926.72320833829</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2431.18244156743</v>
       </c>
       <c r="J17" t="n">
         <v>1359.85839858073</v>
@@ -3676,19 +3676,19 @@
         <v>15</v>
       </c>
       <c r="E18" t="n">
+        <v>136521.1</v>
+      </c>
+      <c r="F18" t="n">
         <v>132959.68</v>
-      </c>
-      <c r="F18" t="n">
-        <v>136521.1</v>
       </c>
       <c r="G18" t="n">
         <v>134465.46</v>
       </c>
       <c r="H18" t="n">
+        <v>1066.12046660227</v>
+      </c>
+      <c r="I18" t="n">
         <v>1317.10804519356</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1066.12046660227</v>
       </c>
       <c r="J18" t="n">
         <v>1330.556901164</v>
@@ -3717,28 +3717,28 @@
         <v>15</v>
       </c>
       <c r="E19" t="n">
+        <v>54950.896</v>
+      </c>
+      <c r="F19" t="n">
         <v>50723.904</v>
-      </c>
-      <c r="F19" t="n">
-        <v>54950.896</v>
       </c>
       <c r="G19" t="n">
         <v>50723.904</v>
       </c>
       <c r="H19" t="n">
+        <v>20566.9404809805</v>
+      </c>
+      <c r="I19" t="n">
         <v>27841.6618378628</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20566.9404809805</v>
       </c>
       <c r="J19" t="n">
         <v>23049.9681194258</v>
       </c>
       <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
         <v>30</v>
-      </c>
-      <c r="L19" t="s">
-        <v>16</v>
       </c>
       <c r="M19" t="s">
         <v>16</v>
@@ -3767,10 +3767,10 @@
         <v>185756.1796</v>
       </c>
       <c r="H20" t="n">
+        <v>3899.08167493826</v>
+      </c>
+      <c r="I20" t="n">
         <v>3980.88773404697</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3899.08167493826</v>
       </c>
       <c r="J20" t="n">
         <v>4083.78242979067</v>
@@ -3799,19 +3799,19 @@
         <v>15</v>
       </c>
       <c r="E21" t="n">
+        <v>86938.875</v>
+      </c>
+      <c r="F21" t="n">
         <v>78501.28</v>
-      </c>
-      <c r="F21" t="n">
-        <v>86938.875</v>
       </c>
       <c r="G21" t="n">
         <v>80795.1945</v>
       </c>
       <c r="H21" t="n">
+        <v>6697.91451581728</v>
+      </c>
+      <c r="I21" t="n">
         <v>8359.74821261896</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6697.91451581728</v>
       </c>
       <c r="J21" t="n">
         <v>7763.65947867403</v>
@@ -3840,19 +3840,19 @@
         <v>15</v>
       </c>
       <c r="E22" t="n">
+        <v>98763.028</v>
+      </c>
+      <c r="F22" t="n">
         <v>81142.95</v>
-      </c>
-      <c r="F22" t="n">
-        <v>98763.028</v>
       </c>
       <c r="G22" t="n">
         <v>81520.56</v>
       </c>
       <c r="H22" t="n">
+        <v>6469.76154257661</v>
+      </c>
+      <c r="I22" t="n">
         <v>8261.90220868616</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6469.76154257661</v>
       </c>
       <c r="J22" t="n">
         <v>8609.98503013217</v>
@@ -3875,29 +3875,35 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>154456.977</v>
-      </c>
-      <c r="F23"/>
+        <v>93795.656</v>
+      </c>
+      <c r="F23" t="n">
+        <v>81561.44</v>
+      </c>
       <c r="G23" t="n">
-        <v>149869.146</v>
+        <v>81561.44</v>
       </c>
       <c r="H23" t="n">
-        <v>11671.4010511167</v>
-      </c>
-      <c r="I23"/>
+        <v>21716.8458497514</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11718.7476505776</v>
+      </c>
       <c r="J23" t="n">
-        <v>14252.9722939988</v>
+        <v>13803.8194430041</v>
       </c>
       <c r="K23" t="s">
         <v>18</v>
       </c>
-      <c r="L23"/>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
       <c r="M23" t="s">
         <v>18</v>
       </c>
@@ -3910,31 +3916,37 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>210020.708</v>
-      </c>
-      <c r="F24"/>
+        <v>154113.736</v>
+      </c>
+      <c r="F24" t="n">
+        <v>131517.822</v>
+      </c>
       <c r="G24" t="n">
-        <v>210081.298</v>
+        <v>131517.822</v>
       </c>
       <c r="H24" t="n">
-        <v>9268.32381610211</v>
-      </c>
-      <c r="I24"/>
+        <v>30926.6141734041</v>
+      </c>
+      <c r="I24" t="n">
+        <v>44372.5224835676</v>
+      </c>
       <c r="J24" t="n">
-        <v>9406.80798793569</v>
+        <v>44587.4136290078</v>
       </c>
       <c r="K24" t="s">
         <v>18</v>
       </c>
-      <c r="L24"/>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -3945,29 +3957,35 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>162796.2</v>
-      </c>
-      <c r="F25"/>
+        <v>142834.4718</v>
+      </c>
+      <c r="F25" t="n">
+        <v>109088.426</v>
+      </c>
       <c r="G25" t="n">
-        <v>157005.772</v>
+        <v>122393.1359</v>
       </c>
       <c r="H25" t="n">
-        <v>5210.14226054</v>
-      </c>
-      <c r="I25"/>
+        <v>10577.2385772801</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12096.2742091487</v>
+      </c>
       <c r="J25" t="n">
-        <v>3611.42712030773</v>
+        <v>20177.7621517745</v>
       </c>
       <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25"/>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
       <c r="M25" t="s">
         <v>18</v>
       </c>
@@ -3980,29 +3998,35 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>126809.76</v>
-      </c>
-      <c r="F26"/>
+        <v>168220.47</v>
+      </c>
+      <c r="F26" t="n">
+        <v>165012.46</v>
+      </c>
       <c r="G26" t="n">
-        <v>113965.44</v>
+        <v>165943.5932</v>
       </c>
       <c r="H26" t="n">
-        <v>13279.6880812759</v>
-      </c>
-      <c r="I26"/>
+        <v>2504.44178656926</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2845.95886728038</v>
+      </c>
       <c r="J26" t="n">
-        <v>15054.4025212806</v>
+        <v>2986.07009140882</v>
       </c>
       <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="L26"/>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
       <c r="M26" t="s">
         <v>18</v>
       </c>
@@ -4015,28 +4039,28 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>81561.44</v>
+        <v>156489.975</v>
       </c>
       <c r="F27" t="n">
-        <v>93795.656</v>
+        <v>156489.975</v>
       </c>
       <c r="G27" t="n">
-        <v>81561.44</v>
+        <v>156489.975</v>
       </c>
       <c r="H27" t="n">
-        <v>11718.7476505776</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="I27" t="n">
-        <v>21716.8458497514</v>
+        <v>1788.75431262822</v>
       </c>
       <c r="J27" t="n">
-        <v>13803.8194430041</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="K27" t="s">
         <v>18</v>
@@ -4056,37 +4080,31 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="n">
-        <v>131517.822</v>
-      </c>
+      <c r="E28"/>
       <c r="F28" t="n">
-        <v>154113.736</v>
+        <v>154456.977</v>
       </c>
       <c r="G28" t="n">
-        <v>131517.822</v>
-      </c>
-      <c r="H28" t="n">
-        <v>44372.5224835676</v>
-      </c>
+        <v>149869.146</v>
+      </c>
+      <c r="H28"/>
       <c r="I28" t="n">
-        <v>30926.6141734041</v>
+        <v>11671.4010511167</v>
       </c>
       <c r="J28" t="n">
-        <v>44587.4136290078</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
-      </c>
+        <v>14252.9722939988</v>
+      </c>
+      <c r="K28"/>
       <c r="L28" t="s">
         <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -4097,32 +4115,26 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" t="n">
-        <v>109088.426</v>
-      </c>
+      <c r="E29"/>
       <c r="F29" t="n">
-        <v>142834.4718</v>
+        <v>210020.708</v>
       </c>
       <c r="G29" t="n">
-        <v>122393.1359</v>
-      </c>
-      <c r="H29" t="n">
-        <v>12096.2742091487</v>
-      </c>
+        <v>210081.298</v>
+      </c>
+      <c r="H29"/>
       <c r="I29" t="n">
-        <v>10577.2385772801</v>
+        <v>9268.32381610211</v>
       </c>
       <c r="J29" t="n">
-        <v>20177.7621517745</v>
-      </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
+        <v>9406.80798793569</v>
+      </c>
+      <c r="K29"/>
       <c r="L29" t="s">
         <v>18</v>
       </c>
@@ -4138,32 +4150,26 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="n">
-        <v>165012.46</v>
-      </c>
+      <c r="E30"/>
       <c r="F30" t="n">
-        <v>168220.47</v>
+        <v>162796.2</v>
       </c>
       <c r="G30" t="n">
-        <v>165943.5932</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2845.95886728038</v>
-      </c>
+        <v>157005.772</v>
+      </c>
+      <c r="H30"/>
       <c r="I30" t="n">
-        <v>2504.44178656926</v>
+        <v>5210.14226054</v>
       </c>
       <c r="J30" t="n">
-        <v>2986.07009140882</v>
-      </c>
-      <c r="K30" t="s">
-        <v>18</v>
-      </c>
+        <v>3611.42712030773</v>
+      </c>
+      <c r="K30"/>
       <c r="L30" t="s">
         <v>18</v>
       </c>
@@ -4179,32 +4185,26 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" t="n">
-        <v>156489.975</v>
-      </c>
+      <c r="E31"/>
       <c r="F31" t="n">
-        <v>156489.975</v>
+        <v>126809.76</v>
       </c>
       <c r="G31" t="n">
-        <v>156489.975</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1788.75431262822</v>
-      </c>
+        <v>113965.44</v>
+      </c>
+      <c r="H31"/>
       <c r="I31" t="n">
-        <v>1800.43590264081</v>
+        <v>13279.6880812759</v>
       </c>
       <c r="J31" t="n">
-        <v>1800.43590264081</v>
-      </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
+        <v>15054.4025212806</v>
+      </c>
+      <c r="K31"/>
       <c r="L31" t="s">
         <v>18</v>
       </c>
@@ -4225,24 +4225,24 @@
       <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32"/>
+      <c r="F32" t="n">
         <v>169036.0844</v>
       </c>
-      <c r="F32"/>
       <c r="G32" t="n">
         <v>163122.88</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32"/>
+      <c r="I32" t="n">
         <v>4029.31259224884</v>
       </c>
-      <c r="I32"/>
       <c r="J32" t="n">
         <v>4099.127743269</v>
       </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32"/>
+      <c r="K32"/>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
       <c r="M32" t="s">
         <v>18</v>
       </c>
@@ -4261,19 +4261,19 @@
         <v>15</v>
       </c>
       <c r="E33" t="n">
+        <v>142834.4718</v>
+      </c>
+      <c r="F33" t="n">
         <v>164264.74016</v>
-      </c>
-      <c r="F33" t="n">
-        <v>142834.4718</v>
       </c>
       <c r="G33" t="n">
         <v>159967.53</v>
       </c>
       <c r="H33" t="n">
+        <v>10577.2385772801</v>
+      </c>
+      <c r="I33" t="n">
         <v>4110.22160044922</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10577.2385772801</v>
       </c>
       <c r="J33" t="n">
         <v>4187.11504955054</v>
@@ -4302,19 +4302,19 @@
         <v>15</v>
       </c>
       <c r="E34" t="n">
+        <v>136783.83</v>
+      </c>
+      <c r="F34" t="n">
         <v>147340.864</v>
-      </c>
-      <c r="F34" t="n">
-        <v>136783.83</v>
       </c>
       <c r="G34" t="n">
         <v>146516.58</v>
       </c>
       <c r="H34" t="n">
+        <v>3405.13420130304</v>
+      </c>
+      <c r="I34" t="n">
         <v>3196.57240338512</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3405.13420130304</v>
       </c>
       <c r="J34" t="n">
         <v>3290.21467559746</v>
@@ -4343,19 +4343,19 @@
         <v>15</v>
       </c>
       <c r="E35" t="n">
+        <v>156489.975</v>
+      </c>
+      <c r="F35" t="n">
         <v>152927.7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>156489.975</v>
       </c>
       <c r="G35" t="n">
         <v>154171.605</v>
       </c>
       <c r="H35" t="n">
+        <v>1800.43590264081</v>
+      </c>
+      <c r="I35" t="n">
         <v>1715.22522457126</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1800.43590264081</v>
       </c>
       <c r="J35" t="n">
         <v>1871.58648434169</v>
@@ -4384,28 +4384,28 @@
         <v>15</v>
       </c>
       <c r="E36" t="n">
+        <v>83461.32</v>
+      </c>
+      <c r="F36" t="n">
         <v>66242.412</v>
-      </c>
-      <c r="F36" t="n">
-        <v>83461.32</v>
       </c>
       <c r="G36" t="n">
         <v>66242.412</v>
       </c>
       <c r="H36" t="n">
+        <v>23723.4569934109</v>
+      </c>
+      <c r="I36" t="n">
         <v>33281.2390656598</v>
-      </c>
-      <c r="I36" t="n">
-        <v>23723.4569934109</v>
       </c>
       <c r="J36" t="n">
         <v>23122.3631620111</v>
       </c>
       <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
         <v>30</v>
-      </c>
-      <c r="L36" t="s">
-        <v>16</v>
       </c>
       <c r="M36" t="s">
         <v>16</v>
@@ -4425,19 +4425,19 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
+        <v>122586.84432</v>
+      </c>
+      <c r="F37" t="n">
         <v>105433.2576</v>
-      </c>
-      <c r="F37" t="n">
-        <v>122586.84432</v>
       </c>
       <c r="G37" t="n">
         <v>113549.6166</v>
       </c>
       <c r="H37" t="n">
+        <v>12729.3529982533</v>
+      </c>
+      <c r="I37" t="n">
         <v>23483.461253286</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12729.3529982533</v>
       </c>
       <c r="J37" t="n">
         <v>23051.4455257596</v>
@@ -4466,28 +4466,28 @@
         <v>15</v>
       </c>
       <c r="E38" t="n">
+        <v>108383.7975</v>
+      </c>
+      <c r="F38" t="n">
         <v>85264.4672</v>
-      </c>
-      <c r="F38" t="n">
-        <v>108383.7975</v>
       </c>
       <c r="G38" t="n">
         <v>85264.4672</v>
       </c>
       <c r="H38" t="n">
+        <v>38777.2899093825</v>
+      </c>
+      <c r="I38" t="n">
         <v>15990.8042538521</v>
-      </c>
-      <c r="I38" t="n">
-        <v>38777.2899093825</v>
       </c>
       <c r="J38" t="n">
         <v>20159.0127654108</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M38" t="s">
         <v>18</v>
@@ -4507,19 +4507,19 @@
         <v>15</v>
       </c>
       <c r="E39" t="n">
+        <v>89035.5</v>
+      </c>
+      <c r="F39" t="n">
         <v>67631.872</v>
-      </c>
-      <c r="F39" t="n">
-        <v>89035.5</v>
       </c>
       <c r="G39" t="n">
         <v>67631.872</v>
       </c>
       <c r="H39" t="n">
+        <v>9946.52676655783</v>
+      </c>
+      <c r="I39" t="n">
         <v>9001.63661624217</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9946.52676655783</v>
       </c>
       <c r="J39" t="n">
         <v>8875.40463323271</v>
@@ -4542,31 +4542,37 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="n">
-        <v>124756.6496</v>
-      </c>
-      <c r="F40"/>
+        <v>119383.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>77995.098</v>
+      </c>
       <c r="G40" t="n">
-        <v>100574.5008</v>
+        <v>77995.098</v>
       </c>
       <c r="H40" t="n">
-        <v>60316.7915229755</v>
-      </c>
-      <c r="I40"/>
+        <v>20020.0758051345</v>
+      </c>
+      <c r="I40" t="n">
+        <v>63533.2318892904</v>
+      </c>
       <c r="J40" t="n">
-        <v>36290.045118852</v>
+        <v>63533.2318892904</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
-      </c>
-      <c r="L40"/>
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>30</v>
+      </c>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -4577,31 +4583,37 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>128066.344</v>
-      </c>
-      <c r="F41"/>
+        <v>123290.9888</v>
+      </c>
+      <c r="F41" t="n">
+        <v>118714</v>
+      </c>
       <c r="G41" t="n">
-        <v>128066.344</v>
+        <v>118714</v>
       </c>
       <c r="H41" t="n">
-        <v>11286.4100202151</v>
-      </c>
-      <c r="I41"/>
+        <v>55276.8972182339</v>
+      </c>
+      <c r="I41" t="n">
+        <v>47312.9894698309</v>
+      </c>
       <c r="J41" t="n">
-        <v>12150.6809649802</v>
+        <v>47312.9894698309</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41"/>
+        <v>16</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -4612,29 +4624,35 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>124605.48996</v>
-      </c>
-      <c r="F42"/>
+        <v>94815.174</v>
+      </c>
+      <c r="F42" t="n">
+        <v>94937.2515</v>
+      </c>
       <c r="G42" t="n">
-        <v>122342.16</v>
+        <v>95507.104</v>
       </c>
       <c r="H42" t="n">
-        <v>7273.04319156673</v>
-      </c>
-      <c r="I42"/>
+        <v>6342.65022080927</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14638.3239283411</v>
+      </c>
       <c r="J42" t="n">
-        <v>6818.74292609626</v>
+        <v>12435.8630344971</v>
       </c>
       <c r="K42" t="s">
         <v>18</v>
       </c>
-      <c r="L42"/>
+      <c r="L42" t="s">
+        <v>18</v>
+      </c>
       <c r="M42" t="s">
         <v>18</v>
       </c>
@@ -4647,29 +4665,35 @@
         <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>89717.584</v>
-      </c>
-      <c r="F43"/>
+        <v>121598.5065</v>
+      </c>
+      <c r="F43" t="n">
+        <v>120771.2</v>
+      </c>
       <c r="G43" t="n">
-        <v>83461.32</v>
+        <v>121088.28</v>
       </c>
       <c r="H43" t="n">
-        <v>21106.3659822485</v>
-      </c>
-      <c r="I43"/>
+        <v>3029.87727404456</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3502.54364546422</v>
+      </c>
       <c r="J43" t="n">
-        <v>17655.4342195104</v>
+        <v>3564.59376476758</v>
       </c>
       <c r="K43" t="s">
         <v>18</v>
       </c>
-      <c r="L43"/>
+      <c r="L43" t="s">
+        <v>18</v>
+      </c>
       <c r="M43" t="s">
         <v>18</v>
       </c>
@@ -4682,37 +4706,37 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>77995.098</v>
+        <v>118298.572</v>
       </c>
       <c r="F44" t="n">
-        <v>119383.88</v>
+        <v>118298.572</v>
       </c>
       <c r="G44" t="n">
-        <v>77995.098</v>
+        <v>118298.572</v>
       </c>
       <c r="H44" t="n">
-        <v>63533.2318892904</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="I44" t="n">
-        <v>20020.0758051345</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="J44" t="n">
-        <v>63533.2318892904</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="K44" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
         <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -4723,32 +4747,26 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" t="n">
-        <v>118714</v>
-      </c>
+      <c r="E45"/>
       <c r="F45" t="n">
-        <v>123290.9888</v>
+        <v>124756.6496</v>
       </c>
       <c r="G45" t="n">
-        <v>118714</v>
-      </c>
-      <c r="H45" t="n">
-        <v>47312.9894698309</v>
-      </c>
+        <v>100574.5008</v>
+      </c>
+      <c r="H45"/>
       <c r="I45" t="n">
-        <v>55276.8972182339</v>
+        <v>60316.7915229755</v>
       </c>
       <c r="J45" t="n">
-        <v>47312.9894698309</v>
-      </c>
-      <c r="K45" t="s">
-        <v>16</v>
-      </c>
+        <v>36290.045118852</v>
+      </c>
+      <c r="K45"/>
       <c r="L45" t="s">
         <v>16</v>
       </c>
@@ -4764,32 +4782,26 @@
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" t="n">
-        <v>94937.2515</v>
-      </c>
+      <c r="E46"/>
       <c r="F46" t="n">
-        <v>94815.174</v>
+        <v>128066.344</v>
       </c>
       <c r="G46" t="n">
-        <v>95507.104</v>
-      </c>
-      <c r="H46" t="n">
-        <v>14638.3239283411</v>
-      </c>
+        <v>128066.344</v>
+      </c>
+      <c r="H46"/>
       <c r="I46" t="n">
-        <v>6342.65022080927</v>
+        <v>11286.4100202151</v>
       </c>
       <c r="J46" t="n">
-        <v>12435.8630344971</v>
-      </c>
-      <c r="K46" t="s">
-        <v>18</v>
-      </c>
+        <v>12150.6809649802</v>
+      </c>
+      <c r="K46"/>
       <c r="L46" t="s">
         <v>18</v>
       </c>
@@ -4805,32 +4817,26 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
-      <c r="E47" t="n">
-        <v>120771.2</v>
-      </c>
+      <c r="E47"/>
       <c r="F47" t="n">
-        <v>121598.5065</v>
+        <v>124605.48996</v>
       </c>
       <c r="G47" t="n">
-        <v>121088.28</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3502.54364546422</v>
-      </c>
+        <v>122342.16</v>
+      </c>
+      <c r="H47"/>
       <c r="I47" t="n">
-        <v>3029.87727404456</v>
+        <v>7273.04319156673</v>
       </c>
       <c r="J47" t="n">
-        <v>3564.59376476758</v>
-      </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
+        <v>6818.74292609626</v>
+      </c>
+      <c r="K47"/>
       <c r="L47" t="s">
         <v>18</v>
       </c>
@@ -4846,32 +4852,26 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E48" t="n">
-        <v>118298.572</v>
-      </c>
+      <c r="E48"/>
       <c r="F48" t="n">
-        <v>118298.572</v>
+        <v>89717.584</v>
       </c>
       <c r="G48" t="n">
-        <v>118298.572</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3383.90722201948</v>
-      </c>
+        <v>83461.32</v>
+      </c>
+      <c r="H48"/>
       <c r="I48" t="n">
-        <v>3383.90722201948</v>
+        <v>21106.3659822485</v>
       </c>
       <c r="J48" t="n">
-        <v>3383.90722201948</v>
-      </c>
-      <c r="K48" t="s">
-        <v>18</v>
-      </c>
+        <v>17655.4342195104</v>
+      </c>
+      <c r="K48"/>
       <c r="L48" t="s">
         <v>18</v>
       </c>
@@ -4892,24 +4892,24 @@
       <c r="D49" t="s">
         <v>15</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49"/>
+      <c r="F49" t="n">
         <v>124376.2968</v>
       </c>
-      <c r="F49"/>
       <c r="G49" t="n">
         <v>122342.16</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49"/>
+      <c r="I49" t="n">
         <v>5318.31867809614</v>
       </c>
-      <c r="I49"/>
       <c r="J49" t="n">
         <v>5523.74133725496</v>
       </c>
-      <c r="K49" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49"/>
+      <c r="K49"/>
+      <c r="L49" t="s">
+        <v>18</v>
+      </c>
       <c r="M49" t="s">
         <v>18</v>
       </c>
@@ -4928,19 +4928,19 @@
         <v>15</v>
       </c>
       <c r="E50" t="n">
+        <v>94815.174</v>
+      </c>
+      <c r="F50" t="n">
         <v>122049.8634</v>
-      </c>
-      <c r="F50" t="n">
-        <v>94815.174</v>
       </c>
       <c r="G50" t="n">
         <v>121018.914</v>
       </c>
       <c r="H50" t="n">
+        <v>6342.65022080927</v>
+      </c>
+      <c r="I50" t="n">
         <v>6135.51406967084</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6342.65022080927</v>
       </c>
       <c r="J50" t="n">
         <v>6260.01987926469</v>
@@ -4969,19 +4969,19 @@
         <v>15</v>
       </c>
       <c r="E51" t="n">
+        <v>99848.336</v>
+      </c>
+      <c r="F51" t="n">
         <v>113631.7476</v>
-      </c>
-      <c r="F51" t="n">
-        <v>99848.336</v>
       </c>
       <c r="G51" t="n">
         <v>113524.928</v>
       </c>
       <c r="H51" t="n">
+        <v>5892.98980394568</v>
+      </c>
+      <c r="I51" t="n">
         <v>4778.34940871608</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5892.98980394568</v>
       </c>
       <c r="J51" t="n">
         <v>4724.57511183432</v>
@@ -5010,19 +5010,19 @@
         <v>15</v>
       </c>
       <c r="E52" t="n">
+        <v>118298.572</v>
+      </c>
+      <c r="F52" t="n">
         <v>115152.58</v>
-      </c>
-      <c r="F52" t="n">
-        <v>118298.572</v>
       </c>
       <c r="G52" t="n">
         <v>115918.5</v>
       </c>
       <c r="H52" t="n">
+        <v>3383.90722201948</v>
+      </c>
+      <c r="I52" t="n">
         <v>4111.51371245192</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3383.90722201948</v>
       </c>
       <c r="J52" t="n">
         <v>4313.76467089778</v>
@@ -5051,28 +5051,28 @@
         <v>15</v>
       </c>
       <c r="E53" t="n">
+        <v>119048.2995</v>
+      </c>
+      <c r="F53" t="n">
         <v>125136.0124</v>
-      </c>
-      <c r="F53" t="n">
-        <v>119048.2995</v>
       </c>
       <c r="G53" t="n">
         <v>125136.0124</v>
       </c>
       <c r="H53" t="n">
+        <v>16899.3168280294</v>
+      </c>
+      <c r="I53" t="n">
         <v>58983.3850769241</v>
-      </c>
-      <c r="I53" t="n">
-        <v>16899.3168280294</v>
       </c>
       <c r="J53" t="n">
         <v>78370.6399238989</v>
       </c>
       <c r="K53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" t="s">
         <v>16</v>
-      </c>
-      <c r="L53" t="s">
-        <v>18</v>
       </c>
       <c r="M53" t="s">
         <v>30</v>
@@ -5092,19 +5092,19 @@
         <v>15</v>
       </c>
       <c r="E54" t="n">
+        <v>109195.227</v>
+      </c>
+      <c r="F54" t="n">
         <v>98893.246</v>
-      </c>
-      <c r="F54" t="n">
-        <v>109195.227</v>
       </c>
       <c r="G54" t="n">
         <v>99719.76</v>
       </c>
       <c r="H54" t="n">
+        <v>9689.19306224248</v>
+      </c>
+      <c r="I54" t="n">
         <v>5516.46140421491</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9689.19306224248</v>
       </c>
       <c r="J54" t="n">
         <v>4411.86877084347</v>
@@ -5133,19 +5133,19 @@
         <v>15</v>
       </c>
       <c r="E55" t="n">
+        <v>91544.5696</v>
+      </c>
+      <c r="F55" t="n">
         <v>87678.548</v>
-      </c>
-      <c r="F55" t="n">
-        <v>91544.5696</v>
       </c>
       <c r="G55" t="n">
         <v>89035.5</v>
       </c>
       <c r="H55" t="n">
+        <v>6856.05611606797</v>
+      </c>
+      <c r="I55" t="n">
         <v>9637.38012102246</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6856.05611606797</v>
       </c>
       <c r="J55" t="n">
         <v>7437.5489761466</v>
@@ -5174,19 +5174,19 @@
         <v>15</v>
       </c>
       <c r="E56" t="n">
+        <v>94971.2</v>
+      </c>
+      <c r="F56" t="n">
         <v>80192.0768</v>
-      </c>
-      <c r="F56" t="n">
-        <v>94971.2</v>
       </c>
       <c r="G56" t="n">
         <v>79987.1996</v>
       </c>
       <c r="H56" t="n">
+        <v>2379.20599910447</v>
+      </c>
+      <c r="I56" t="n">
         <v>5925.27523757078</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2379.20599910447</v>
       </c>
       <c r="J56" t="n">
         <v>5834.77911922261</v>
@@ -5209,29 +5209,35 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>122342.16</v>
-      </c>
-      <c r="F57"/>
+        <v>103863.232</v>
+      </c>
+      <c r="F57" t="n">
+        <v>93795.656</v>
+      </c>
       <c r="G57" t="n">
-        <v>112778.3</v>
+        <v>93795.656</v>
       </c>
       <c r="H57" t="n">
-        <v>12615.9157730295</v>
-      </c>
-      <c r="I57"/>
+        <v>17731.8280176408</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25167.6606359133</v>
+      </c>
       <c r="J57" t="n">
-        <v>20874.7028658815</v>
+        <v>21247.2045415511</v>
       </c>
       <c r="K57" t="s">
         <v>18</v>
       </c>
-      <c r="L57"/>
+      <c r="L57" t="s">
+        <v>16</v>
+      </c>
       <c r="M57" t="s">
         <v>18</v>
       </c>
@@ -5244,31 +5250,37 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>143586.2484</v>
-      </c>
-      <c r="F58"/>
+        <v>116577.148</v>
+      </c>
+      <c r="F58" t="n">
+        <v>116577.148</v>
+      </c>
       <c r="G58" t="n">
-        <v>142594.66</v>
+        <v>116577.148</v>
       </c>
       <c r="H58" t="n">
-        <v>9059.30826934687</v>
-      </c>
-      <c r="I58"/>
+        <v>12756.8056098984</v>
+      </c>
+      <c r="I58" t="n">
+        <v>35618.2271066435</v>
+      </c>
       <c r="J58" t="n">
-        <v>9217.00271115485</v>
+        <v>47847.5906094658</v>
       </c>
       <c r="K58" t="s">
         <v>18</v>
       </c>
-      <c r="L58"/>
+      <c r="L58" t="s">
+        <v>16</v>
+      </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -5279,29 +5291,35 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>124381.196</v>
-      </c>
-      <c r="F59"/>
+        <v>103990.836</v>
+      </c>
+      <c r="F59" t="n">
+        <v>80916.704</v>
+      </c>
       <c r="G59" t="n">
-        <v>119487.5096</v>
+        <v>82150.088</v>
       </c>
       <c r="H59" t="n">
-        <v>5548.46485584311</v>
-      </c>
-      <c r="I59"/>
+        <v>8843.18489533869</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7753.56910572762</v>
+      </c>
       <c r="J59" t="n">
-        <v>5682.16595569948</v>
+        <v>9514.16986203294</v>
       </c>
       <c r="K59" t="s">
         <v>18</v>
       </c>
-      <c r="L59"/>
+      <c r="L59" t="s">
+        <v>18</v>
+      </c>
       <c r="M59" t="s">
         <v>18</v>
       </c>
@@ -5314,29 +5332,35 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>115476.7712</v>
-      </c>
-      <c r="F60"/>
+        <v>121978.912</v>
+      </c>
+      <c r="F60" t="n">
+        <v>120555.24</v>
+      </c>
       <c r="G60" t="n">
-        <v>104326.65</v>
+        <v>121088.28</v>
       </c>
       <c r="H60" t="n">
-        <v>8443.58489337815</v>
-      </c>
-      <c r="I60"/>
+        <v>2248.58898249227</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2103.89340159665</v>
+      </c>
       <c r="J60" t="n">
-        <v>13519.2005684025</v>
+        <v>2164.21133347385</v>
       </c>
       <c r="K60" t="s">
         <v>18</v>
       </c>
-      <c r="L60"/>
+      <c r="L60" t="s">
+        <v>18</v>
+      </c>
       <c r="M60" t="s">
         <v>18</v>
       </c>
@@ -5349,31 +5373,31 @@
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>93795.656</v>
+        <v>115222.989</v>
       </c>
       <c r="F61" t="n">
-        <v>103863.232</v>
+        <v>115222.989</v>
       </c>
       <c r="G61" t="n">
-        <v>93795.656</v>
+        <v>115222.989</v>
       </c>
       <c r="H61" t="n">
-        <v>25167.6606359133</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="I61" t="n">
-        <v>17731.8280176408</v>
+        <v>1841.65328029918</v>
       </c>
       <c r="J61" t="n">
-        <v>21247.2045415511</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="K61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L61" t="s">
         <v>18</v>
@@ -5390,37 +5414,31 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
-      <c r="E62" t="n">
-        <v>116577.148</v>
-      </c>
+      <c r="E62"/>
       <c r="F62" t="n">
-        <v>116577.148</v>
+        <v>122342.16</v>
       </c>
       <c r="G62" t="n">
-        <v>116577.148</v>
-      </c>
-      <c r="H62" t="n">
-        <v>35618.2271066435</v>
-      </c>
+        <v>112778.3</v>
+      </c>
+      <c r="H62"/>
       <c r="I62" t="n">
-        <v>12756.8056098984</v>
+        <v>12615.9157730295</v>
       </c>
       <c r="J62" t="n">
-        <v>47847.5906094658</v>
-      </c>
-      <c r="K62" t="s">
-        <v>16</v>
-      </c>
+        <v>20874.7028658815</v>
+      </c>
+      <c r="K62"/>
       <c r="L62" t="s">
         <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5431,32 +5449,26 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
-      <c r="E63" t="n">
-        <v>80916.704</v>
-      </c>
+      <c r="E63"/>
       <c r="F63" t="n">
-        <v>103990.836</v>
+        <v>143586.2484</v>
       </c>
       <c r="G63" t="n">
-        <v>82150.088</v>
-      </c>
-      <c r="H63" t="n">
-        <v>7753.56910572762</v>
-      </c>
+        <v>142594.66</v>
+      </c>
+      <c r="H63"/>
       <c r="I63" t="n">
-        <v>8843.18489533869</v>
+        <v>9059.30826934687</v>
       </c>
       <c r="J63" t="n">
-        <v>9514.16986203294</v>
-      </c>
-      <c r="K63" t="s">
-        <v>18</v>
-      </c>
+        <v>9217.00271115485</v>
+      </c>
+      <c r="K63"/>
       <c r="L63" t="s">
         <v>18</v>
       </c>
@@ -5472,32 +5484,26 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
-      <c r="E64" t="n">
-        <v>120555.24</v>
-      </c>
+      <c r="E64"/>
       <c r="F64" t="n">
-        <v>121978.912</v>
+        <v>124381.196</v>
       </c>
       <c r="G64" t="n">
-        <v>121088.28</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2103.89340159665</v>
-      </c>
+        <v>119487.5096</v>
+      </c>
+      <c r="H64"/>
       <c r="I64" t="n">
-        <v>2248.58898249227</v>
+        <v>5548.46485584311</v>
       </c>
       <c r="J64" t="n">
-        <v>2164.21133347385</v>
-      </c>
-      <c r="K64" t="s">
-        <v>18</v>
-      </c>
+        <v>5682.16595569948</v>
+      </c>
+      <c r="K64"/>
       <c r="L64" t="s">
         <v>18</v>
       </c>
@@ -5513,32 +5519,26 @@
         <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
-      <c r="E65" t="n">
-        <v>115222.989</v>
-      </c>
+      <c r="E65"/>
       <c r="F65" t="n">
-        <v>115222.989</v>
+        <v>115476.7712</v>
       </c>
       <c r="G65" t="n">
-        <v>115222.989</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1841.65328029918</v>
-      </c>
+        <v>104326.65</v>
+      </c>
+      <c r="H65"/>
       <c r="I65" t="n">
-        <v>1829.92844779909</v>
+        <v>8443.58489337815</v>
       </c>
       <c r="J65" t="n">
-        <v>1829.92844779909</v>
-      </c>
-      <c r="K65" t="s">
-        <v>18</v>
-      </c>
+        <v>13519.2005684025</v>
+      </c>
+      <c r="K65"/>
       <c r="L65" t="s">
         <v>18</v>
       </c>
@@ -5559,24 +5559,24 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66"/>
+      <c r="F66" t="n">
         <v>125964.3616</v>
       </c>
-      <c r="F66"/>
       <c r="G66" t="n">
         <v>121118.7384</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66"/>
+      <c r="I66" t="n">
         <v>3357.45407969988</v>
       </c>
-      <c r="I66"/>
       <c r="J66" t="n">
         <v>4945.49182104993</v>
       </c>
-      <c r="K66" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66"/>
+      <c r="K66"/>
+      <c r="L66" t="s">
+        <v>18</v>
+      </c>
       <c r="M66" t="s">
         <v>18</v>
       </c>
@@ -5595,19 +5595,19 @@
         <v>15</v>
       </c>
       <c r="E67" t="n">
+        <v>103990.836</v>
+      </c>
+      <c r="F67" t="n">
         <v>122184.22304</v>
-      </c>
-      <c r="F67" t="n">
-        <v>103990.836</v>
       </c>
       <c r="G67" t="n">
         <v>118714</v>
       </c>
       <c r="H67" t="n">
+        <v>8843.18489533869</v>
+      </c>
+      <c r="I67" t="n">
         <v>4575.43441632118</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8843.18489533869</v>
       </c>
       <c r="J67" t="n">
         <v>3500.21597435616</v>
@@ -5636,19 +5636,19 @@
         <v>15</v>
       </c>
       <c r="E68" t="n">
+        <v>99719.76</v>
+      </c>
+      <c r="F68" t="n">
         <v>107486.368</v>
-      </c>
-      <c r="F68" t="n">
-        <v>99719.76</v>
       </c>
       <c r="G68" t="n">
         <v>106413.183</v>
       </c>
       <c r="H68" t="n">
+        <v>2330.5712767856</v>
+      </c>
+      <c r="I68" t="n">
         <v>3045.68695756584</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2330.5712767856</v>
       </c>
       <c r="J68" t="n">
         <v>3109.25302503944</v>
@@ -5677,19 +5677,19 @@
         <v>15</v>
       </c>
       <c r="E69" t="n">
+        <v>115222.989</v>
+      </c>
+      <c r="F69" t="n">
         <v>111739.1728</v>
-      </c>
-      <c r="F69" t="n">
-        <v>115222.989</v>
       </c>
       <c r="G69" t="n">
         <v>112785.20736</v>
       </c>
       <c r="H69" t="n">
+        <v>1829.92844779909</v>
+      </c>
+      <c r="I69" t="n">
         <v>1814.56878539579</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1829.92844779909</v>
       </c>
       <c r="J69" t="n">
         <v>2107.16192585166</v>
@@ -5718,28 +5718,28 @@
         <v>15</v>
       </c>
       <c r="E70" t="n">
+        <v>135595.894</v>
+      </c>
+      <c r="F70" t="n">
         <v>108694.08</v>
-      </c>
-      <c r="F70" t="n">
-        <v>135595.894</v>
       </c>
       <c r="G70" t="n">
         <v>108979.452</v>
       </c>
       <c r="H70" t="n">
+        <v>23435.5950831547</v>
+      </c>
+      <c r="I70" t="n">
         <v>50770.0064472049</v>
-      </c>
-      <c r="I70" t="n">
-        <v>23435.5950831547</v>
       </c>
       <c r="J70" t="n">
         <v>22626.79701363</v>
       </c>
       <c r="K70" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" t="s">
         <v>16</v>
-      </c>
-      <c r="L70" t="s">
-        <v>18</v>
       </c>
       <c r="M70" t="s">
         <v>18</v>
@@ -5759,19 +5759,19 @@
         <v>15</v>
       </c>
       <c r="E71" t="n">
+        <v>156658.4905</v>
+      </c>
+      <c r="F71" t="n">
         <v>156000.15904</v>
-      </c>
-      <c r="F71" t="n">
-        <v>156658.4905</v>
       </c>
       <c r="G71" t="n">
         <v>157649.16</v>
       </c>
       <c r="H71" t="n">
+        <v>8702.67672869975</v>
+      </c>
+      <c r="I71" t="n">
         <v>8947.20074843923</v>
-      </c>
-      <c r="I71" t="n">
-        <v>8702.67672869975</v>
       </c>
       <c r="J71" t="n">
         <v>8798.89777673188</v>
@@ -5800,19 +5800,19 @@
         <v>15</v>
       </c>
       <c r="E72" t="n">
+        <v>95053.17</v>
+      </c>
+      <c r="F72" t="n">
         <v>86659.03</v>
-      </c>
-      <c r="F72" t="n">
-        <v>95053.17</v>
       </c>
       <c r="G72" t="n">
         <v>86659.03</v>
       </c>
       <c r="H72" t="n">
+        <v>14504.7927648258</v>
+      </c>
+      <c r="I72" t="n">
         <v>8101.53512347126</v>
-      </c>
-      <c r="I72" t="n">
-        <v>14504.7927648258</v>
       </c>
       <c r="J72" t="n">
         <v>7716.09278526725</v>
@@ -5841,19 +5841,19 @@
         <v>15</v>
       </c>
       <c r="E73" t="n">
+        <v>98530.725</v>
+      </c>
+      <c r="F73" t="n">
         <v>80916.704</v>
-      </c>
-      <c r="F73" t="n">
-        <v>98530.725</v>
       </c>
       <c r="G73" t="n">
         <v>81319.09</v>
       </c>
       <c r="H73" t="n">
+        <v>6302.68409355601</v>
+      </c>
+      <c r="I73" t="n">
         <v>4189.10142929399</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6302.68409355601</v>
       </c>
       <c r="J73" t="n">
         <v>4294.364156428</v>
@@ -5876,31 +5876,37 @@
         <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>140082.52</v>
-      </c>
-      <c r="F74"/>
+        <v>126667.838</v>
+      </c>
+      <c r="F74" t="n">
+        <v>75027.248</v>
+      </c>
       <c r="G74" t="n">
-        <v>138162.2528</v>
+        <v>75027.248</v>
       </c>
       <c r="H74" t="n">
-        <v>14754.7142184667</v>
-      </c>
-      <c r="I74"/>
+        <v>70716.9103372732</v>
+      </c>
+      <c r="I74" t="n">
+        <v>68621.3642628783</v>
+      </c>
       <c r="J74" t="n">
-        <v>14613.8334319742</v>
+        <v>54821.0922772702</v>
       </c>
       <c r="K74" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74"/>
+        <v>30</v>
+      </c>
+      <c r="L74" t="s">
+        <v>32</v>
+      </c>
       <c r="M74" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -5911,31 +5917,37 @@
         <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>158535.049</v>
-      </c>
-      <c r="F75"/>
+        <v>128066.344</v>
+      </c>
+      <c r="F75" t="n">
+        <v>137634.93</v>
+      </c>
       <c r="G75" t="n">
-        <v>161695.5548</v>
+        <v>137834.116</v>
       </c>
       <c r="H75" t="n">
-        <v>11170.355008284</v>
-      </c>
-      <c r="I75"/>
+        <v>9937.4268188455</v>
+      </c>
+      <c r="I75" t="n">
+        <v>48799.9373273605</v>
+      </c>
       <c r="J75" t="n">
-        <v>13235.2415473843</v>
+        <v>63131.8234884136</v>
       </c>
       <c r="K75" t="s">
         <v>18</v>
       </c>
-      <c r="L75"/>
+      <c r="L75" t="s">
+        <v>16</v>
+      </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -5946,29 +5958,35 @@
         <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>139102.2</v>
-      </c>
-      <c r="F76"/>
+        <v>129315.219</v>
+      </c>
+      <c r="F76" t="n">
+        <v>118951.428</v>
+      </c>
       <c r="G76" t="n">
-        <v>134465.46</v>
+        <v>119544.998</v>
       </c>
       <c r="H76" t="n">
-        <v>4776.38938367235</v>
-      </c>
-      <c r="I76"/>
+        <v>7933.14150963542</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10525.5474188639</v>
+      </c>
       <c r="J76" t="n">
-        <v>4876.52608549957</v>
+        <v>12155.1133818182</v>
       </c>
       <c r="K76" t="s">
         <v>18</v>
       </c>
-      <c r="L76"/>
+      <c r="L76" t="s">
+        <v>18</v>
+      </c>
       <c r="M76" t="s">
         <v>18</v>
       </c>
@@ -5981,29 +5999,35 @@
         <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>120795.35424</v>
-      </c>
-      <c r="F77"/>
+        <v>131517.822</v>
+      </c>
+      <c r="F77" t="n">
+        <v>129828.72</v>
+      </c>
       <c r="G77" t="n">
-        <v>120795.35424</v>
+        <v>130229.258</v>
       </c>
       <c r="H77" t="n">
-        <v>10941.8075530846</v>
-      </c>
-      <c r="I77"/>
+        <v>2659.93321186545</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3072.44619562329</v>
+      </c>
       <c r="J77" t="n">
-        <v>11811.7006629493</v>
+        <v>2930.76839293921</v>
       </c>
       <c r="K77" t="s">
         <v>18</v>
       </c>
-      <c r="L77"/>
+      <c r="L77" t="s">
+        <v>18</v>
+      </c>
       <c r="M77" t="s">
         <v>18</v>
       </c>
@@ -6016,37 +6040,37 @@
         <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>75027.248</v>
+        <v>129478.786</v>
       </c>
       <c r="F78" t="n">
-        <v>126667.838</v>
+        <v>129478.786</v>
       </c>
       <c r="G78" t="n">
-        <v>75027.248</v>
+        <v>129478.786</v>
       </c>
       <c r="H78" t="n">
-        <v>68621.3642628783</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="I78" t="n">
-        <v>70716.9103372732</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="J78" t="n">
-        <v>54821.0922772702</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="K78" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L78" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M78" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -6057,37 +6081,31 @@
         <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
-      <c r="E79" t="n">
-        <v>137634.93</v>
-      </c>
+      <c r="E79"/>
       <c r="F79" t="n">
-        <v>128066.344</v>
+        <v>140082.52</v>
       </c>
       <c r="G79" t="n">
-        <v>137834.116</v>
-      </c>
-      <c r="H79" t="n">
-        <v>48799.9373273605</v>
-      </c>
+        <v>138162.2528</v>
+      </c>
+      <c r="H79"/>
       <c r="I79" t="n">
-        <v>9937.4268188455</v>
+        <v>14754.7142184667</v>
       </c>
       <c r="J79" t="n">
-        <v>63131.8234884136</v>
-      </c>
-      <c r="K79" t="s">
-        <v>16</v>
-      </c>
+        <v>14613.8334319742</v>
+      </c>
+      <c r="K79"/>
       <c r="L79" t="s">
         <v>18</v>
       </c>
       <c r="M79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -6098,32 +6116,26 @@
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
       </c>
-      <c r="E80" t="n">
-        <v>118951.428</v>
-      </c>
+      <c r="E80"/>
       <c r="F80" t="n">
-        <v>129315.219</v>
+        <v>158535.049</v>
       </c>
       <c r="G80" t="n">
-        <v>119544.998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>10525.5474188639</v>
-      </c>
+        <v>161695.5548</v>
+      </c>
+      <c r="H80"/>
       <c r="I80" t="n">
-        <v>7933.14150963542</v>
+        <v>11170.355008284</v>
       </c>
       <c r="J80" t="n">
-        <v>12155.1133818182</v>
-      </c>
-      <c r="K80" t="s">
-        <v>18</v>
-      </c>
+        <v>13235.2415473843</v>
+      </c>
+      <c r="K80"/>
       <c r="L80" t="s">
         <v>18</v>
       </c>
@@ -6139,32 +6151,26 @@
         <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
       </c>
-      <c r="E81" t="n">
-        <v>129828.72</v>
-      </c>
+      <c r="E81"/>
       <c r="F81" t="n">
-        <v>131517.822</v>
+        <v>139102.2</v>
       </c>
       <c r="G81" t="n">
-        <v>130229.258</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3072.44619562329</v>
-      </c>
+        <v>134465.46</v>
+      </c>
+      <c r="H81"/>
       <c r="I81" t="n">
-        <v>2659.93321186545</v>
+        <v>4776.38938367235</v>
       </c>
       <c r="J81" t="n">
-        <v>2930.76839293921</v>
-      </c>
-      <c r="K81" t="s">
-        <v>18</v>
-      </c>
+        <v>4876.52608549957</v>
+      </c>
+      <c r="K81"/>
       <c r="L81" t="s">
         <v>18</v>
       </c>
@@ -6180,32 +6186,26 @@
         <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
-      <c r="E82" t="n">
-        <v>129478.786</v>
-      </c>
+      <c r="E82"/>
       <c r="F82" t="n">
-        <v>129478.786</v>
+        <v>120795.35424</v>
       </c>
       <c r="G82" t="n">
-        <v>129478.786</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2650.9311255005</v>
-      </c>
+        <v>120795.35424</v>
+      </c>
+      <c r="H82"/>
       <c r="I82" t="n">
-        <v>2650.9311255005</v>
+        <v>10941.8075530846</v>
       </c>
       <c r="J82" t="n">
-        <v>2650.9311255005</v>
-      </c>
-      <c r="K82" t="s">
-        <v>18</v>
-      </c>
+        <v>11811.7006629493</v>
+      </c>
+      <c r="K82"/>
       <c r="L82" t="s">
         <v>18</v>
       </c>
@@ -6226,24 +6226,24 @@
       <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83"/>
+      <c r="F83" t="n">
         <v>140082.52</v>
       </c>
-      <c r="F83"/>
       <c r="G83" t="n">
         <v>137869.41914</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83"/>
+      <c r="I83" t="n">
         <v>2370.43601654964</v>
       </c>
-      <c r="I83"/>
       <c r="J83" t="n">
         <v>3732.77786046719</v>
       </c>
-      <c r="K83" t="s">
-        <v>18</v>
-      </c>
-      <c r="L83"/>
+      <c r="K83"/>
+      <c r="L83" t="s">
+        <v>18</v>
+      </c>
       <c r="M83" t="s">
         <v>18</v>
       </c>
@@ -6262,19 +6262,19 @@
         <v>15</v>
       </c>
       <c r="E84" t="n">
+        <v>129315.219</v>
+      </c>
+      <c r="F84" t="n">
         <v>138886.88</v>
-      </c>
-      <c r="F84" t="n">
-        <v>129315.219</v>
       </c>
       <c r="G84" t="n">
         <v>136656.19272</v>
       </c>
       <c r="H84" t="n">
+        <v>7933.14150963542</v>
+      </c>
+      <c r="I84" t="n">
         <v>2853.77532573269</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7933.14150963542</v>
       </c>
       <c r="J84" t="n">
         <v>3377.35570136336</v>
@@ -6303,19 +6303,19 @@
         <v>15</v>
       </c>
       <c r="E85" t="n">
+        <v>123462.56</v>
+      </c>
+      <c r="F85" t="n">
         <v>128459.268</v>
-      </c>
-      <c r="F85" t="n">
-        <v>123462.56</v>
       </c>
       <c r="G85" t="n">
         <v>128211.12</v>
       </c>
       <c r="H85" t="n">
+        <v>5374.13798409126</v>
+      </c>
+      <c r="I85" t="n">
         <v>3828.75050954293</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5374.13798409126</v>
       </c>
       <c r="J85" t="n">
         <v>3752.58986133942</v>
@@ -6344,19 +6344,19 @@
         <v>15</v>
       </c>
       <c r="E86" t="n">
+        <v>129478.786</v>
+      </c>
+      <c r="F86" t="n">
         <v>125836.84</v>
-      </c>
-      <c r="F86" t="n">
-        <v>129478.786</v>
       </c>
       <c r="G86" t="n">
         <v>126085.1328</v>
       </c>
       <c r="H86" t="n">
+        <v>2650.9311255005</v>
+      </c>
+      <c r="I86" t="n">
         <v>2553.1797493262</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2650.9311255005</v>
       </c>
       <c r="J86" t="n">
         <v>2625.05026342913</v>
@@ -6490,10 +6490,10 @@
         <v>81142.95</v>
       </c>
       <c r="H3" t="n">
+        <v>7540.3439543915</v>
+      </c>
+      <c r="I3" t="n">
         <v>7388.99327150796</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7540.3439543915</v>
       </c>
       <c r="J3" t="n">
         <v>7540.3439543915</v>
@@ -6522,19 +6522,19 @@
         <v>40</v>
       </c>
       <c r="E4" t="n">
+        <v>42194.334</v>
+      </c>
+      <c r="F4" t="n">
         <v>42269.92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42194.334</v>
       </c>
       <c r="G4" t="n">
         <v>42194.334</v>
       </c>
       <c r="H4" t="n">
+        <v>3715.05004212277</v>
+      </c>
+      <c r="I4" t="n">
         <v>3728.96715330379</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3715.05004212277</v>
       </c>
       <c r="J4" t="n">
         <v>3715.05004212277</v>
@@ -6563,19 +6563,19 @@
         <v>40</v>
       </c>
       <c r="E5" t="n">
+        <v>55795.58</v>
+      </c>
+      <c r="F5" t="n">
         <v>55893.362</v>
-      </c>
-      <c r="F5" t="n">
-        <v>55795.58</v>
       </c>
       <c r="G5" t="n">
         <v>55795.58</v>
       </c>
       <c r="H5" t="n">
+        <v>4185.05239397604</v>
+      </c>
+      <c r="I5" t="n">
         <v>4332.8213222906</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4185.05239397604</v>
       </c>
       <c r="J5" t="n">
         <v>4185.05239397604</v>
@@ -6727,19 +6727,19 @@
         <v>40</v>
       </c>
       <c r="E9" t="n">
+        <v>57487.0912</v>
+      </c>
+      <c r="F9" t="n">
         <v>57521.324</v>
-      </c>
-      <c r="F9" t="n">
-        <v>57487.0912</v>
       </c>
       <c r="G9" t="n">
         <v>57487.0912</v>
       </c>
       <c r="H9" t="n">
+        <v>1253.34432695792</v>
+      </c>
+      <c r="I9" t="n">
         <v>1209.8527365922</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1253.34432695792</v>
       </c>
       <c r="J9" t="n">
         <v>1253.34432695792</v>
@@ -6777,10 +6777,10 @@
         <v>57959.25</v>
       </c>
       <c r="H10" t="n">
+        <v>1264.48170014687</v>
+      </c>
+      <c r="I10" t="n">
         <v>1028.22535144888</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1264.48170014687</v>
       </c>
       <c r="J10" t="n">
         <v>1264.48170014687</v>
@@ -6850,19 +6850,19 @@
         <v>40</v>
       </c>
       <c r="E12" t="n">
+        <v>58063.978</v>
+      </c>
+      <c r="F12" t="n">
         <v>58418.3814</v>
-      </c>
-      <c r="F12" t="n">
-        <v>58063.978</v>
       </c>
       <c r="G12" t="n">
         <v>58063.978</v>
       </c>
       <c r="H12" t="n">
+        <v>2548.72529318913</v>
+      </c>
+      <c r="I12" t="n">
         <v>2418.39874562034</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2548.72529318913</v>
       </c>
       <c r="J12" t="n">
         <v>2548.72529318913</v>
@@ -6900,10 +6900,10 @@
         <v>57959.25</v>
       </c>
       <c r="H13" t="n">
+        <v>1264.48170014687</v>
+      </c>
+      <c r="I13" t="n">
         <v>1028.22535144888</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1264.48170014687</v>
       </c>
       <c r="J13" t="n">
         <v>1264.48170014687</v>
@@ -6973,19 +6973,19 @@
         <v>40</v>
       </c>
       <c r="E15" t="n">
+        <v>93795.656</v>
+      </c>
+      <c r="F15" t="n">
         <v>94201.536</v>
-      </c>
-      <c r="F15" t="n">
-        <v>93795.656</v>
       </c>
       <c r="G15" t="n">
         <v>93795.656</v>
       </c>
       <c r="H15" t="n">
+        <v>9630.05604155624</v>
+      </c>
+      <c r="I15" t="n">
         <v>9617.59724163919</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9630.05604155624</v>
       </c>
       <c r="J15" t="n">
         <v>9630.05604155624</v>
@@ -7064,10 +7064,10 @@
         <v>62496.4534</v>
       </c>
       <c r="H17" t="n">
+        <v>5866.83054177101</v>
+      </c>
+      <c r="I17" t="n">
         <v>5954.21661223373</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5866.83054177101</v>
       </c>
       <c r="J17" t="n">
         <v>5866.83054177101</v>
@@ -7219,19 +7219,19 @@
         <v>40</v>
       </c>
       <c r="E21" t="n">
+        <v>64817.844</v>
+      </c>
+      <c r="F21" t="n">
         <v>64854.1344</v>
-      </c>
-      <c r="F21" t="n">
-        <v>64817.844</v>
       </c>
       <c r="G21" t="n">
         <v>64817.844</v>
       </c>
       <c r="H21" t="n">
+        <v>2162.62587050882</v>
+      </c>
+      <c r="I21" t="n">
         <v>2025.48263815248</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2162.62587050882</v>
       </c>
       <c r="J21" t="n">
         <v>2162.62587050882</v>
@@ -7260,19 +7260,19 @@
         <v>40</v>
       </c>
       <c r="E22" t="n">
+        <v>64105.56</v>
+      </c>
+      <c r="F22" t="n">
         <v>64331.5858</v>
-      </c>
-      <c r="F22" t="n">
-        <v>64105.56</v>
       </c>
       <c r="G22" t="n">
         <v>64105.56</v>
       </c>
       <c r="H22" t="n">
+        <v>2214.60709266114</v>
+      </c>
+      <c r="I22" t="n">
         <v>2114.88132442924</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2214.60709266114</v>
       </c>
       <c r="J22" t="n">
         <v>2214.60709266114</v>
@@ -7342,19 +7342,19 @@
         <v>40</v>
       </c>
       <c r="E24" t="n">
+        <v>63210.116</v>
+      </c>
+      <c r="F24" t="n">
         <v>63639.2565</v>
-      </c>
-      <c r="F24" t="n">
-        <v>63210.116</v>
       </c>
       <c r="G24" t="n">
         <v>63210.116</v>
       </c>
       <c r="H24" t="n">
+        <v>3816.48143296037</v>
+      </c>
+      <c r="I24" t="n">
         <v>3577.34262726563</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3816.48143296037</v>
       </c>
       <c r="J24" t="n">
         <v>3816.48143296037</v>
@@ -7383,19 +7383,19 @@
         <v>40</v>
       </c>
       <c r="E25" t="n">
+        <v>64105.56</v>
+      </c>
+      <c r="F25" t="n">
         <v>64331.5858</v>
-      </c>
-      <c r="F25" t="n">
-        <v>64105.56</v>
       </c>
       <c r="G25" t="n">
         <v>64105.56</v>
       </c>
       <c r="H25" t="n">
+        <v>2214.60709266114</v>
+      </c>
+      <c r="I25" t="n">
         <v>2114.88132442924</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2214.60709266114</v>
       </c>
       <c r="J25" t="n">
         <v>2214.60709266114</v>
@@ -7720,10 +7720,10 @@
         <v>49171.35314</v>
       </c>
       <c r="H33" t="n">
+        <v>2917.94605346304</v>
+      </c>
+      <c r="I33" t="n">
         <v>2962.98381458141</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2917.94605346304</v>
       </c>
       <c r="J33" t="n">
         <v>2917.94605346304</v>
@@ -7752,19 +7752,19 @@
         <v>40</v>
       </c>
       <c r="E34" t="n">
+        <v>49147.596</v>
+      </c>
+      <c r="F34" t="n">
         <v>49171.35314</v>
-      </c>
-      <c r="F34" t="n">
-        <v>49147.596</v>
       </c>
       <c r="G34" t="n">
         <v>49147.596</v>
       </c>
       <c r="H34" t="n">
+        <v>2717.26132515061</v>
+      </c>
+      <c r="I34" t="n">
         <v>2734.44430974366</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2717.26132515061</v>
       </c>
       <c r="J34" t="n">
         <v>2717.26132515061</v>
@@ -7875,19 +7875,19 @@
         <v>40</v>
       </c>
       <c r="E37" t="n">
+        <v>49147.596</v>
+      </c>
+      <c r="F37" t="n">
         <v>49171.35314</v>
-      </c>
-      <c r="F37" t="n">
-        <v>49147.596</v>
       </c>
       <c r="G37" t="n">
         <v>49147.596</v>
       </c>
       <c r="H37" t="n">
+        <v>2717.26132515061</v>
+      </c>
+      <c r="I37" t="n">
         <v>2734.44430974366</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2717.26132515061</v>
       </c>
       <c r="J37" t="n">
         <v>2717.26132515061</v>
@@ -8048,10 +8048,10 @@
         <v>49956.382</v>
       </c>
       <c r="H41" t="n">
+        <v>3489.91625982277</v>
+      </c>
+      <c r="I41" t="n">
         <v>3983.44333322349</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3489.91625982277</v>
       </c>
       <c r="J41" t="n">
         <v>3489.91625982277</v>
@@ -8203,19 +8203,19 @@
         <v>40</v>
       </c>
       <c r="E45" t="n">
+        <v>50683.8836</v>
+      </c>
+      <c r="F45" t="n">
         <v>50723.904</v>
-      </c>
-      <c r="F45" t="n">
-        <v>50683.8836</v>
       </c>
       <c r="G45" t="n">
         <v>50683.8836</v>
       </c>
       <c r="H45" t="n">
+        <v>2822.14856241887</v>
+      </c>
+      <c r="I45" t="n">
         <v>2842.41542380844</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2822.14856241887</v>
       </c>
       <c r="J45" t="n">
         <v>2822.14856241887</v>
@@ -8253,10 +8253,10 @@
         <v>49844.955</v>
       </c>
       <c r="H46" t="n">
+        <v>1900.05386102308</v>
+      </c>
+      <c r="I46" t="n">
         <v>1880.39830998911</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1900.05386102308</v>
       </c>
       <c r="J46" t="n">
         <v>1900.05386102308</v>
@@ -8335,10 +8335,10 @@
         <v>48685.77</v>
       </c>
       <c r="H48" t="n">
+        <v>2497.03150804952</v>
+      </c>
+      <c r="I48" t="n">
         <v>2421.89417571162</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2497.03150804952</v>
       </c>
       <c r="J48" t="n">
         <v>2497.03150804952</v>
@@ -8376,10 +8376,10 @@
         <v>49844.955</v>
       </c>
       <c r="H49" t="n">
+        <v>1900.05386102308</v>
+      </c>
+      <c r="I49" t="n">
         <v>1880.39830998911</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1900.05386102308</v>
       </c>
       <c r="J49" t="n">
         <v>1900.05386102308</v>
@@ -8449,19 +8449,19 @@
         <v>40</v>
       </c>
       <c r="E51" t="n">
+        <v>59200.17059</v>
+      </c>
+      <c r="F51" t="n">
         <v>60277.62</v>
-      </c>
-      <c r="F51" t="n">
-        <v>59200.17059</v>
       </c>
       <c r="G51" t="n">
         <v>59200.17059</v>
       </c>
       <c r="H51" t="n">
+        <v>16061.4886294892</v>
+      </c>
+      <c r="I51" t="n">
         <v>15640.5668101562</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16061.4886294892</v>
       </c>
       <c r="J51" t="n">
         <v>16061.4886294892</v>
@@ -8499,10 +8499,10 @@
         <v>57959.25</v>
       </c>
       <c r="H52" t="n">
+        <v>13493.2900645125</v>
+      </c>
+      <c r="I52" t="n">
         <v>9389.01023308629</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13493.2900645125</v>
       </c>
       <c r="J52" t="n">
         <v>13493.2900645125</v>
@@ -8704,10 +8704,10 @@
         <v>50975.9</v>
       </c>
       <c r="H57" t="n">
+        <v>3326.3870604713</v>
+      </c>
+      <c r="I57" t="n">
         <v>3295.86949196496</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3326.3870604713</v>
       </c>
       <c r="J57" t="n">
         <v>3326.3870604713</v>
@@ -8736,19 +8736,19 @@
         <v>40</v>
       </c>
       <c r="E58" t="n">
+        <v>50975.9</v>
+      </c>
+      <c r="F58" t="n">
         <v>51004.14</v>
-      </c>
-      <c r="F58" t="n">
-        <v>50975.9</v>
       </c>
       <c r="G58" t="n">
         <v>50975.9</v>
       </c>
       <c r="H58" t="n">
+        <v>2566.40103174919</v>
+      </c>
+      <c r="I58" t="n">
         <v>2623.1295232966</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2566.40103174919</v>
       </c>
       <c r="J58" t="n">
         <v>2566.40103174919</v>
@@ -8818,19 +8818,19 @@
         <v>40</v>
       </c>
       <c r="E60" t="n">
+        <v>52163.325</v>
+      </c>
+      <c r="F60" t="n">
         <v>52742.9175</v>
-      </c>
-      <c r="F60" t="n">
-        <v>52163.325</v>
       </c>
       <c r="G60" t="n">
         <v>52163.325</v>
       </c>
       <c r="H60" t="n">
+        <v>5496.06924302693</v>
+      </c>
+      <c r="I60" t="n">
         <v>5362.25188809543</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5496.06924302693</v>
       </c>
       <c r="J60" t="n">
         <v>5496.06924302693</v>
@@ -8859,19 +8859,19 @@
         <v>40</v>
       </c>
       <c r="E61" t="n">
+        <v>50975.9</v>
+      </c>
+      <c r="F61" t="n">
         <v>51004.14</v>
-      </c>
-      <c r="F61" t="n">
-        <v>50975.9</v>
       </c>
       <c r="G61" t="n">
         <v>50975.9</v>
       </c>
       <c r="H61" t="n">
+        <v>2566.40103174919</v>
+      </c>
+      <c r="I61" t="n">
         <v>2623.1295232966</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2566.40103174919</v>
       </c>
       <c r="J61" t="n">
         <v>2566.40103174919</v>
@@ -8955,28 +8955,28 @@
         <v>40</v>
       </c>
       <c r="E2" t="n">
+        <v>104790.324</v>
+      </c>
+      <c r="F2" t="n">
         <v>79522.404</v>
-      </c>
-      <c r="F2" t="n">
-        <v>104790.324</v>
       </c>
       <c r="G2" t="n">
         <v>98689.3424</v>
       </c>
       <c r="H2" t="n">
+        <v>15822.4300201947</v>
+      </c>
+      <c r="I2" t="n">
         <v>33695.9560823451</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15822.4300201947</v>
       </c>
       <c r="J2" t="n">
         <v>35447.7617337198</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -8996,19 +8996,19 @@
         <v>40</v>
       </c>
       <c r="E3" t="n">
+        <v>168220.47</v>
+      </c>
+      <c r="F3" t="n">
         <v>166922.64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>168220.47</v>
       </c>
       <c r="G3" t="n">
         <v>169152.14272</v>
       </c>
       <c r="H3" t="n">
+        <v>4378.05449506362</v>
+      </c>
+      <c r="I3" t="n">
         <v>5148.33313797044</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4378.05449506362</v>
       </c>
       <c r="J3" t="n">
         <v>5599.7699157011</v>
@@ -9037,19 +9037,19 @@
         <v>40</v>
       </c>
       <c r="E4" t="n">
+        <v>90578.4</v>
+      </c>
+      <c r="F4" t="n">
         <v>82302.135</v>
-      </c>
-      <c r="F4" t="n">
-        <v>90578.4</v>
       </c>
       <c r="G4" t="n">
         <v>83455.942</v>
       </c>
       <c r="H4" t="n">
+        <v>3386.94136874966</v>
+      </c>
+      <c r="I4" t="n">
         <v>3953.03360856948</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3386.94136874966</v>
       </c>
       <c r="J4" t="n">
         <v>4781.05303472336</v>
@@ -9078,19 +9078,19 @@
         <v>40</v>
       </c>
       <c r="E5" t="n">
+        <v>97243.5968</v>
+      </c>
+      <c r="F5" t="n">
         <v>79657.094</v>
-      </c>
-      <c r="F5" t="n">
-        <v>97243.5968</v>
       </c>
       <c r="G5" t="n">
         <v>80013.236</v>
       </c>
       <c r="H5" t="n">
+        <v>2785.92080225877</v>
+      </c>
+      <c r="I5" t="n">
         <v>4054.35456069757</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2785.92080225877</v>
       </c>
       <c r="J5" t="n">
         <v>4262.41122413464</v>
@@ -9113,29 +9113,35 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>151943.12</v>
-      </c>
-      <c r="F6"/>
+        <v>100733.1765</v>
+      </c>
+      <c r="F6" t="n">
+        <v>87678.548</v>
+      </c>
       <c r="G6" t="n">
-        <v>146978.5504</v>
+        <v>87150.2324</v>
       </c>
       <c r="H6" t="n">
-        <v>2424.27453418516</v>
-      </c>
-      <c r="I6"/>
+        <v>10372.2809386968</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13962.7543099189</v>
+      </c>
       <c r="J6" t="n">
-        <v>2466.30163200838</v>
+        <v>12853.0678797997</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
@@ -9148,29 +9154,35 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>127439.75</v>
-      </c>
-      <c r="F7"/>
+        <v>130236.96</v>
+      </c>
+      <c r="F7" t="n">
+        <v>128066.344</v>
+      </c>
       <c r="G7" t="n">
-        <v>121322.642</v>
+        <v>127023.98</v>
       </c>
       <c r="H7" t="n">
-        <v>3616.45776563897</v>
-      </c>
-      <c r="I7"/>
+        <v>20630.6096080569</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14583.2886212473</v>
+      </c>
       <c r="J7" t="n">
-        <v>4184.43722363556</v>
+        <v>13911.2412571425</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7"/>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
       <c r="M7" t="s">
         <v>18</v>
       </c>
@@ -9183,28 +9195,28 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>87678.548</v>
+        <v>126809.76</v>
       </c>
       <c r="F8" t="n">
-        <v>100733.1765</v>
+        <v>100849.095</v>
       </c>
       <c r="G8" t="n">
-        <v>87150.2324</v>
+        <v>107486.368</v>
       </c>
       <c r="H8" t="n">
-        <v>13962.7543099189</v>
+        <v>4332.25277201833</v>
       </c>
       <c r="I8" t="n">
-        <v>10372.2809386968</v>
+        <v>6428.32084072217</v>
       </c>
       <c r="J8" t="n">
-        <v>12853.0678797997</v>
+        <v>8227.9137695208</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
@@ -9224,28 +9236,28 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>128066.344</v>
+        <v>142732.52</v>
       </c>
       <c r="F9" t="n">
-        <v>130236.96</v>
+        <v>140840.9775</v>
       </c>
       <c r="G9" t="n">
-        <v>127023.98</v>
+        <v>141652.407</v>
       </c>
       <c r="H9" t="n">
-        <v>14583.2886212473</v>
+        <v>1428.63578540444</v>
       </c>
       <c r="I9" t="n">
-        <v>20630.6096080569</v>
+        <v>1479.34869364543</v>
       </c>
       <c r="J9" t="n">
-        <v>13911.2412571425</v>
+        <v>1460.92572429665</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
@@ -9265,28 +9277,28 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>100849.095</v>
+        <v>136521.1</v>
       </c>
       <c r="F10" t="n">
-        <v>126809.76</v>
+        <v>136521.1</v>
       </c>
       <c r="G10" t="n">
-        <v>107486.368</v>
+        <v>136521.1</v>
       </c>
       <c r="H10" t="n">
-        <v>6428.32084072217</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="I10" t="n">
-        <v>4332.25277201833</v>
+        <v>1085.28363716262</v>
       </c>
       <c r="J10" t="n">
-        <v>8227.9137695208</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
@@ -9306,32 +9318,26 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="n">
-        <v>140840.9775</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" t="n">
-        <v>142732.52</v>
+        <v>151943.12</v>
       </c>
       <c r="G11" t="n">
-        <v>141652.407</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1479.34869364543</v>
-      </c>
+        <v>146978.5504</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="n">
-        <v>1428.63578540444</v>
+        <v>2424.27453418516</v>
       </c>
       <c r="J11" t="n">
-        <v>1460.92572429665</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
+        <v>2466.30163200838</v>
+      </c>
+      <c r="K11"/>
       <c r="L11" t="s">
         <v>18</v>
       </c>
@@ -9347,32 +9353,26 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="n">
-        <v>136521.1</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" t="n">
-        <v>136521.1</v>
+        <v>127439.75</v>
       </c>
       <c r="G12" t="n">
-        <v>136521.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1085.28363716262</v>
-      </c>
+        <v>121322.642</v>
+      </c>
+      <c r="H12"/>
       <c r="I12" t="n">
-        <v>1066.12046660227</v>
+        <v>3616.45776563897</v>
       </c>
       <c r="J12" t="n">
-        <v>1066.12046660227</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
+        <v>4184.43722363556</v>
+      </c>
+      <c r="K12"/>
       <c r="L12" t="s">
         <v>18</v>
       </c>
@@ -9393,24 +9393,24 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13"/>
+      <c r="F13" t="n">
         <v>146520.984</v>
       </c>
-      <c r="F13"/>
       <c r="G13" t="n">
         <v>142510.016</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13"/>
+      <c r="I13" t="n">
         <v>2779.0023197814</v>
       </c>
-      <c r="I13"/>
       <c r="J13" t="n">
         <v>2092.37650366124</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13"/>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
       <c r="M13" t="s">
         <v>18</v>
       </c>
@@ -9429,19 +9429,19 @@
         <v>40</v>
       </c>
       <c r="E14" t="n">
+        <v>126809.76</v>
+      </c>
+      <c r="F14" t="n">
         <v>143752.038</v>
-      </c>
-      <c r="F14" t="n">
-        <v>126809.76</v>
       </c>
       <c r="G14" t="n">
         <v>140082.52</v>
       </c>
       <c r="H14" t="n">
+        <v>4332.25277201833</v>
+      </c>
+      <c r="I14" t="n">
         <v>2296.1021089012</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4332.25277201833</v>
       </c>
       <c r="J14" t="n">
         <v>2299.14129540471</v>
@@ -9470,19 +9470,19 @@
         <v>40</v>
       </c>
       <c r="E15" t="n">
+        <v>123669.7088</v>
+      </c>
+      <c r="F15" t="n">
         <v>131060.256</v>
-      </c>
-      <c r="F15" t="n">
-        <v>123669.7088</v>
       </c>
       <c r="G15" t="n">
         <v>130236.96</v>
       </c>
       <c r="H15" t="n">
+        <v>2431.18244156743</v>
+      </c>
+      <c r="I15" t="n">
         <v>1926.72320833829</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2431.18244156743</v>
       </c>
       <c r="J15" t="n">
         <v>1359.85839858073</v>
@@ -9511,19 +9511,19 @@
         <v>40</v>
       </c>
       <c r="E16" t="n">
+        <v>136521.1</v>
+      </c>
+      <c r="F16" t="n">
         <v>132959.68</v>
-      </c>
-      <c r="F16" t="n">
-        <v>136521.1</v>
       </c>
       <c r="G16" t="n">
         <v>134465.46</v>
       </c>
       <c r="H16" t="n">
+        <v>1066.12046660227</v>
+      </c>
+      <c r="I16" t="n">
         <v>1317.10804519356</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1066.12046660227</v>
       </c>
       <c r="J16" t="n">
         <v>1330.556901164</v>
@@ -9552,28 +9552,28 @@
         <v>40</v>
       </c>
       <c r="E17" t="n">
+        <v>54950.896</v>
+      </c>
+      <c r="F17" t="n">
         <v>50723.904</v>
-      </c>
-      <c r="F17" t="n">
-        <v>54950.896</v>
       </c>
       <c r="G17" t="n">
         <v>50723.904</v>
       </c>
       <c r="H17" t="n">
+        <v>20566.9404809805</v>
+      </c>
+      <c r="I17" t="n">
         <v>27841.6618378628</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20566.9404809805</v>
       </c>
       <c r="J17" t="n">
         <v>23049.9681194258</v>
       </c>
       <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
         <v>30</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
       </c>
       <c r="M17" t="s">
         <v>16</v>
@@ -9602,10 +9602,10 @@
         <v>185756.1796</v>
       </c>
       <c r="H18" t="n">
+        <v>3899.08167493826</v>
+      </c>
+      <c r="I18" t="n">
         <v>3980.88773404697</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3899.08167493826</v>
       </c>
       <c r="J18" t="n">
         <v>4083.78242979067</v>
@@ -9634,19 +9634,19 @@
         <v>40</v>
       </c>
       <c r="E19" t="n">
+        <v>86938.875</v>
+      </c>
+      <c r="F19" t="n">
         <v>78501.28</v>
-      </c>
-      <c r="F19" t="n">
-        <v>86938.875</v>
       </c>
       <c r="G19" t="n">
         <v>80795.1945</v>
       </c>
       <c r="H19" t="n">
+        <v>6697.91451581728</v>
+      </c>
+      <c r="I19" t="n">
         <v>8359.74821261896</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6697.91451581728</v>
       </c>
       <c r="J19" t="n">
         <v>7763.65947867403</v>
@@ -9675,19 +9675,19 @@
         <v>40</v>
       </c>
       <c r="E20" t="n">
+        <v>98763.028</v>
+      </c>
+      <c r="F20" t="n">
         <v>81142.95</v>
-      </c>
-      <c r="F20" t="n">
-        <v>98763.028</v>
       </c>
       <c r="G20" t="n">
         <v>81520.56</v>
       </c>
       <c r="H20" t="n">
+        <v>6469.76154257661</v>
+      </c>
+      <c r="I20" t="n">
         <v>8261.90220868616</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6469.76154257661</v>
       </c>
       <c r="J20" t="n">
         <v>8609.98503013217</v>
@@ -9710,29 +9710,35 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="n">
-        <v>176376.614</v>
-      </c>
-      <c r="F21"/>
+        <v>93795.656</v>
+      </c>
+      <c r="F21" t="n">
+        <v>81561.44</v>
+      </c>
       <c r="G21" t="n">
-        <v>173318.06</v>
+        <v>81561.44</v>
       </c>
       <c r="H21" t="n">
-        <v>3905.00667229531</v>
-      </c>
-      <c r="I21"/>
+        <v>21716.8458497514</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11718.7476505776</v>
+      </c>
       <c r="J21" t="n">
-        <v>3719.69697294347</v>
+        <v>13803.8194430041</v>
       </c>
       <c r="K21" t="s">
         <v>18</v>
       </c>
-      <c r="L21"/>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
       <c r="M21" t="s">
         <v>18</v>
       </c>
@@ -9745,31 +9751,37 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>135799.7976</v>
-      </c>
-      <c r="F22"/>
+        <v>154113.736</v>
+      </c>
+      <c r="F22" t="n">
+        <v>131517.822</v>
+      </c>
       <c r="G22" t="n">
-        <v>129274.8824</v>
+        <v>131517.822</v>
       </c>
       <c r="H22" t="n">
-        <v>7893.34572076315</v>
-      </c>
-      <c r="I22"/>
+        <v>30926.6141734041</v>
+      </c>
+      <c r="I22" t="n">
+        <v>44372.5224835676</v>
+      </c>
       <c r="J22" t="n">
-        <v>4741.50341510183</v>
+        <v>44587.4136290078</v>
       </c>
       <c r="K22" t="s">
         <v>18</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -9780,28 +9792,28 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>81561.44</v>
+        <v>142834.4718</v>
       </c>
       <c r="F23" t="n">
-        <v>93795.656</v>
+        <v>109088.426</v>
       </c>
       <c r="G23" t="n">
-        <v>81561.44</v>
+        <v>122393.1359</v>
       </c>
       <c r="H23" t="n">
-        <v>11718.7476505776</v>
+        <v>10577.2385772801</v>
       </c>
       <c r="I23" t="n">
-        <v>21716.8458497514</v>
+        <v>12096.2742091487</v>
       </c>
       <c r="J23" t="n">
-        <v>13803.8194430041</v>
+        <v>20177.7621517745</v>
       </c>
       <c r="K23" t="s">
         <v>18</v>
@@ -9821,37 +9833,37 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>131517.822</v>
+        <v>168220.47</v>
       </c>
       <c r="F24" t="n">
-        <v>154113.736</v>
+        <v>165012.46</v>
       </c>
       <c r="G24" t="n">
-        <v>131517.822</v>
+        <v>165943.5932</v>
       </c>
       <c r="H24" t="n">
-        <v>44372.5224835676</v>
+        <v>2504.44178656926</v>
       </c>
       <c r="I24" t="n">
-        <v>30926.6141734041</v>
+        <v>2845.95886728038</v>
       </c>
       <c r="J24" t="n">
-        <v>44587.4136290078</v>
+        <v>2986.07009140882</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -9862,28 +9874,28 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>109088.426</v>
+        <v>156489.975</v>
       </c>
       <c r="F25" t="n">
-        <v>142834.4718</v>
+        <v>156489.975</v>
       </c>
       <c r="G25" t="n">
-        <v>122393.1359</v>
+        <v>156489.975</v>
       </c>
       <c r="H25" t="n">
-        <v>12096.2742091487</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="I25" t="n">
-        <v>10577.2385772801</v>
+        <v>1788.75431262822</v>
       </c>
       <c r="J25" t="n">
-        <v>20177.7621517745</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="K25" t="s">
         <v>18</v>
@@ -9903,32 +9915,26 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" t="n">
-        <v>165012.46</v>
-      </c>
+      <c r="E26"/>
       <c r="F26" t="n">
-        <v>168220.47</v>
+        <v>176376.614</v>
       </c>
       <c r="G26" t="n">
-        <v>165943.5932</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2845.95886728038</v>
-      </c>
+        <v>173318.06</v>
+      </c>
+      <c r="H26"/>
       <c r="I26" t="n">
-        <v>2504.44178656926</v>
+        <v>3905.00667229531</v>
       </c>
       <c r="J26" t="n">
-        <v>2986.07009140882</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
+        <v>3719.69697294347</v>
+      </c>
+      <c r="K26"/>
       <c r="L26" t="s">
         <v>18</v>
       </c>
@@ -9944,32 +9950,26 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="n">
-        <v>156489.975</v>
-      </c>
+      <c r="E27"/>
       <c r="F27" t="n">
-        <v>156489.975</v>
+        <v>135799.7976</v>
       </c>
       <c r="G27" t="n">
-        <v>156489.975</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1788.75431262822</v>
-      </c>
+        <v>129274.8824</v>
+      </c>
+      <c r="H27"/>
       <c r="I27" t="n">
-        <v>1800.43590264081</v>
+        <v>7893.34572076315</v>
       </c>
       <c r="J27" t="n">
-        <v>1800.43590264081</v>
-      </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
+        <v>4741.50341510183</v>
+      </c>
+      <c r="K27"/>
       <c r="L27" t="s">
         <v>18</v>
       </c>
@@ -9990,24 +9990,24 @@
       <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28"/>
+      <c r="F28" t="n">
         <v>169036.0844</v>
       </c>
-      <c r="F28"/>
       <c r="G28" t="n">
         <v>163122.88</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28"/>
+      <c r="I28" t="n">
         <v>4029.31259224884</v>
       </c>
-      <c r="I28"/>
       <c r="J28" t="n">
         <v>4099.127743269</v>
       </c>
-      <c r="K28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28"/>
+      <c r="K28"/>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
       <c r="M28" t="s">
         <v>18</v>
       </c>
@@ -10026,19 +10026,19 @@
         <v>40</v>
       </c>
       <c r="E29" t="n">
+        <v>142834.4718</v>
+      </c>
+      <c r="F29" t="n">
         <v>164264.74016</v>
-      </c>
-      <c r="F29" t="n">
-        <v>142834.4718</v>
       </c>
       <c r="G29" t="n">
         <v>159967.53</v>
       </c>
       <c r="H29" t="n">
+        <v>10577.2385772801</v>
+      </c>
+      <c r="I29" t="n">
         <v>4110.22160044922</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10577.2385772801</v>
       </c>
       <c r="J29" t="n">
         <v>4187.11504955054</v>
@@ -10067,19 +10067,19 @@
         <v>40</v>
       </c>
       <c r="E30" t="n">
+        <v>136783.83</v>
+      </c>
+      <c r="F30" t="n">
         <v>147340.864</v>
-      </c>
-      <c r="F30" t="n">
-        <v>136783.83</v>
       </c>
       <c r="G30" t="n">
         <v>146516.58</v>
       </c>
       <c r="H30" t="n">
+        <v>3405.13420130304</v>
+      </c>
+      <c r="I30" t="n">
         <v>3196.57240338512</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3405.13420130304</v>
       </c>
       <c r="J30" t="n">
         <v>3290.21467559746</v>
@@ -10108,19 +10108,19 @@
         <v>40</v>
       </c>
       <c r="E31" t="n">
+        <v>156489.975</v>
+      </c>
+      <c r="F31" t="n">
         <v>152927.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>156489.975</v>
       </c>
       <c r="G31" t="n">
         <v>154171.605</v>
       </c>
       <c r="H31" t="n">
+        <v>1800.43590264081</v>
+      </c>
+      <c r="I31" t="n">
         <v>1715.22522457126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1800.43590264081</v>
       </c>
       <c r="J31" t="n">
         <v>1871.58648434169</v>
@@ -10149,28 +10149,28 @@
         <v>40</v>
       </c>
       <c r="E32" t="n">
+        <v>83461.32</v>
+      </c>
+      <c r="F32" t="n">
         <v>66242.412</v>
-      </c>
-      <c r="F32" t="n">
-        <v>83461.32</v>
       </c>
       <c r="G32" t="n">
         <v>66242.412</v>
       </c>
       <c r="H32" t="n">
+        <v>23723.4569934109</v>
+      </c>
+      <c r="I32" t="n">
         <v>33281.2390656598</v>
-      </c>
-      <c r="I32" t="n">
-        <v>23723.4569934109</v>
       </c>
       <c r="J32" t="n">
         <v>23122.3631620111</v>
       </c>
       <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
         <v>30</v>
-      </c>
-      <c r="L32" t="s">
-        <v>16</v>
       </c>
       <c r="M32" t="s">
         <v>16</v>
@@ -10190,19 +10190,19 @@
         <v>40</v>
       </c>
       <c r="E33" t="n">
+        <v>122586.84432</v>
+      </c>
+      <c r="F33" t="n">
         <v>105433.2576</v>
-      </c>
-      <c r="F33" t="n">
-        <v>122586.84432</v>
       </c>
       <c r="G33" t="n">
         <v>113549.6166</v>
       </c>
       <c r="H33" t="n">
+        <v>12729.3529982533</v>
+      </c>
+      <c r="I33" t="n">
         <v>23483.461253286</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12729.3529982533</v>
       </c>
       <c r="J33" t="n">
         <v>23051.4455257596</v>
@@ -10231,28 +10231,28 @@
         <v>40</v>
       </c>
       <c r="E34" t="n">
+        <v>108383.7975</v>
+      </c>
+      <c r="F34" t="n">
         <v>85264.4672</v>
-      </c>
-      <c r="F34" t="n">
-        <v>108383.7975</v>
       </c>
       <c r="G34" t="n">
         <v>85264.4672</v>
       </c>
       <c r="H34" t="n">
+        <v>38777.2899093825</v>
+      </c>
+      <c r="I34" t="n">
         <v>15990.8042538521</v>
-      </c>
-      <c r="I34" t="n">
-        <v>38777.2899093825</v>
       </c>
       <c r="J34" t="n">
         <v>20159.0127654108</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
         <v>18</v>
@@ -10272,19 +10272,19 @@
         <v>40</v>
       </c>
       <c r="E35" t="n">
+        <v>89035.5</v>
+      </c>
+      <c r="F35" t="n">
         <v>67631.872</v>
-      </c>
-      <c r="F35" t="n">
-        <v>89035.5</v>
       </c>
       <c r="G35" t="n">
         <v>67631.872</v>
       </c>
       <c r="H35" t="n">
+        <v>9946.52676655783</v>
+      </c>
+      <c r="I35" t="n">
         <v>9001.63661624217</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9946.52676655783</v>
       </c>
       <c r="J35" t="n">
         <v>8875.40463323271</v>
@@ -10307,31 +10307,37 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
       </c>
       <c r="E36" t="n">
-        <v>125539.7355</v>
-      </c>
-      <c r="F36"/>
+        <v>119383.88</v>
+      </c>
+      <c r="F36" t="n">
+        <v>77995.098</v>
+      </c>
       <c r="G36" t="n">
-        <v>124605.48996</v>
+        <v>77995.098</v>
       </c>
       <c r="H36" t="n">
-        <v>5964.11235258241</v>
-      </c>
-      <c r="I36"/>
+        <v>20020.0758051345</v>
+      </c>
+      <c r="I36" t="n">
+        <v>63533.2318892904</v>
+      </c>
       <c r="J36" t="n">
-        <v>5287.60700133882</v>
+        <v>63533.2318892904</v>
       </c>
       <c r="K36" t="s">
         <v>18</v>
       </c>
-      <c r="L36"/>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -10342,31 +10348,37 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
       </c>
       <c r="E37" t="n">
-        <v>94971.2</v>
-      </c>
-      <c r="F37"/>
+        <v>123290.9888</v>
+      </c>
+      <c r="F37" t="n">
+        <v>118714</v>
+      </c>
       <c r="G37" t="n">
-        <v>92269.1968</v>
+        <v>118714</v>
       </c>
       <c r="H37" t="n">
-        <v>20572.5644878137</v>
-      </c>
-      <c r="I37"/>
+        <v>55276.8972182339</v>
+      </c>
+      <c r="I37" t="n">
+        <v>47312.9894698309</v>
+      </c>
       <c r="J37" t="n">
-        <v>11252.6838684979</v>
+        <v>47312.9894698309</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37"/>
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -10377,37 +10389,37 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
       </c>
       <c r="E38" t="n">
-        <v>77995.098</v>
+        <v>94815.174</v>
       </c>
       <c r="F38" t="n">
-        <v>119383.88</v>
+        <v>94937.2515</v>
       </c>
       <c r="G38" t="n">
-        <v>77995.098</v>
+        <v>95507.104</v>
       </c>
       <c r="H38" t="n">
-        <v>63533.2318892904</v>
+        <v>6342.65022080927</v>
       </c>
       <c r="I38" t="n">
-        <v>20020.0758051345</v>
+        <v>14638.3239283411</v>
       </c>
       <c r="J38" t="n">
-        <v>63533.2318892904</v>
+        <v>12435.8630344971</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -10418,37 +10430,37 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="n">
-        <v>118714</v>
+        <v>121598.5065</v>
       </c>
       <c r="F39" t="n">
-        <v>123290.9888</v>
+        <v>120771.2</v>
       </c>
       <c r="G39" t="n">
-        <v>118714</v>
+        <v>121088.28</v>
       </c>
       <c r="H39" t="n">
-        <v>47312.9894698309</v>
+        <v>3029.87727404456</v>
       </c>
       <c r="I39" t="n">
-        <v>55276.8972182339</v>
+        <v>3502.54364546422</v>
       </c>
       <c r="J39" t="n">
-        <v>47312.9894698309</v>
+        <v>3564.59376476758</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -10459,28 +10471,28 @@
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
         <v>40</v>
       </c>
       <c r="E40" t="n">
-        <v>94937.2515</v>
+        <v>118298.572</v>
       </c>
       <c r="F40" t="n">
-        <v>94815.174</v>
+        <v>118298.572</v>
       </c>
       <c r="G40" t="n">
-        <v>95507.104</v>
+        <v>118298.572</v>
       </c>
       <c r="H40" t="n">
-        <v>14638.3239283411</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="I40" t="n">
-        <v>6342.65022080927</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="J40" t="n">
-        <v>12435.8630344971</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="K40" t="s">
         <v>18</v>
@@ -10500,32 +10512,26 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
       </c>
-      <c r="E41" t="n">
-        <v>120771.2</v>
-      </c>
+      <c r="E41"/>
       <c r="F41" t="n">
-        <v>121598.5065</v>
+        <v>125539.7355</v>
       </c>
       <c r="G41" t="n">
-        <v>121088.28</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3502.54364546422</v>
-      </c>
+        <v>124605.48996</v>
+      </c>
+      <c r="H41"/>
       <c r="I41" t="n">
-        <v>3029.87727404456</v>
+        <v>5964.11235258241</v>
       </c>
       <c r="J41" t="n">
-        <v>3564.59376476758</v>
-      </c>
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
+        <v>5287.60700133882</v>
+      </c>
+      <c r="K41"/>
       <c r="L41" t="s">
         <v>18</v>
       </c>
@@ -10541,32 +10547,26 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
         <v>40</v>
       </c>
-      <c r="E42" t="n">
-        <v>118298.572</v>
-      </c>
+      <c r="E42"/>
       <c r="F42" t="n">
-        <v>118298.572</v>
+        <v>94971.2</v>
       </c>
       <c r="G42" t="n">
-        <v>118298.572</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3383.90722201948</v>
-      </c>
+        <v>92269.1968</v>
+      </c>
+      <c r="H42"/>
       <c r="I42" t="n">
-        <v>3383.90722201948</v>
+        <v>20572.5644878137</v>
       </c>
       <c r="J42" t="n">
-        <v>3383.90722201948</v>
-      </c>
-      <c r="K42" t="s">
-        <v>18</v>
-      </c>
+        <v>11252.6838684979</v>
+      </c>
+      <c r="K42"/>
       <c r="L42" t="s">
         <v>18</v>
       </c>
@@ -10587,24 +10587,24 @@
       <c r="D43" t="s">
         <v>40</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43"/>
+      <c r="F43" t="n">
         <v>124376.2968</v>
       </c>
-      <c r="F43"/>
       <c r="G43" t="n">
         <v>122342.16</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43"/>
+      <c r="I43" t="n">
         <v>5318.31867809614</v>
       </c>
-      <c r="I43"/>
       <c r="J43" t="n">
         <v>5523.74133725496</v>
       </c>
-      <c r="K43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43"/>
+      <c r="K43"/>
+      <c r="L43" t="s">
+        <v>18</v>
+      </c>
       <c r="M43" t="s">
         <v>18</v>
       </c>
@@ -10623,19 +10623,19 @@
         <v>40</v>
       </c>
       <c r="E44" t="n">
+        <v>94815.174</v>
+      </c>
+      <c r="F44" t="n">
         <v>122049.8634</v>
-      </c>
-      <c r="F44" t="n">
-        <v>94815.174</v>
       </c>
       <c r="G44" t="n">
         <v>121018.914</v>
       </c>
       <c r="H44" t="n">
+        <v>6342.65022080927</v>
+      </c>
+      <c r="I44" t="n">
         <v>6135.51406967084</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6342.65022080927</v>
       </c>
       <c r="J44" t="n">
         <v>6260.01987926469</v>
@@ -10664,19 +10664,19 @@
         <v>40</v>
       </c>
       <c r="E45" t="n">
+        <v>99848.336</v>
+      </c>
+      <c r="F45" t="n">
         <v>113631.7476</v>
-      </c>
-      <c r="F45" t="n">
-        <v>99848.336</v>
       </c>
       <c r="G45" t="n">
         <v>113524.928</v>
       </c>
       <c r="H45" t="n">
+        <v>5892.98980394568</v>
+      </c>
+      <c r="I45" t="n">
         <v>4778.34940871608</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5892.98980394568</v>
       </c>
       <c r="J45" t="n">
         <v>4724.57511183432</v>
@@ -10705,19 +10705,19 @@
         <v>40</v>
       </c>
       <c r="E46" t="n">
+        <v>118298.572</v>
+      </c>
+      <c r="F46" t="n">
         <v>115152.58</v>
-      </c>
-      <c r="F46" t="n">
-        <v>118298.572</v>
       </c>
       <c r="G46" t="n">
         <v>115918.5</v>
       </c>
       <c r="H46" t="n">
+        <v>3383.90722201948</v>
+      </c>
+      <c r="I46" t="n">
         <v>4111.51371245192</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3383.90722201948</v>
       </c>
       <c r="J46" t="n">
         <v>4313.76467089778</v>
@@ -10746,28 +10746,28 @@
         <v>40</v>
       </c>
       <c r="E47" t="n">
+        <v>119048.2995</v>
+      </c>
+      <c r="F47" t="n">
         <v>125136.0124</v>
-      </c>
-      <c r="F47" t="n">
-        <v>119048.2995</v>
       </c>
       <c r="G47" t="n">
         <v>125136.0124</v>
       </c>
       <c r="H47" t="n">
+        <v>16899.3168280294</v>
+      </c>
+      <c r="I47" t="n">
         <v>58983.3850769241</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16899.3168280294</v>
       </c>
       <c r="J47" t="n">
         <v>78370.6399238989</v>
       </c>
       <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
         <v>16</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
       </c>
       <c r="M47" t="s">
         <v>30</v>
@@ -10787,19 +10787,19 @@
         <v>40</v>
       </c>
       <c r="E48" t="n">
+        <v>109195.227</v>
+      </c>
+      <c r="F48" t="n">
         <v>98893.246</v>
-      </c>
-      <c r="F48" t="n">
-        <v>109195.227</v>
       </c>
       <c r="G48" t="n">
         <v>99719.76</v>
       </c>
       <c r="H48" t="n">
+        <v>9689.19306224248</v>
+      </c>
+      <c r="I48" t="n">
         <v>5516.46140421491</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9689.19306224248</v>
       </c>
       <c r="J48" t="n">
         <v>4411.86877084347</v>
@@ -10828,19 +10828,19 @@
         <v>40</v>
       </c>
       <c r="E49" t="n">
+        <v>91544.5696</v>
+      </c>
+      <c r="F49" t="n">
         <v>87678.548</v>
-      </c>
-      <c r="F49" t="n">
-        <v>91544.5696</v>
       </c>
       <c r="G49" t="n">
         <v>89035.5</v>
       </c>
       <c r="H49" t="n">
+        <v>6856.05611606797</v>
+      </c>
+      <c r="I49" t="n">
         <v>9637.38012102246</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6856.05611606797</v>
       </c>
       <c r="J49" t="n">
         <v>7437.5489761466</v>
@@ -10869,19 +10869,19 @@
         <v>40</v>
       </c>
       <c r="E50" t="n">
+        <v>94971.2</v>
+      </c>
+      <c r="F50" t="n">
         <v>80192.0768</v>
-      </c>
-      <c r="F50" t="n">
-        <v>94971.2</v>
       </c>
       <c r="G50" t="n">
         <v>79987.1996</v>
       </c>
       <c r="H50" t="n">
+        <v>2379.20599910447</v>
+      </c>
+      <c r="I50" t="n">
         <v>5925.27523757078</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2379.20599910447</v>
       </c>
       <c r="J50" t="n">
         <v>5834.77911922261</v>
@@ -10904,29 +10904,35 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>127510.35</v>
-      </c>
-      <c r="F51"/>
+        <v>103863.232</v>
+      </c>
+      <c r="F51" t="n">
+        <v>93795.656</v>
+      </c>
       <c r="G51" t="n">
-        <v>124810.42</v>
+        <v>93795.656</v>
       </c>
       <c r="H51" t="n">
-        <v>3842.17296623472</v>
-      </c>
-      <c r="I51"/>
+        <v>17731.8280176408</v>
+      </c>
+      <c r="I51" t="n">
+        <v>25167.6606359133</v>
+      </c>
       <c r="J51" t="n">
-        <v>4550.57762723557</v>
+        <v>21247.2045415511</v>
       </c>
       <c r="K51" t="s">
         <v>18</v>
       </c>
-      <c r="L51"/>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
       <c r="M51" t="s">
         <v>18</v>
       </c>
@@ -10939,31 +10945,37 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
       </c>
       <c r="E52" t="n">
-        <v>117807.97155</v>
-      </c>
-      <c r="F52"/>
+        <v>116577.148</v>
+      </c>
+      <c r="F52" t="n">
+        <v>116577.148</v>
+      </c>
       <c r="G52" t="n">
-        <v>107890.46828</v>
+        <v>116577.148</v>
       </c>
       <c r="H52" t="n">
-        <v>7203.52450750144</v>
-      </c>
-      <c r="I52"/>
+        <v>12756.8056098984</v>
+      </c>
+      <c r="I52" t="n">
+        <v>35618.2271066435</v>
+      </c>
       <c r="J52" t="n">
-        <v>11763.2228693812</v>
+        <v>47847.5906094658</v>
       </c>
       <c r="K52" t="s">
         <v>18</v>
       </c>
-      <c r="L52"/>
+      <c r="L52" t="s">
+        <v>16</v>
+      </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -10974,31 +10986,31 @@
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
       </c>
       <c r="E53" t="n">
-        <v>93795.656</v>
+        <v>103990.836</v>
       </c>
       <c r="F53" t="n">
-        <v>103863.232</v>
+        <v>80916.704</v>
       </c>
       <c r="G53" t="n">
-        <v>93795.656</v>
+        <v>82150.088</v>
       </c>
       <c r="H53" t="n">
-        <v>25167.6606359133</v>
+        <v>8843.18489533869</v>
       </c>
       <c r="I53" t="n">
-        <v>17731.8280176408</v>
+        <v>7753.56910572762</v>
       </c>
       <c r="J53" t="n">
-        <v>21247.2045415511</v>
+        <v>9514.16986203294</v>
       </c>
       <c r="K53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L53" t="s">
         <v>18</v>
@@ -11015,37 +11027,37 @@
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>116577.148</v>
+        <v>121978.912</v>
       </c>
       <c r="F54" t="n">
-        <v>116577.148</v>
+        <v>120555.24</v>
       </c>
       <c r="G54" t="n">
-        <v>116577.148</v>
+        <v>121088.28</v>
       </c>
       <c r="H54" t="n">
-        <v>35618.2271066435</v>
+        <v>2248.58898249227</v>
       </c>
       <c r="I54" t="n">
-        <v>12756.8056098984</v>
+        <v>2103.89340159665</v>
       </c>
       <c r="J54" t="n">
-        <v>47847.5906094658</v>
+        <v>2164.21133347385</v>
       </c>
       <c r="K54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L54" t="s">
         <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -11056,28 +11068,28 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
         <v>40</v>
       </c>
       <c r="E55" t="n">
-        <v>80916.704</v>
+        <v>115222.989</v>
       </c>
       <c r="F55" t="n">
-        <v>103990.836</v>
+        <v>115222.989</v>
       </c>
       <c r="G55" t="n">
-        <v>82150.088</v>
+        <v>115222.989</v>
       </c>
       <c r="H55" t="n">
-        <v>7753.56910572762</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="I55" t="n">
-        <v>8843.18489533869</v>
+        <v>1841.65328029918</v>
       </c>
       <c r="J55" t="n">
-        <v>9514.16986203294</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="K55" t="s">
         <v>18</v>
@@ -11097,32 +11109,26 @@
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
         <v>40</v>
       </c>
-      <c r="E56" t="n">
-        <v>120555.24</v>
-      </c>
+      <c r="E56"/>
       <c r="F56" t="n">
-        <v>121978.912</v>
+        <v>127510.35</v>
       </c>
       <c r="G56" t="n">
-        <v>121088.28</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2103.89340159665</v>
-      </c>
+        <v>124810.42</v>
+      </c>
+      <c r="H56"/>
       <c r="I56" t="n">
-        <v>2248.58898249227</v>
+        <v>3842.17296623472</v>
       </c>
       <c r="J56" t="n">
-        <v>2164.21133347385</v>
-      </c>
-      <c r="K56" t="s">
-        <v>18</v>
-      </c>
+        <v>4550.57762723557</v>
+      </c>
+      <c r="K56"/>
       <c r="L56" t="s">
         <v>18</v>
       </c>
@@ -11138,32 +11144,26 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
         <v>40</v>
       </c>
-      <c r="E57" t="n">
-        <v>115222.989</v>
-      </c>
+      <c r="E57"/>
       <c r="F57" t="n">
-        <v>115222.989</v>
+        <v>117807.97155</v>
       </c>
       <c r="G57" t="n">
-        <v>115222.989</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1841.65328029918</v>
-      </c>
+        <v>107890.46828</v>
+      </c>
+      <c r="H57"/>
       <c r="I57" t="n">
-        <v>1829.92844779909</v>
+        <v>7203.52450750144</v>
       </c>
       <c r="J57" t="n">
-        <v>1829.92844779909</v>
-      </c>
-      <c r="K57" t="s">
-        <v>18</v>
-      </c>
+        <v>11763.2228693812</v>
+      </c>
+      <c r="K57"/>
       <c r="L57" t="s">
         <v>18</v>
       </c>
@@ -11184,24 +11184,24 @@
       <c r="D58" t="s">
         <v>40</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58"/>
+      <c r="F58" t="n">
         <v>125964.3616</v>
       </c>
-      <c r="F58"/>
       <c r="G58" t="n">
         <v>121118.7384</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58"/>
+      <c r="I58" t="n">
         <v>3357.45407969988</v>
       </c>
-      <c r="I58"/>
       <c r="J58" t="n">
         <v>4945.49182104993</v>
       </c>
-      <c r="K58" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58"/>
+      <c r="K58"/>
+      <c r="L58" t="s">
+        <v>18</v>
+      </c>
       <c r="M58" t="s">
         <v>18</v>
       </c>
@@ -11220,19 +11220,19 @@
         <v>40</v>
       </c>
       <c r="E59" t="n">
+        <v>103990.836</v>
+      </c>
+      <c r="F59" t="n">
         <v>122184.22304</v>
-      </c>
-      <c r="F59" t="n">
-        <v>103990.836</v>
       </c>
       <c r="G59" t="n">
         <v>118714</v>
       </c>
       <c r="H59" t="n">
+        <v>8843.18489533869</v>
+      </c>
+      <c r="I59" t="n">
         <v>4575.43441632118</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8843.18489533869</v>
       </c>
       <c r="J59" t="n">
         <v>3500.21597435616</v>
@@ -11261,19 +11261,19 @@
         <v>40</v>
       </c>
       <c r="E60" t="n">
+        <v>99719.76</v>
+      </c>
+      <c r="F60" t="n">
         <v>107486.368</v>
-      </c>
-      <c r="F60" t="n">
-        <v>99719.76</v>
       </c>
       <c r="G60" t="n">
         <v>106413.183</v>
       </c>
       <c r="H60" t="n">
+        <v>2330.5712767856</v>
+      </c>
+      <c r="I60" t="n">
         <v>3045.68695756584</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2330.5712767856</v>
       </c>
       <c r="J60" t="n">
         <v>3109.25302503944</v>
@@ -11302,19 +11302,19 @@
         <v>40</v>
       </c>
       <c r="E61" t="n">
+        <v>115222.989</v>
+      </c>
+      <c r="F61" t="n">
         <v>111739.1728</v>
-      </c>
-      <c r="F61" t="n">
-        <v>115222.989</v>
       </c>
       <c r="G61" t="n">
         <v>112785.20736</v>
       </c>
       <c r="H61" t="n">
+        <v>1829.92844779909</v>
+      </c>
+      <c r="I61" t="n">
         <v>1814.56878539579</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1829.92844779909</v>
       </c>
       <c r="J61" t="n">
         <v>2107.16192585166</v>
@@ -11343,28 +11343,28 @@
         <v>40</v>
       </c>
       <c r="E62" t="n">
+        <v>135595.894</v>
+      </c>
+      <c r="F62" t="n">
         <v>108694.08</v>
-      </c>
-      <c r="F62" t="n">
-        <v>135595.894</v>
       </c>
       <c r="G62" t="n">
         <v>108979.452</v>
       </c>
       <c r="H62" t="n">
+        <v>23435.5950831547</v>
+      </c>
+      <c r="I62" t="n">
         <v>50770.0064472049</v>
-      </c>
-      <c r="I62" t="n">
-        <v>23435.5950831547</v>
       </c>
       <c r="J62" t="n">
         <v>22626.79701363</v>
       </c>
       <c r="K62" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" t="s">
         <v>16</v>
-      </c>
-      <c r="L62" t="s">
-        <v>18</v>
       </c>
       <c r="M62" t="s">
         <v>18</v>
@@ -11384,19 +11384,19 @@
         <v>40</v>
       </c>
       <c r="E63" t="n">
+        <v>156658.4905</v>
+      </c>
+      <c r="F63" t="n">
         <v>156000.15904</v>
-      </c>
-      <c r="F63" t="n">
-        <v>156658.4905</v>
       </c>
       <c r="G63" t="n">
         <v>157649.16</v>
       </c>
       <c r="H63" t="n">
+        <v>8702.67672869975</v>
+      </c>
+      <c r="I63" t="n">
         <v>8947.20074843923</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8702.67672869975</v>
       </c>
       <c r="J63" t="n">
         <v>8798.89777673188</v>
@@ -11425,19 +11425,19 @@
         <v>40</v>
       </c>
       <c r="E64" t="n">
+        <v>95053.17</v>
+      </c>
+      <c r="F64" t="n">
         <v>86659.03</v>
-      </c>
-      <c r="F64" t="n">
-        <v>95053.17</v>
       </c>
       <c r="G64" t="n">
         <v>86659.03</v>
       </c>
       <c r="H64" t="n">
+        <v>14504.7927648258</v>
+      </c>
+      <c r="I64" t="n">
         <v>8101.53512347126</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14504.7927648258</v>
       </c>
       <c r="J64" t="n">
         <v>7716.09278526725</v>
@@ -11466,19 +11466,19 @@
         <v>40</v>
       </c>
       <c r="E65" t="n">
+        <v>98530.725</v>
+      </c>
+      <c r="F65" t="n">
         <v>80916.704</v>
-      </c>
-      <c r="F65" t="n">
-        <v>98530.725</v>
       </c>
       <c r="G65" t="n">
         <v>81319.09</v>
       </c>
       <c r="H65" t="n">
+        <v>6302.68409355601</v>
+      </c>
+      <c r="I65" t="n">
         <v>4189.10142929399</v>
-      </c>
-      <c r="I65" t="n">
-        <v>6302.68409355601</v>
       </c>
       <c r="J65" t="n">
         <v>4294.364156428</v>
@@ -11501,31 +11501,37 @@
         <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>40</v>
       </c>
       <c r="E66" t="n">
-        <v>142456.8</v>
-      </c>
-      <c r="F66"/>
+        <v>126667.838</v>
+      </c>
+      <c r="F66" t="n">
+        <v>75027.248</v>
+      </c>
       <c r="G66" t="n">
-        <v>139797.711</v>
+        <v>75027.248</v>
       </c>
       <c r="H66" t="n">
-        <v>2399.1500464149</v>
-      </c>
-      <c r="I66"/>
+        <v>70716.9103372732</v>
+      </c>
+      <c r="I66" t="n">
+        <v>68621.3642628783</v>
+      </c>
       <c r="J66" t="n">
-        <v>2558.74058501535</v>
+        <v>54821.0922772702</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66"/>
+        <v>30</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -11536,31 +11542,37 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>40</v>
       </c>
       <c r="E67" t="n">
-        <v>125771.5725</v>
-      </c>
-      <c r="F67"/>
+        <v>128066.344</v>
+      </c>
+      <c r="F67" t="n">
+        <v>137634.93</v>
+      </c>
       <c r="G67" t="n">
-        <v>124810.42</v>
+        <v>137834.116</v>
       </c>
       <c r="H67" t="n">
-        <v>5845.09900412048</v>
-      </c>
-      <c r="I67"/>
+        <v>9937.4268188455</v>
+      </c>
+      <c r="I67" t="n">
+        <v>48799.9373273605</v>
+      </c>
       <c r="J67" t="n">
-        <v>5567.97138771177</v>
+        <v>63131.8234884136</v>
       </c>
       <c r="K67" t="s">
         <v>18</v>
       </c>
-      <c r="L67"/>
+      <c r="L67" t="s">
+        <v>16</v>
+      </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -11571,37 +11583,37 @@
         <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
       </c>
       <c r="E68" t="n">
-        <v>75027.248</v>
+        <v>129315.219</v>
       </c>
       <c r="F68" t="n">
-        <v>126667.838</v>
+        <v>118951.428</v>
       </c>
       <c r="G68" t="n">
-        <v>75027.248</v>
+        <v>119544.998</v>
       </c>
       <c r="H68" t="n">
-        <v>68621.3642628783</v>
+        <v>7933.14150963542</v>
       </c>
       <c r="I68" t="n">
-        <v>70716.9103372732</v>
+        <v>10525.5474188639</v>
       </c>
       <c r="J68" t="n">
-        <v>54821.0922772702</v>
+        <v>12155.1133818182</v>
       </c>
       <c r="K68" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L68" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -11612,37 +11624,37 @@
         <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
       </c>
       <c r="E69" t="n">
-        <v>137634.93</v>
+        <v>131517.822</v>
       </c>
       <c r="F69" t="n">
-        <v>128066.344</v>
+        <v>129828.72</v>
       </c>
       <c r="G69" t="n">
-        <v>137834.116</v>
+        <v>130229.258</v>
       </c>
       <c r="H69" t="n">
-        <v>48799.9373273605</v>
+        <v>2659.93321186545</v>
       </c>
       <c r="I69" t="n">
-        <v>9937.4268188455</v>
+        <v>3072.44619562329</v>
       </c>
       <c r="J69" t="n">
-        <v>63131.8234884136</v>
+        <v>2930.76839293921</v>
       </c>
       <c r="K69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L69" t="s">
         <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -11653,28 +11665,28 @@
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
         <v>40</v>
       </c>
       <c r="E70" t="n">
-        <v>118951.428</v>
+        <v>129478.786</v>
       </c>
       <c r="F70" t="n">
-        <v>129315.219</v>
+        <v>129478.786</v>
       </c>
       <c r="G70" t="n">
-        <v>119544.998</v>
+        <v>129478.786</v>
       </c>
       <c r="H70" t="n">
-        <v>10525.5474188639</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="I70" t="n">
-        <v>7933.14150963542</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="J70" t="n">
-        <v>12155.1133818182</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="K70" t="s">
         <v>18</v>
@@ -11694,32 +11706,26 @@
         <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
       </c>
-      <c r="E71" t="n">
-        <v>129828.72</v>
-      </c>
+      <c r="E71"/>
       <c r="F71" t="n">
-        <v>131517.822</v>
+        <v>142456.8</v>
       </c>
       <c r="G71" t="n">
-        <v>130229.258</v>
-      </c>
-      <c r="H71" t="n">
-        <v>3072.44619562329</v>
-      </c>
+        <v>139797.711</v>
+      </c>
+      <c r="H71"/>
       <c r="I71" t="n">
-        <v>2659.93321186545</v>
+        <v>2399.1500464149</v>
       </c>
       <c r="J71" t="n">
-        <v>2930.76839293921</v>
-      </c>
-      <c r="K71" t="s">
-        <v>18</v>
-      </c>
+        <v>2558.74058501535</v>
+      </c>
+      <c r="K71"/>
       <c r="L71" t="s">
         <v>18</v>
       </c>
@@ -11735,32 +11741,26 @@
         <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
         <v>40</v>
       </c>
-      <c r="E72" t="n">
-        <v>129478.786</v>
-      </c>
+      <c r="E72"/>
       <c r="F72" t="n">
-        <v>129478.786</v>
+        <v>125771.5725</v>
       </c>
       <c r="G72" t="n">
-        <v>129478.786</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2650.9311255005</v>
-      </c>
+        <v>124810.42</v>
+      </c>
+      <c r="H72"/>
       <c r="I72" t="n">
-        <v>2650.9311255005</v>
+        <v>5845.09900412048</v>
       </c>
       <c r="J72" t="n">
-        <v>2650.9311255005</v>
-      </c>
-      <c r="K72" t="s">
-        <v>18</v>
-      </c>
+        <v>5567.97138771177</v>
+      </c>
+      <c r="K72"/>
       <c r="L72" t="s">
         <v>18</v>
       </c>
@@ -11781,24 +11781,24 @@
       <c r="D73" t="s">
         <v>40</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73"/>
+      <c r="F73" t="n">
         <v>140082.52</v>
       </c>
-      <c r="F73"/>
       <c r="G73" t="n">
         <v>137869.41914</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73"/>
+      <c r="I73" t="n">
         <v>2370.43601654964</v>
       </c>
-      <c r="I73"/>
       <c r="J73" t="n">
         <v>3732.77786046719</v>
       </c>
-      <c r="K73" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73"/>
+      <c r="K73"/>
+      <c r="L73" t="s">
+        <v>18</v>
+      </c>
       <c r="M73" t="s">
         <v>18</v>
       </c>
@@ -11817,19 +11817,19 @@
         <v>40</v>
       </c>
       <c r="E74" t="n">
+        <v>129315.219</v>
+      </c>
+      <c r="F74" t="n">
         <v>138886.88</v>
-      </c>
-      <c r="F74" t="n">
-        <v>129315.219</v>
       </c>
       <c r="G74" t="n">
         <v>136656.19272</v>
       </c>
       <c r="H74" t="n">
+        <v>7933.14150963542</v>
+      </c>
+      <c r="I74" t="n">
         <v>2853.77532573269</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7933.14150963542</v>
       </c>
       <c r="J74" t="n">
         <v>3377.35570136336</v>
@@ -11858,19 +11858,19 @@
         <v>40</v>
       </c>
       <c r="E75" t="n">
+        <v>123462.56</v>
+      </c>
+      <c r="F75" t="n">
         <v>128459.268</v>
-      </c>
-      <c r="F75" t="n">
-        <v>123462.56</v>
       </c>
       <c r="G75" t="n">
         <v>128211.12</v>
       </c>
       <c r="H75" t="n">
+        <v>5374.13798409126</v>
+      </c>
+      <c r="I75" t="n">
         <v>3828.75050954293</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5374.13798409126</v>
       </c>
       <c r="J75" t="n">
         <v>3752.58986133942</v>
@@ -11899,19 +11899,19 @@
         <v>40</v>
       </c>
       <c r="E76" t="n">
+        <v>129478.786</v>
+      </c>
+      <c r="F76" t="n">
         <v>125836.84</v>
-      </c>
-      <c r="F76" t="n">
-        <v>129478.786</v>
       </c>
       <c r="G76" t="n">
         <v>126085.1328</v>
       </c>
       <c r="H76" t="n">
+        <v>2650.9311255005</v>
+      </c>
+      <c r="I76" t="n">
         <v>2553.1797493262</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2650.9311255005</v>
       </c>
       <c r="J76" t="n">
         <v>2625.05026342913</v>
@@ -12045,10 +12045,10 @@
         <v>81142.95</v>
       </c>
       <c r="H3" t="n">
+        <v>7540.3439543915</v>
+      </c>
+      <c r="I3" t="n">
         <v>7388.99327150796</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7540.3439543915</v>
       </c>
       <c r="J3" t="n">
         <v>7540.3439543915</v>
@@ -12077,19 +12077,19 @@
         <v>42</v>
       </c>
       <c r="E4" t="n">
+        <v>42194.334</v>
+      </c>
+      <c r="F4" t="n">
         <v>42269.92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42194.334</v>
       </c>
       <c r="G4" t="n">
         <v>42194.334</v>
       </c>
       <c r="H4" t="n">
+        <v>3715.05004212277</v>
+      </c>
+      <c r="I4" t="n">
         <v>3728.96715330379</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3715.05004212277</v>
       </c>
       <c r="J4" t="n">
         <v>3715.05004212277</v>
@@ -12118,19 +12118,19 @@
         <v>42</v>
       </c>
       <c r="E5" t="n">
+        <v>55795.58</v>
+      </c>
+      <c r="F5" t="n">
         <v>55893.362</v>
-      </c>
-      <c r="F5" t="n">
-        <v>55795.58</v>
       </c>
       <c r="G5" t="n">
         <v>55795.58</v>
       </c>
       <c r="H5" t="n">
+        <v>4185.05239397604</v>
+      </c>
+      <c r="I5" t="n">
         <v>4332.8213222906</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4185.05239397604</v>
       </c>
       <c r="J5" t="n">
         <v>4185.05239397604</v>
@@ -12282,19 +12282,19 @@
         <v>42</v>
       </c>
       <c r="E9" t="n">
+        <v>57487.0912</v>
+      </c>
+      <c r="F9" t="n">
         <v>57521.324</v>
-      </c>
-      <c r="F9" t="n">
-        <v>57487.0912</v>
       </c>
       <c r="G9" t="n">
         <v>57487.0912</v>
       </c>
       <c r="H9" t="n">
+        <v>1253.34432695792</v>
+      </c>
+      <c r="I9" t="n">
         <v>1209.8527365922</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1253.34432695792</v>
       </c>
       <c r="J9" t="n">
         <v>1253.34432695792</v>
@@ -12332,10 +12332,10 @@
         <v>57959.25</v>
       </c>
       <c r="H10" t="n">
+        <v>1264.48170014687</v>
+      </c>
+      <c r="I10" t="n">
         <v>1028.22535144888</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1264.48170014687</v>
       </c>
       <c r="J10" t="n">
         <v>1264.48170014687</v>
@@ -12405,19 +12405,19 @@
         <v>42</v>
       </c>
       <c r="E12" t="n">
+        <v>58063.978</v>
+      </c>
+      <c r="F12" t="n">
         <v>58418.3814</v>
-      </c>
-      <c r="F12" t="n">
-        <v>58063.978</v>
       </c>
       <c r="G12" t="n">
         <v>58063.978</v>
       </c>
       <c r="H12" t="n">
+        <v>2548.72529318913</v>
+      </c>
+      <c r="I12" t="n">
         <v>2418.39874562034</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2548.72529318913</v>
       </c>
       <c r="J12" t="n">
         <v>2548.72529318913</v>
@@ -12455,10 +12455,10 @@
         <v>57959.25</v>
       </c>
       <c r="H13" t="n">
+        <v>1264.48170014687</v>
+      </c>
+      <c r="I13" t="n">
         <v>1028.22535144888</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1264.48170014687</v>
       </c>
       <c r="J13" t="n">
         <v>1264.48170014687</v>
@@ -12528,19 +12528,19 @@
         <v>42</v>
       </c>
       <c r="E15" t="n">
+        <v>93795.656</v>
+      </c>
+      <c r="F15" t="n">
         <v>94201.536</v>
-      </c>
-      <c r="F15" t="n">
-        <v>93795.656</v>
       </c>
       <c r="G15" t="n">
         <v>93795.656</v>
       </c>
       <c r="H15" t="n">
+        <v>9630.05604155624</v>
+      </c>
+      <c r="I15" t="n">
         <v>9617.59724163919</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9630.05604155624</v>
       </c>
       <c r="J15" t="n">
         <v>9630.05604155624</v>
@@ -12619,10 +12619,10 @@
         <v>62496.4534</v>
       </c>
       <c r="H17" t="n">
+        <v>5866.83054177101</v>
+      </c>
+      <c r="I17" t="n">
         <v>5954.21661223373</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5866.83054177101</v>
       </c>
       <c r="J17" t="n">
         <v>5866.83054177101</v>
@@ -12774,19 +12774,19 @@
         <v>42</v>
       </c>
       <c r="E21" t="n">
+        <v>64817.844</v>
+      </c>
+      <c r="F21" t="n">
         <v>64854.1344</v>
-      </c>
-      <c r="F21" t="n">
-        <v>64817.844</v>
       </c>
       <c r="G21" t="n">
         <v>64817.844</v>
       </c>
       <c r="H21" t="n">
+        <v>2162.62587050882</v>
+      </c>
+      <c r="I21" t="n">
         <v>2025.48263815248</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2162.62587050882</v>
       </c>
       <c r="J21" t="n">
         <v>2162.62587050882</v>
@@ -12815,19 +12815,19 @@
         <v>42</v>
       </c>
       <c r="E22" t="n">
+        <v>64105.56</v>
+      </c>
+      <c r="F22" t="n">
         <v>64331.5858</v>
-      </c>
-      <c r="F22" t="n">
-        <v>64105.56</v>
       </c>
       <c r="G22" t="n">
         <v>64105.56</v>
       </c>
       <c r="H22" t="n">
+        <v>2214.60709266114</v>
+      </c>
+      <c r="I22" t="n">
         <v>2114.88132442924</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2214.60709266114</v>
       </c>
       <c r="J22" t="n">
         <v>2214.60709266114</v>
@@ -12897,19 +12897,19 @@
         <v>42</v>
       </c>
       <c r="E24" t="n">
+        <v>63210.116</v>
+      </c>
+      <c r="F24" t="n">
         <v>63639.2565</v>
-      </c>
-      <c r="F24" t="n">
-        <v>63210.116</v>
       </c>
       <c r="G24" t="n">
         <v>63210.116</v>
       </c>
       <c r="H24" t="n">
+        <v>3816.48143296037</v>
+      </c>
+      <c r="I24" t="n">
         <v>3577.34262726563</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3816.48143296037</v>
       </c>
       <c r="J24" t="n">
         <v>3816.48143296037</v>
@@ -12938,19 +12938,19 @@
         <v>42</v>
       </c>
       <c r="E25" t="n">
+        <v>64105.56</v>
+      </c>
+      <c r="F25" t="n">
         <v>64331.5858</v>
-      </c>
-      <c r="F25" t="n">
-        <v>64105.56</v>
       </c>
       <c r="G25" t="n">
         <v>64105.56</v>
       </c>
       <c r="H25" t="n">
+        <v>2214.60709266114</v>
+      </c>
+      <c r="I25" t="n">
         <v>2114.88132442924</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2214.60709266114</v>
       </c>
       <c r="J25" t="n">
         <v>2214.60709266114</v>
@@ -13275,10 +13275,10 @@
         <v>49171.35314</v>
       </c>
       <c r="H33" t="n">
+        <v>2917.94605346304</v>
+      </c>
+      <c r="I33" t="n">
         <v>2962.98381458141</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2917.94605346304</v>
       </c>
       <c r="J33" t="n">
         <v>2917.94605346304</v>
@@ -13307,19 +13307,19 @@
         <v>42</v>
       </c>
       <c r="E34" t="n">
+        <v>49147.596</v>
+      </c>
+      <c r="F34" t="n">
         <v>49171.35314</v>
-      </c>
-      <c r="F34" t="n">
-        <v>49147.596</v>
       </c>
       <c r="G34" t="n">
         <v>49147.596</v>
       </c>
       <c r="H34" t="n">
+        <v>2717.26132515061</v>
+      </c>
+      <c r="I34" t="n">
         <v>2734.44430974366</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2717.26132515061</v>
       </c>
       <c r="J34" t="n">
         <v>2717.26132515061</v>
@@ -13430,19 +13430,19 @@
         <v>42</v>
       </c>
       <c r="E37" t="n">
+        <v>49147.596</v>
+      </c>
+      <c r="F37" t="n">
         <v>49171.35314</v>
-      </c>
-      <c r="F37" t="n">
-        <v>49147.596</v>
       </c>
       <c r="G37" t="n">
         <v>49147.596</v>
       </c>
       <c r="H37" t="n">
+        <v>2717.26132515061</v>
+      </c>
+      <c r="I37" t="n">
         <v>2734.44430974366</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2717.26132515061</v>
       </c>
       <c r="J37" t="n">
         <v>2717.26132515061</v>
@@ -13603,10 +13603,10 @@
         <v>49956.382</v>
       </c>
       <c r="H41" t="n">
+        <v>3489.91625982277</v>
+      </c>
+      <c r="I41" t="n">
         <v>3983.44333322349</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3489.91625982277</v>
       </c>
       <c r="J41" t="n">
         <v>3489.91625982277</v>
@@ -13758,19 +13758,19 @@
         <v>42</v>
       </c>
       <c r="E45" t="n">
+        <v>50683.8836</v>
+      </c>
+      <c r="F45" t="n">
         <v>50723.904</v>
-      </c>
-      <c r="F45" t="n">
-        <v>50683.8836</v>
       </c>
       <c r="G45" t="n">
         <v>50683.8836</v>
       </c>
       <c r="H45" t="n">
+        <v>2822.14856241887</v>
+      </c>
+      <c r="I45" t="n">
         <v>2842.41542380844</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2822.14856241887</v>
       </c>
       <c r="J45" t="n">
         <v>2822.14856241887</v>
@@ -13808,10 +13808,10 @@
         <v>49844.955</v>
       </c>
       <c r="H46" t="n">
+        <v>1900.05386102308</v>
+      </c>
+      <c r="I46" t="n">
         <v>1880.39830998911</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1900.05386102308</v>
       </c>
       <c r="J46" t="n">
         <v>1900.05386102308</v>
@@ -13890,10 +13890,10 @@
         <v>48685.77</v>
       </c>
       <c r="H48" t="n">
+        <v>2497.03150804952</v>
+      </c>
+      <c r="I48" t="n">
         <v>2421.89417571162</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2497.03150804952</v>
       </c>
       <c r="J48" t="n">
         <v>2497.03150804952</v>
@@ -13931,10 +13931,10 @@
         <v>49844.955</v>
       </c>
       <c r="H49" t="n">
+        <v>1900.05386102308</v>
+      </c>
+      <c r="I49" t="n">
         <v>1880.39830998911</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1900.05386102308</v>
       </c>
       <c r="J49" t="n">
         <v>1900.05386102308</v>
@@ -14004,19 +14004,19 @@
         <v>42</v>
       </c>
       <c r="E51" t="n">
+        <v>59200.17059</v>
+      </c>
+      <c r="F51" t="n">
         <v>60277.62</v>
-      </c>
-      <c r="F51" t="n">
-        <v>59200.17059</v>
       </c>
       <c r="G51" t="n">
         <v>59200.17059</v>
       </c>
       <c r="H51" t="n">
+        <v>16061.4886294892</v>
+      </c>
+      <c r="I51" t="n">
         <v>15640.5668101562</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16061.4886294892</v>
       </c>
       <c r="J51" t="n">
         <v>16061.4886294892</v>
@@ -14054,10 +14054,10 @@
         <v>57959.25</v>
       </c>
       <c r="H52" t="n">
+        <v>13493.2900645125</v>
+      </c>
+      <c r="I52" t="n">
         <v>9389.01023308629</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13493.2900645125</v>
       </c>
       <c r="J52" t="n">
         <v>13493.2900645125</v>
@@ -14259,10 +14259,10 @@
         <v>50975.9</v>
       </c>
       <c r="H57" t="n">
+        <v>3326.3870604713</v>
+      </c>
+      <c r="I57" t="n">
         <v>3295.86949196496</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3326.3870604713</v>
       </c>
       <c r="J57" t="n">
         <v>3326.3870604713</v>
@@ -14291,19 +14291,19 @@
         <v>42</v>
       </c>
       <c r="E58" t="n">
+        <v>50975.9</v>
+      </c>
+      <c r="F58" t="n">
         <v>51004.14</v>
-      </c>
-      <c r="F58" t="n">
-        <v>50975.9</v>
       </c>
       <c r="G58" t="n">
         <v>50975.9</v>
       </c>
       <c r="H58" t="n">
+        <v>2566.40103174919</v>
+      </c>
+      <c r="I58" t="n">
         <v>2623.1295232966</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2566.40103174919</v>
       </c>
       <c r="J58" t="n">
         <v>2566.40103174919</v>
@@ -14373,19 +14373,19 @@
         <v>42</v>
       </c>
       <c r="E60" t="n">
+        <v>52163.325</v>
+      </c>
+      <c r="F60" t="n">
         <v>52742.9175</v>
-      </c>
-      <c r="F60" t="n">
-        <v>52163.325</v>
       </c>
       <c r="G60" t="n">
         <v>52163.325</v>
       </c>
       <c r="H60" t="n">
+        <v>5496.06924302693</v>
+      </c>
+      <c r="I60" t="n">
         <v>5362.25188809543</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5496.06924302693</v>
       </c>
       <c r="J60" t="n">
         <v>5496.06924302693</v>
@@ -14414,19 +14414,19 @@
         <v>42</v>
       </c>
       <c r="E61" t="n">
+        <v>50975.9</v>
+      </c>
+      <c r="F61" t="n">
         <v>51004.14</v>
-      </c>
-      <c r="F61" t="n">
-        <v>50975.9</v>
       </c>
       <c r="G61" t="n">
         <v>50975.9</v>
       </c>
       <c r="H61" t="n">
+        <v>2566.40103174919</v>
+      </c>
+      <c r="I61" t="n">
         <v>2623.1295232966</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2566.40103174919</v>
       </c>
       <c r="J61" t="n">
         <v>2566.40103174919</v>
@@ -14510,28 +14510,28 @@
         <v>42</v>
       </c>
       <c r="E2" t="n">
+        <v>104790.324</v>
+      </c>
+      <c r="F2" t="n">
         <v>79522.404</v>
-      </c>
-      <c r="F2" t="n">
-        <v>104790.324</v>
       </c>
       <c r="G2" t="n">
         <v>98689.3424</v>
       </c>
       <c r="H2" t="n">
+        <v>15822.4300201947</v>
+      </c>
+      <c r="I2" t="n">
         <v>33695.9560823451</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15822.4300201947</v>
       </c>
       <c r="J2" t="n">
         <v>35447.7617337198</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -14551,19 +14551,19 @@
         <v>42</v>
       </c>
       <c r="E3" t="n">
+        <v>168220.47</v>
+      </c>
+      <c r="F3" t="n">
         <v>166922.64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>168220.47</v>
       </c>
       <c r="G3" t="n">
         <v>169152.14272</v>
       </c>
       <c r="H3" t="n">
+        <v>4378.05449506362</v>
+      </c>
+      <c r="I3" t="n">
         <v>5148.33313797044</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4378.05449506362</v>
       </c>
       <c r="J3" t="n">
         <v>5599.7699157011</v>
@@ -14592,19 +14592,19 @@
         <v>42</v>
       </c>
       <c r="E4" t="n">
+        <v>90578.4</v>
+      </c>
+      <c r="F4" t="n">
         <v>82302.135</v>
-      </c>
-      <c r="F4" t="n">
-        <v>90578.4</v>
       </c>
       <c r="G4" t="n">
         <v>83455.942</v>
       </c>
       <c r="H4" t="n">
+        <v>3386.94136874966</v>
+      </c>
+      <c r="I4" t="n">
         <v>3953.03360856948</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3386.94136874966</v>
       </c>
       <c r="J4" t="n">
         <v>4781.05303472336</v>
@@ -14633,19 +14633,19 @@
         <v>42</v>
       </c>
       <c r="E5" t="n">
+        <v>97243.5968</v>
+      </c>
+      <c r="F5" t="n">
         <v>79657.094</v>
-      </c>
-      <c r="F5" t="n">
-        <v>97243.5968</v>
       </c>
       <c r="G5" t="n">
         <v>80013.236</v>
       </c>
       <c r="H5" t="n">
+        <v>2785.92080225877</v>
+      </c>
+      <c r="I5" t="n">
         <v>4054.35456069757</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2785.92080225877</v>
       </c>
       <c r="J5" t="n">
         <v>4262.41122413464</v>
@@ -14668,29 +14668,35 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>146520.984</v>
-      </c>
-      <c r="F6"/>
+        <v>100733.1765</v>
+      </c>
+      <c r="F6" t="n">
+        <v>87678.548</v>
+      </c>
       <c r="G6" t="n">
-        <v>142510.016</v>
+        <v>87150.2324</v>
       </c>
       <c r="H6" t="n">
-        <v>2779.0023197814</v>
-      </c>
-      <c r="I6"/>
+        <v>10372.2809386968</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13962.7543099189</v>
+      </c>
       <c r="J6" t="n">
-        <v>2092.37650366124</v>
+        <v>12853.0678797997</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
@@ -14703,28 +14709,28 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
       </c>
       <c r="E7" t="n">
-        <v>87678.548</v>
+        <v>130236.96</v>
       </c>
       <c r="F7" t="n">
-        <v>100733.1765</v>
+        <v>128066.344</v>
       </c>
       <c r="G7" t="n">
-        <v>87150.2324</v>
+        <v>127023.98</v>
       </c>
       <c r="H7" t="n">
-        <v>13962.7543099189</v>
+        <v>20630.6096080569</v>
       </c>
       <c r="I7" t="n">
-        <v>10372.2809386968</v>
+        <v>14583.2886212473</v>
       </c>
       <c r="J7" t="n">
-        <v>12853.0678797997</v>
+        <v>13911.2412571425</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -14744,28 +14750,28 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="n">
-        <v>128066.344</v>
+        <v>126809.76</v>
       </c>
       <c r="F8" t="n">
-        <v>130236.96</v>
+        <v>100849.095</v>
       </c>
       <c r="G8" t="n">
-        <v>127023.98</v>
+        <v>107486.368</v>
       </c>
       <c r="H8" t="n">
-        <v>14583.2886212473</v>
+        <v>4332.25277201833</v>
       </c>
       <c r="I8" t="n">
-        <v>20630.6096080569</v>
+        <v>6428.32084072217</v>
       </c>
       <c r="J8" t="n">
-        <v>13911.2412571425</v>
+        <v>8227.9137695208</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
@@ -14785,28 +14791,28 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>100849.095</v>
+        <v>142732.52</v>
       </c>
       <c r="F9" t="n">
-        <v>126809.76</v>
+        <v>140840.9775</v>
       </c>
       <c r="G9" t="n">
-        <v>107486.368</v>
+        <v>141652.407</v>
       </c>
       <c r="H9" t="n">
-        <v>6428.32084072217</v>
+        <v>1428.63578540444</v>
       </c>
       <c r="I9" t="n">
-        <v>4332.25277201833</v>
+        <v>1479.34869364543</v>
       </c>
       <c r="J9" t="n">
-        <v>8227.9137695208</v>
+        <v>1460.92572429665</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
@@ -14826,28 +14832,28 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="n">
-        <v>140840.9775</v>
+        <v>136521.1</v>
       </c>
       <c r="F10" t="n">
-        <v>142732.52</v>
+        <v>136521.1</v>
       </c>
       <c r="G10" t="n">
-        <v>141652.407</v>
+        <v>136521.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1479.34869364543</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="I10" t="n">
-        <v>1428.63578540444</v>
+        <v>1085.28363716262</v>
       </c>
       <c r="J10" t="n">
-        <v>1460.92572429665</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
@@ -14867,32 +14873,26 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="n">
-        <v>136521.1</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" t="n">
-        <v>136521.1</v>
+        <v>146520.984</v>
       </c>
       <c r="G11" t="n">
-        <v>136521.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1085.28363716262</v>
-      </c>
+        <v>142510.016</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="n">
-        <v>1066.12046660227</v>
+        <v>2779.0023197814</v>
       </c>
       <c r="J11" t="n">
-        <v>1066.12046660227</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
+        <v>2092.37650366124</v>
+      </c>
+      <c r="K11"/>
       <c r="L11" t="s">
         <v>18</v>
       </c>
@@ -14913,24 +14913,24 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12"/>
+      <c r="F12" t="n">
         <v>146520.984</v>
       </c>
-      <c r="F12"/>
       <c r="G12" t="n">
         <v>142510.016</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12"/>
+      <c r="I12" t="n">
         <v>2779.0023197814</v>
       </c>
-      <c r="I12"/>
       <c r="J12" t="n">
         <v>2092.37650366124</v>
       </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12"/>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
       <c r="M12" t="s">
         <v>18</v>
       </c>
@@ -14949,19 +14949,19 @@
         <v>42</v>
       </c>
       <c r="E13" t="n">
+        <v>126809.76</v>
+      </c>
+      <c r="F13" t="n">
         <v>143752.038</v>
-      </c>
-      <c r="F13" t="n">
-        <v>126809.76</v>
       </c>
       <c r="G13" t="n">
         <v>140082.52</v>
       </c>
       <c r="H13" t="n">
+        <v>4332.25277201833</v>
+      </c>
+      <c r="I13" t="n">
         <v>2296.1021089012</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4332.25277201833</v>
       </c>
       <c r="J13" t="n">
         <v>2299.14129540471</v>
@@ -14990,19 +14990,19 @@
         <v>42</v>
       </c>
       <c r="E14" t="n">
+        <v>123669.7088</v>
+      </c>
+      <c r="F14" t="n">
         <v>131060.256</v>
-      </c>
-      <c r="F14" t="n">
-        <v>123669.7088</v>
       </c>
       <c r="G14" t="n">
         <v>130236.96</v>
       </c>
       <c r="H14" t="n">
+        <v>2431.18244156743</v>
+      </c>
+      <c r="I14" t="n">
         <v>1926.72320833829</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2431.18244156743</v>
       </c>
       <c r="J14" t="n">
         <v>1359.85839858073</v>
@@ -15031,19 +15031,19 @@
         <v>42</v>
       </c>
       <c r="E15" t="n">
+        <v>136521.1</v>
+      </c>
+      <c r="F15" t="n">
         <v>132959.68</v>
-      </c>
-      <c r="F15" t="n">
-        <v>136521.1</v>
       </c>
       <c r="G15" t="n">
         <v>134465.46</v>
       </c>
       <c r="H15" t="n">
+        <v>1066.12046660227</v>
+      </c>
+      <c r="I15" t="n">
         <v>1317.10804519356</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1066.12046660227</v>
       </c>
       <c r="J15" t="n">
         <v>1330.556901164</v>
@@ -15072,28 +15072,28 @@
         <v>42</v>
       </c>
       <c r="E16" t="n">
+        <v>54950.896</v>
+      </c>
+      <c r="F16" t="n">
         <v>50723.904</v>
-      </c>
-      <c r="F16" t="n">
-        <v>54950.896</v>
       </c>
       <c r="G16" t="n">
         <v>50723.904</v>
       </c>
       <c r="H16" t="n">
+        <v>20566.9404809805</v>
+      </c>
+      <c r="I16" t="n">
         <v>27841.6618378628</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20566.9404809805</v>
       </c>
       <c r="J16" t="n">
         <v>23049.9681194258</v>
       </c>
       <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
         <v>30</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
       </c>
       <c r="M16" t="s">
         <v>16</v>
@@ -15122,10 +15122,10 @@
         <v>185756.1796</v>
       </c>
       <c r="H17" t="n">
+        <v>3899.08167493826</v>
+      </c>
+      <c r="I17" t="n">
         <v>3980.88773404697</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3899.08167493826</v>
       </c>
       <c r="J17" t="n">
         <v>4083.78242979067</v>
@@ -15154,19 +15154,19 @@
         <v>42</v>
       </c>
       <c r="E18" t="n">
+        <v>86938.875</v>
+      </c>
+      <c r="F18" t="n">
         <v>78501.28</v>
-      </c>
-      <c r="F18" t="n">
-        <v>86938.875</v>
       </c>
       <c r="G18" t="n">
         <v>80795.1945</v>
       </c>
       <c r="H18" t="n">
+        <v>6697.91451581728</v>
+      </c>
+      <c r="I18" t="n">
         <v>8359.74821261896</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6697.91451581728</v>
       </c>
       <c r="J18" t="n">
         <v>7763.65947867403</v>
@@ -15195,19 +15195,19 @@
         <v>42</v>
       </c>
       <c r="E19" t="n">
+        <v>98763.028</v>
+      </c>
+      <c r="F19" t="n">
         <v>81142.95</v>
-      </c>
-      <c r="F19" t="n">
-        <v>98763.028</v>
       </c>
       <c r="G19" t="n">
         <v>81520.56</v>
       </c>
       <c r="H19" t="n">
+        <v>6469.76154257661</v>
+      </c>
+      <c r="I19" t="n">
         <v>8261.90220868616</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6469.76154257661</v>
       </c>
       <c r="J19" t="n">
         <v>8609.98503013217</v>
@@ -15230,29 +15230,35 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>169036.0844</v>
-      </c>
-      <c r="F20"/>
+        <v>93795.656</v>
+      </c>
+      <c r="F20" t="n">
+        <v>81561.44</v>
+      </c>
       <c r="G20" t="n">
-        <v>163122.88</v>
+        <v>81561.44</v>
       </c>
       <c r="H20" t="n">
-        <v>4029.31259224884</v>
-      </c>
-      <c r="I20"/>
+        <v>21716.8458497514</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11718.7476505776</v>
+      </c>
       <c r="J20" t="n">
-        <v>4099.127743269</v>
+        <v>13803.8194430041</v>
       </c>
       <c r="K20" t="s">
         <v>18</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
       <c r="M20" t="s">
         <v>18</v>
       </c>
@@ -15265,37 +15271,37 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>81561.44</v>
+        <v>154113.736</v>
       </c>
       <c r="F21" t="n">
-        <v>93795.656</v>
+        <v>131517.822</v>
       </c>
       <c r="G21" t="n">
-        <v>81561.44</v>
+        <v>131517.822</v>
       </c>
       <c r="H21" t="n">
-        <v>11718.7476505776</v>
+        <v>30926.6141734041</v>
       </c>
       <c r="I21" t="n">
-        <v>21716.8458497514</v>
+        <v>44372.5224835676</v>
       </c>
       <c r="J21" t="n">
-        <v>13803.8194430041</v>
+        <v>44587.4136290078</v>
       </c>
       <c r="K21" t="s">
         <v>18</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -15306,37 +15312,37 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>131517.822</v>
+        <v>142834.4718</v>
       </c>
       <c r="F22" t="n">
-        <v>154113.736</v>
+        <v>109088.426</v>
       </c>
       <c r="G22" t="n">
-        <v>131517.822</v>
+        <v>122393.1359</v>
       </c>
       <c r="H22" t="n">
-        <v>44372.5224835676</v>
+        <v>10577.2385772801</v>
       </c>
       <c r="I22" t="n">
-        <v>30926.6141734041</v>
+        <v>12096.2742091487</v>
       </c>
       <c r="J22" t="n">
-        <v>44587.4136290078</v>
+        <v>20177.7621517745</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
         <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -15347,28 +15353,28 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="E23" t="n">
-        <v>109088.426</v>
+        <v>168220.47</v>
       </c>
       <c r="F23" t="n">
-        <v>142834.4718</v>
+        <v>165012.46</v>
       </c>
       <c r="G23" t="n">
-        <v>122393.1359</v>
+        <v>165943.5932</v>
       </c>
       <c r="H23" t="n">
-        <v>12096.2742091487</v>
+        <v>2504.44178656926</v>
       </c>
       <c r="I23" t="n">
-        <v>10577.2385772801</v>
+        <v>2845.95886728038</v>
       </c>
       <c r="J23" t="n">
-        <v>20177.7621517745</v>
+        <v>2986.07009140882</v>
       </c>
       <c r="K23" t="s">
         <v>18</v>
@@ -15388,28 +15394,28 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>165012.46</v>
+        <v>156489.975</v>
       </c>
       <c r="F24" t="n">
-        <v>168220.47</v>
+        <v>156489.975</v>
       </c>
       <c r="G24" t="n">
-        <v>165943.5932</v>
+        <v>156489.975</v>
       </c>
       <c r="H24" t="n">
-        <v>2845.95886728038</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="I24" t="n">
-        <v>2504.44178656926</v>
+        <v>1788.75431262822</v>
       </c>
       <c r="J24" t="n">
-        <v>2986.07009140882</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="K24" t="s">
         <v>18</v>
@@ -15429,32 +15435,26 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" t="n">
-        <v>156489.975</v>
-      </c>
+      <c r="E25"/>
       <c r="F25" t="n">
-        <v>156489.975</v>
+        <v>169036.0844</v>
       </c>
       <c r="G25" t="n">
-        <v>156489.975</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1788.75431262822</v>
-      </c>
+        <v>163122.88</v>
+      </c>
+      <c r="H25"/>
       <c r="I25" t="n">
-        <v>1800.43590264081</v>
+        <v>4029.31259224884</v>
       </c>
       <c r="J25" t="n">
-        <v>1800.43590264081</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
+        <v>4099.127743269</v>
+      </c>
+      <c r="K25"/>
       <c r="L25" t="s">
         <v>18</v>
       </c>
@@ -15475,24 +15475,24 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26"/>
+      <c r="F26" t="n">
         <v>169036.0844</v>
       </c>
-      <c r="F26"/>
       <c r="G26" t="n">
         <v>163122.88</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26"/>
+      <c r="I26" t="n">
         <v>4029.31259224884</v>
       </c>
-      <c r="I26"/>
       <c r="J26" t="n">
         <v>4099.127743269</v>
       </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26"/>
+      <c r="K26"/>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
       <c r="M26" t="s">
         <v>18</v>
       </c>
@@ -15511,19 +15511,19 @@
         <v>42</v>
       </c>
       <c r="E27" t="n">
+        <v>142834.4718</v>
+      </c>
+      <c r="F27" t="n">
         <v>164264.74016</v>
-      </c>
-      <c r="F27" t="n">
-        <v>142834.4718</v>
       </c>
       <c r="G27" t="n">
         <v>159967.53</v>
       </c>
       <c r="H27" t="n">
+        <v>10577.2385772801</v>
+      </c>
+      <c r="I27" t="n">
         <v>4110.22160044922</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10577.2385772801</v>
       </c>
       <c r="J27" t="n">
         <v>4187.11504955054</v>
@@ -15552,19 +15552,19 @@
         <v>42</v>
       </c>
       <c r="E28" t="n">
+        <v>136783.83</v>
+      </c>
+      <c r="F28" t="n">
         <v>147340.864</v>
-      </c>
-      <c r="F28" t="n">
-        <v>136783.83</v>
       </c>
       <c r="G28" t="n">
         <v>146516.58</v>
       </c>
       <c r="H28" t="n">
+        <v>3405.13420130304</v>
+      </c>
+      <c r="I28" t="n">
         <v>3196.57240338512</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3405.13420130304</v>
       </c>
       <c r="J28" t="n">
         <v>3290.21467559746</v>
@@ -15593,19 +15593,19 @@
         <v>42</v>
       </c>
       <c r="E29" t="n">
+        <v>156489.975</v>
+      </c>
+      <c r="F29" t="n">
         <v>152927.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>156489.975</v>
       </c>
       <c r="G29" t="n">
         <v>154171.605</v>
       </c>
       <c r="H29" t="n">
+        <v>1800.43590264081</v>
+      </c>
+      <c r="I29" t="n">
         <v>1715.22522457126</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1800.43590264081</v>
       </c>
       <c r="J29" t="n">
         <v>1871.58648434169</v>
@@ -15634,28 +15634,28 @@
         <v>42</v>
       </c>
       <c r="E30" t="n">
+        <v>83461.32</v>
+      </c>
+      <c r="F30" t="n">
         <v>66242.412</v>
-      </c>
-      <c r="F30" t="n">
-        <v>83461.32</v>
       </c>
       <c r="G30" t="n">
         <v>66242.412</v>
       </c>
       <c r="H30" t="n">
+        <v>23723.4569934109</v>
+      </c>
+      <c r="I30" t="n">
         <v>33281.2390656598</v>
-      </c>
-      <c r="I30" t="n">
-        <v>23723.4569934109</v>
       </c>
       <c r="J30" t="n">
         <v>23122.3631620111</v>
       </c>
       <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
         <v>30</v>
-      </c>
-      <c r="L30" t="s">
-        <v>16</v>
       </c>
       <c r="M30" t="s">
         <v>16</v>
@@ -15675,19 +15675,19 @@
         <v>42</v>
       </c>
       <c r="E31" t="n">
+        <v>122586.84432</v>
+      </c>
+      <c r="F31" t="n">
         <v>105433.2576</v>
-      </c>
-      <c r="F31" t="n">
-        <v>122586.84432</v>
       </c>
       <c r="G31" t="n">
         <v>113549.6166</v>
       </c>
       <c r="H31" t="n">
+        <v>12729.3529982533</v>
+      </c>
+      <c r="I31" t="n">
         <v>23483.461253286</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12729.3529982533</v>
       </c>
       <c r="J31" t="n">
         <v>23051.4455257596</v>
@@ -15716,28 +15716,28 @@
         <v>42</v>
       </c>
       <c r="E32" t="n">
+        <v>108383.7975</v>
+      </c>
+      <c r="F32" t="n">
         <v>85264.4672</v>
-      </c>
-      <c r="F32" t="n">
-        <v>108383.7975</v>
       </c>
       <c r="G32" t="n">
         <v>85264.4672</v>
       </c>
       <c r="H32" t="n">
+        <v>38777.2899093825</v>
+      </c>
+      <c r="I32" t="n">
         <v>15990.8042538521</v>
-      </c>
-      <c r="I32" t="n">
-        <v>38777.2899093825</v>
       </c>
       <c r="J32" t="n">
         <v>20159.0127654108</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>
@@ -15757,19 +15757,19 @@
         <v>42</v>
       </c>
       <c r="E33" t="n">
+        <v>89035.5</v>
+      </c>
+      <c r="F33" t="n">
         <v>67631.872</v>
-      </c>
-      <c r="F33" t="n">
-        <v>89035.5</v>
       </c>
       <c r="G33" t="n">
         <v>67631.872</v>
       </c>
       <c r="H33" t="n">
+        <v>9946.52676655783</v>
+      </c>
+      <c r="I33" t="n">
         <v>9001.63661624217</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9946.52676655783</v>
       </c>
       <c r="J33" t="n">
         <v>8875.40463323271</v>
@@ -15792,31 +15792,37 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>
       </c>
       <c r="E34" t="n">
-        <v>124376.2968</v>
-      </c>
-      <c r="F34"/>
+        <v>119383.88</v>
+      </c>
+      <c r="F34" t="n">
+        <v>77995.098</v>
+      </c>
       <c r="G34" t="n">
-        <v>122342.16</v>
+        <v>77995.098</v>
       </c>
       <c r="H34" t="n">
-        <v>5318.31867809614</v>
-      </c>
-      <c r="I34"/>
+        <v>20020.0758051345</v>
+      </c>
+      <c r="I34" t="n">
+        <v>63533.2318892904</v>
+      </c>
       <c r="J34" t="n">
-        <v>5523.74133725496</v>
+        <v>63533.2318892904</v>
       </c>
       <c r="K34" t="s">
         <v>18</v>
       </c>
-      <c r="L34"/>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -15827,37 +15833,37 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
       </c>
       <c r="E35" t="n">
-        <v>77995.098</v>
+        <v>123290.9888</v>
       </c>
       <c r="F35" t="n">
-        <v>119383.88</v>
+        <v>118714</v>
       </c>
       <c r="G35" t="n">
-        <v>77995.098</v>
+        <v>118714</v>
       </c>
       <c r="H35" t="n">
-        <v>63533.2318892904</v>
+        <v>55276.8972182339</v>
       </c>
       <c r="I35" t="n">
-        <v>20020.0758051345</v>
+        <v>47312.9894698309</v>
       </c>
       <c r="J35" t="n">
-        <v>63533.2318892904</v>
+        <v>47312.9894698309</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M35" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -15868,37 +15874,37 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
         <v>42</v>
       </c>
       <c r="E36" t="n">
-        <v>118714</v>
+        <v>94815.174</v>
       </c>
       <c r="F36" t="n">
-        <v>123290.9888</v>
+        <v>94937.2515</v>
       </c>
       <c r="G36" t="n">
-        <v>118714</v>
+        <v>95507.104</v>
       </c>
       <c r="H36" t="n">
-        <v>47312.9894698309</v>
+        <v>6342.65022080927</v>
       </c>
       <c r="I36" t="n">
-        <v>55276.8972182339</v>
+        <v>14638.3239283411</v>
       </c>
       <c r="J36" t="n">
-        <v>47312.9894698309</v>
+        <v>12435.8630344971</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -15909,28 +15915,28 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="n">
-        <v>94937.2515</v>
+        <v>121598.5065</v>
       </c>
       <c r="F37" t="n">
-        <v>94815.174</v>
+        <v>120771.2</v>
       </c>
       <c r="G37" t="n">
-        <v>95507.104</v>
+        <v>121088.28</v>
       </c>
       <c r="H37" t="n">
-        <v>14638.3239283411</v>
+        <v>3029.87727404456</v>
       </c>
       <c r="I37" t="n">
-        <v>6342.65022080927</v>
+        <v>3502.54364546422</v>
       </c>
       <c r="J37" t="n">
-        <v>12435.8630344971</v>
+        <v>3564.59376476758</v>
       </c>
       <c r="K37" t="s">
         <v>18</v>
@@ -15950,28 +15956,28 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
       </c>
       <c r="E38" t="n">
-        <v>120771.2</v>
+        <v>118298.572</v>
       </c>
       <c r="F38" t="n">
-        <v>121598.5065</v>
+        <v>118298.572</v>
       </c>
       <c r="G38" t="n">
-        <v>121088.28</v>
+        <v>118298.572</v>
       </c>
       <c r="H38" t="n">
-        <v>3502.54364546422</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="I38" t="n">
-        <v>3029.87727404456</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="J38" t="n">
-        <v>3564.59376476758</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="K38" t="s">
         <v>18</v>
@@ -15991,32 +15997,26 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="E39" t="n">
-        <v>118298.572</v>
-      </c>
+      <c r="E39"/>
       <c r="F39" t="n">
-        <v>118298.572</v>
+        <v>124376.2968</v>
       </c>
       <c r="G39" t="n">
-        <v>118298.572</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3383.90722201948</v>
-      </c>
+        <v>122342.16</v>
+      </c>
+      <c r="H39"/>
       <c r="I39" t="n">
-        <v>3383.90722201948</v>
+        <v>5318.31867809614</v>
       </c>
       <c r="J39" t="n">
-        <v>3383.90722201948</v>
-      </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
+        <v>5523.74133725496</v>
+      </c>
+      <c r="K39"/>
       <c r="L39" t="s">
         <v>18</v>
       </c>
@@ -16037,24 +16037,24 @@
       <c r="D40" t="s">
         <v>42</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40"/>
+      <c r="F40" t="n">
         <v>124376.2968</v>
       </c>
-      <c r="F40"/>
       <c r="G40" t="n">
         <v>122342.16</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40"/>
+      <c r="I40" t="n">
         <v>5318.31867809614</v>
       </c>
-      <c r="I40"/>
       <c r="J40" t="n">
         <v>5523.74133725496</v>
       </c>
-      <c r="K40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40"/>
+      <c r="K40"/>
+      <c r="L40" t="s">
+        <v>18</v>
+      </c>
       <c r="M40" t="s">
         <v>18</v>
       </c>
@@ -16073,19 +16073,19 @@
         <v>42</v>
       </c>
       <c r="E41" t="n">
+        <v>94815.174</v>
+      </c>
+      <c r="F41" t="n">
         <v>122049.8634</v>
-      </c>
-      <c r="F41" t="n">
-        <v>94815.174</v>
       </c>
       <c r="G41" t="n">
         <v>121018.914</v>
       </c>
       <c r="H41" t="n">
+        <v>6342.65022080927</v>
+      </c>
+      <c r="I41" t="n">
         <v>6135.51406967084</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6342.65022080927</v>
       </c>
       <c r="J41" t="n">
         <v>6260.01987926469</v>
@@ -16114,19 +16114,19 @@
         <v>42</v>
       </c>
       <c r="E42" t="n">
+        <v>99848.336</v>
+      </c>
+      <c r="F42" t="n">
         <v>113631.7476</v>
-      </c>
-      <c r="F42" t="n">
-        <v>99848.336</v>
       </c>
       <c r="G42" t="n">
         <v>113524.928</v>
       </c>
       <c r="H42" t="n">
+        <v>5892.98980394568</v>
+      </c>
+      <c r="I42" t="n">
         <v>4778.34940871608</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5892.98980394568</v>
       </c>
       <c r="J42" t="n">
         <v>4724.57511183432</v>
@@ -16155,19 +16155,19 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
+        <v>118298.572</v>
+      </c>
+      <c r="F43" t="n">
         <v>115152.58</v>
-      </c>
-      <c r="F43" t="n">
-        <v>118298.572</v>
       </c>
       <c r="G43" t="n">
         <v>115918.5</v>
       </c>
       <c r="H43" t="n">
+        <v>3383.90722201948</v>
+      </c>
+      <c r="I43" t="n">
         <v>4111.51371245192</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3383.90722201948</v>
       </c>
       <c r="J43" t="n">
         <v>4313.76467089778</v>
@@ -16196,28 +16196,28 @@
         <v>42</v>
       </c>
       <c r="E44" t="n">
+        <v>119048.2995</v>
+      </c>
+      <c r="F44" t="n">
         <v>125136.0124</v>
-      </c>
-      <c r="F44" t="n">
-        <v>119048.2995</v>
       </c>
       <c r="G44" t="n">
         <v>125136.0124</v>
       </c>
       <c r="H44" t="n">
+        <v>16899.3168280294</v>
+      </c>
+      <c r="I44" t="n">
         <v>58983.3850769241</v>
-      </c>
-      <c r="I44" t="n">
-        <v>16899.3168280294</v>
       </c>
       <c r="J44" t="n">
         <v>78370.6399238989</v>
       </c>
       <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
         <v>16</v>
-      </c>
-      <c r="L44" t="s">
-        <v>18</v>
       </c>
       <c r="M44" t="s">
         <v>30</v>
@@ -16237,19 +16237,19 @@
         <v>42</v>
       </c>
       <c r="E45" t="n">
+        <v>109195.227</v>
+      </c>
+      <c r="F45" t="n">
         <v>98893.246</v>
-      </c>
-      <c r="F45" t="n">
-        <v>109195.227</v>
       </c>
       <c r="G45" t="n">
         <v>99719.76</v>
       </c>
       <c r="H45" t="n">
+        <v>9689.19306224248</v>
+      </c>
+      <c r="I45" t="n">
         <v>5516.46140421491</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9689.19306224248</v>
       </c>
       <c r="J45" t="n">
         <v>4411.86877084347</v>
@@ -16278,19 +16278,19 @@
         <v>42</v>
       </c>
       <c r="E46" t="n">
+        <v>91544.5696</v>
+      </c>
+      <c r="F46" t="n">
         <v>87678.548</v>
-      </c>
-      <c r="F46" t="n">
-        <v>91544.5696</v>
       </c>
       <c r="G46" t="n">
         <v>89035.5</v>
       </c>
       <c r="H46" t="n">
+        <v>6856.05611606797</v>
+      </c>
+      <c r="I46" t="n">
         <v>9637.38012102246</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6856.05611606797</v>
       </c>
       <c r="J46" t="n">
         <v>7437.5489761466</v>
@@ -16319,19 +16319,19 @@
         <v>42</v>
       </c>
       <c r="E47" t="n">
+        <v>94971.2</v>
+      </c>
+      <c r="F47" t="n">
         <v>80192.0768</v>
-      </c>
-      <c r="F47" t="n">
-        <v>94971.2</v>
       </c>
       <c r="G47" t="n">
         <v>79987.1996</v>
       </c>
       <c r="H47" t="n">
+        <v>2379.20599910447</v>
+      </c>
+      <c r="I47" t="n">
         <v>5925.27523757078</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2379.20599910447</v>
       </c>
       <c r="J47" t="n">
         <v>5834.77911922261</v>
@@ -16354,29 +16354,35 @@
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>42</v>
       </c>
       <c r="E48" t="n">
-        <v>125964.3616</v>
-      </c>
-      <c r="F48"/>
+        <v>103863.232</v>
+      </c>
+      <c r="F48" t="n">
+        <v>93795.656</v>
+      </c>
       <c r="G48" t="n">
-        <v>121118.7384</v>
+        <v>93795.656</v>
       </c>
       <c r="H48" t="n">
-        <v>3357.45407969988</v>
-      </c>
-      <c r="I48"/>
+        <v>17731.8280176408</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25167.6606359133</v>
+      </c>
       <c r="J48" t="n">
-        <v>4945.49182104993</v>
+        <v>21247.2045415511</v>
       </c>
       <c r="K48" t="s">
         <v>18</v>
       </c>
-      <c r="L48"/>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
       <c r="M48" t="s">
         <v>18</v>
       </c>
@@ -16389,37 +16395,37 @@
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
       </c>
       <c r="E49" t="n">
-        <v>93795.656</v>
+        <v>116577.148</v>
       </c>
       <c r="F49" t="n">
-        <v>103863.232</v>
+        <v>116577.148</v>
       </c>
       <c r="G49" t="n">
-        <v>93795.656</v>
+        <v>116577.148</v>
       </c>
       <c r="H49" t="n">
-        <v>25167.6606359133</v>
+        <v>12756.8056098984</v>
       </c>
       <c r="I49" t="n">
-        <v>17731.8280176408</v>
+        <v>35618.2271066435</v>
       </c>
       <c r="J49" t="n">
-        <v>21247.2045415511</v>
+        <v>47847.5906094658</v>
       </c>
       <c r="K49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" t="s">
         <v>16</v>
       </c>
-      <c r="L49" t="s">
-        <v>18</v>
-      </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -16430,37 +16436,37 @@
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
         <v>42</v>
       </c>
       <c r="E50" t="n">
-        <v>116577.148</v>
+        <v>103990.836</v>
       </c>
       <c r="F50" t="n">
-        <v>116577.148</v>
+        <v>80916.704</v>
       </c>
       <c r="G50" t="n">
-        <v>116577.148</v>
+        <v>82150.088</v>
       </c>
       <c r="H50" t="n">
-        <v>35618.2271066435</v>
+        <v>8843.18489533869</v>
       </c>
       <c r="I50" t="n">
-        <v>12756.8056098984</v>
+        <v>7753.56910572762</v>
       </c>
       <c r="J50" t="n">
-        <v>47847.5906094658</v>
+        <v>9514.16986203294</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L50" t="s">
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -16471,28 +16477,28 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>42</v>
       </c>
       <c r="E51" t="n">
-        <v>80916.704</v>
+        <v>121978.912</v>
       </c>
       <c r="F51" t="n">
-        <v>103990.836</v>
+        <v>120555.24</v>
       </c>
       <c r="G51" t="n">
-        <v>82150.088</v>
+        <v>121088.28</v>
       </c>
       <c r="H51" t="n">
-        <v>7753.56910572762</v>
+        <v>2248.58898249227</v>
       </c>
       <c r="I51" t="n">
-        <v>8843.18489533869</v>
+        <v>2103.89340159665</v>
       </c>
       <c r="J51" t="n">
-        <v>9514.16986203294</v>
+        <v>2164.21133347385</v>
       </c>
       <c r="K51" t="s">
         <v>18</v>
@@ -16512,28 +16518,28 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>42</v>
       </c>
       <c r="E52" t="n">
-        <v>120555.24</v>
+        <v>115222.989</v>
       </c>
       <c r="F52" t="n">
-        <v>121978.912</v>
+        <v>115222.989</v>
       </c>
       <c r="G52" t="n">
-        <v>121088.28</v>
+        <v>115222.989</v>
       </c>
       <c r="H52" t="n">
-        <v>2103.89340159665</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="I52" t="n">
-        <v>2248.58898249227</v>
+        <v>1841.65328029918</v>
       </c>
       <c r="J52" t="n">
-        <v>2164.21133347385</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="K52" t="s">
         <v>18</v>
@@ -16553,32 +16559,26 @@
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
         <v>42</v>
       </c>
-      <c r="E53" t="n">
-        <v>115222.989</v>
-      </c>
+      <c r="E53"/>
       <c r="F53" t="n">
-        <v>115222.989</v>
+        <v>125964.3616</v>
       </c>
       <c r="G53" t="n">
-        <v>115222.989</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1841.65328029918</v>
-      </c>
+        <v>121118.7384</v>
+      </c>
+      <c r="H53"/>
       <c r="I53" t="n">
-        <v>1829.92844779909</v>
+        <v>3357.45407969988</v>
       </c>
       <c r="J53" t="n">
-        <v>1829.92844779909</v>
-      </c>
-      <c r="K53" t="s">
-        <v>18</v>
-      </c>
+        <v>4945.49182104993</v>
+      </c>
+      <c r="K53"/>
       <c r="L53" t="s">
         <v>18</v>
       </c>
@@ -16599,24 +16599,24 @@
       <c r="D54" t="s">
         <v>42</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54"/>
+      <c r="F54" t="n">
         <v>125964.3616</v>
       </c>
-      <c r="F54"/>
       <c r="G54" t="n">
         <v>121118.7384</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54"/>
+      <c r="I54" t="n">
         <v>3357.45407969988</v>
       </c>
-      <c r="I54"/>
       <c r="J54" t="n">
         <v>4945.49182104993</v>
       </c>
-      <c r="K54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54"/>
+      <c r="K54"/>
+      <c r="L54" t="s">
+        <v>18</v>
+      </c>
       <c r="M54" t="s">
         <v>18</v>
       </c>
@@ -16635,19 +16635,19 @@
         <v>42</v>
       </c>
       <c r="E55" t="n">
+        <v>103990.836</v>
+      </c>
+      <c r="F55" t="n">
         <v>122184.22304</v>
-      </c>
-      <c r="F55" t="n">
-        <v>103990.836</v>
       </c>
       <c r="G55" t="n">
         <v>118714</v>
       </c>
       <c r="H55" t="n">
+        <v>8843.18489533869</v>
+      </c>
+      <c r="I55" t="n">
         <v>4575.43441632118</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8843.18489533869</v>
       </c>
       <c r="J55" t="n">
         <v>3500.21597435616</v>
@@ -16676,19 +16676,19 @@
         <v>42</v>
       </c>
       <c r="E56" t="n">
+        <v>99719.76</v>
+      </c>
+      <c r="F56" t="n">
         <v>107486.368</v>
-      </c>
-      <c r="F56" t="n">
-        <v>99719.76</v>
       </c>
       <c r="G56" t="n">
         <v>106413.183</v>
       </c>
       <c r="H56" t="n">
+        <v>2330.5712767856</v>
+      </c>
+      <c r="I56" t="n">
         <v>3045.68695756584</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2330.5712767856</v>
       </c>
       <c r="J56" t="n">
         <v>3109.25302503944</v>
@@ -16717,19 +16717,19 @@
         <v>42</v>
       </c>
       <c r="E57" t="n">
+        <v>115222.989</v>
+      </c>
+      <c r="F57" t="n">
         <v>111739.1728</v>
-      </c>
-      <c r="F57" t="n">
-        <v>115222.989</v>
       </c>
       <c r="G57" t="n">
         <v>112785.20736</v>
       </c>
       <c r="H57" t="n">
+        <v>1829.92844779909</v>
+      </c>
+      <c r="I57" t="n">
         <v>1814.56878539579</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1829.92844779909</v>
       </c>
       <c r="J57" t="n">
         <v>2107.16192585166</v>
@@ -16758,28 +16758,28 @@
         <v>42</v>
       </c>
       <c r="E58" t="n">
+        <v>135595.894</v>
+      </c>
+      <c r="F58" t="n">
         <v>108694.08</v>
-      </c>
-      <c r="F58" t="n">
-        <v>135595.894</v>
       </c>
       <c r="G58" t="n">
         <v>108979.452</v>
       </c>
       <c r="H58" t="n">
+        <v>23435.5950831547</v>
+      </c>
+      <c r="I58" t="n">
         <v>50770.0064472049</v>
-      </c>
-      <c r="I58" t="n">
-        <v>23435.5950831547</v>
       </c>
       <c r="J58" t="n">
         <v>22626.79701363</v>
       </c>
       <c r="K58" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" t="s">
         <v>16</v>
-      </c>
-      <c r="L58" t="s">
-        <v>18</v>
       </c>
       <c r="M58" t="s">
         <v>18</v>
@@ -16799,19 +16799,19 @@
         <v>42</v>
       </c>
       <c r="E59" t="n">
+        <v>156658.4905</v>
+      </c>
+      <c r="F59" t="n">
         <v>156000.15904</v>
-      </c>
-      <c r="F59" t="n">
-        <v>156658.4905</v>
       </c>
       <c r="G59" t="n">
         <v>157649.16</v>
       </c>
       <c r="H59" t="n">
+        <v>8702.67672869975</v>
+      </c>
+      <c r="I59" t="n">
         <v>8947.20074843923</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8702.67672869975</v>
       </c>
       <c r="J59" t="n">
         <v>8798.89777673188</v>
@@ -16840,19 +16840,19 @@
         <v>42</v>
       </c>
       <c r="E60" t="n">
+        <v>95053.17</v>
+      </c>
+      <c r="F60" t="n">
         <v>86659.03</v>
-      </c>
-      <c r="F60" t="n">
-        <v>95053.17</v>
       </c>
       <c r="G60" t="n">
         <v>86659.03</v>
       </c>
       <c r="H60" t="n">
+        <v>14504.7927648258</v>
+      </c>
+      <c r="I60" t="n">
         <v>8101.53512347126</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14504.7927648258</v>
       </c>
       <c r="J60" t="n">
         <v>7716.09278526725</v>
@@ -16881,19 +16881,19 @@
         <v>42</v>
       </c>
       <c r="E61" t="n">
+        <v>98530.725</v>
+      </c>
+      <c r="F61" t="n">
         <v>80916.704</v>
-      </c>
-      <c r="F61" t="n">
-        <v>98530.725</v>
       </c>
       <c r="G61" t="n">
         <v>81319.09</v>
       </c>
       <c r="H61" t="n">
+        <v>6302.68409355601</v>
+      </c>
+      <c r="I61" t="n">
         <v>4189.10142929399</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6302.68409355601</v>
       </c>
       <c r="J61" t="n">
         <v>4294.364156428</v>
@@ -16916,31 +16916,37 @@
         <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
         <v>42</v>
       </c>
       <c r="E62" t="n">
-        <v>140082.52</v>
-      </c>
-      <c r="F62"/>
+        <v>126667.838</v>
+      </c>
+      <c r="F62" t="n">
+        <v>75027.248</v>
+      </c>
       <c r="G62" t="n">
-        <v>137869.41914</v>
+        <v>75027.248</v>
       </c>
       <c r="H62" t="n">
-        <v>2370.43601654964</v>
-      </c>
-      <c r="I62"/>
+        <v>70716.9103372732</v>
+      </c>
+      <c r="I62" t="n">
+        <v>68621.3642628783</v>
+      </c>
       <c r="J62" t="n">
-        <v>3732.77786046719</v>
+        <v>54821.0922772702</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62"/>
+        <v>30</v>
+      </c>
+      <c r="L62" t="s">
+        <v>32</v>
+      </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -16951,37 +16957,37 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
         <v>42</v>
       </c>
       <c r="E63" t="n">
-        <v>75027.248</v>
+        <v>128066.344</v>
       </c>
       <c r="F63" t="n">
-        <v>126667.838</v>
+        <v>137634.93</v>
       </c>
       <c r="G63" t="n">
-        <v>75027.248</v>
+        <v>137834.116</v>
       </c>
       <c r="H63" t="n">
-        <v>68621.3642628783</v>
+        <v>9937.4268188455</v>
       </c>
       <c r="I63" t="n">
-        <v>70716.9103372732</v>
+        <v>48799.9373273605</v>
       </c>
       <c r="J63" t="n">
-        <v>54821.0922772702</v>
+        <v>63131.8234884136</v>
       </c>
       <c r="K63" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L63" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M63" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -16992,37 +16998,37 @@
         <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
         <v>42</v>
       </c>
       <c r="E64" t="n">
-        <v>137634.93</v>
+        <v>129315.219</v>
       </c>
       <c r="F64" t="n">
-        <v>128066.344</v>
+        <v>118951.428</v>
       </c>
       <c r="G64" t="n">
-        <v>137834.116</v>
+        <v>119544.998</v>
       </c>
       <c r="H64" t="n">
-        <v>48799.9373273605</v>
+        <v>7933.14150963542</v>
       </c>
       <c r="I64" t="n">
-        <v>9937.4268188455</v>
+        <v>10525.5474188639</v>
       </c>
       <c r="J64" t="n">
-        <v>63131.8234884136</v>
+        <v>12155.1133818182</v>
       </c>
       <c r="K64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L64" t="s">
         <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -17033,28 +17039,28 @@
         <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>42</v>
       </c>
       <c r="E65" t="n">
-        <v>118951.428</v>
+        <v>131517.822</v>
       </c>
       <c r="F65" t="n">
-        <v>129315.219</v>
+        <v>129828.72</v>
       </c>
       <c r="G65" t="n">
-        <v>119544.998</v>
+        <v>130229.258</v>
       </c>
       <c r="H65" t="n">
-        <v>10525.5474188639</v>
+        <v>2659.93321186545</v>
       </c>
       <c r="I65" t="n">
-        <v>7933.14150963542</v>
+        <v>3072.44619562329</v>
       </c>
       <c r="J65" t="n">
-        <v>12155.1133818182</v>
+        <v>2930.76839293921</v>
       </c>
       <c r="K65" t="s">
         <v>18</v>
@@ -17074,28 +17080,28 @@
         <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
         <v>42</v>
       </c>
       <c r="E66" t="n">
-        <v>129828.72</v>
+        <v>129478.786</v>
       </c>
       <c r="F66" t="n">
-        <v>131517.822</v>
+        <v>129478.786</v>
       </c>
       <c r="G66" t="n">
-        <v>130229.258</v>
+        <v>129478.786</v>
       </c>
       <c r="H66" t="n">
-        <v>3072.44619562329</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="I66" t="n">
-        <v>2659.93321186545</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="J66" t="n">
-        <v>2930.76839293921</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="K66" t="s">
         <v>18</v>
@@ -17115,32 +17121,26 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s">
         <v>42</v>
       </c>
-      <c r="E67" t="n">
-        <v>129478.786</v>
-      </c>
+      <c r="E67"/>
       <c r="F67" t="n">
-        <v>129478.786</v>
+        <v>140082.52</v>
       </c>
       <c r="G67" t="n">
-        <v>129478.786</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2650.9311255005</v>
-      </c>
+        <v>137869.41914</v>
+      </c>
+      <c r="H67"/>
       <c r="I67" t="n">
-        <v>2650.9311255005</v>
+        <v>2370.43601654964</v>
       </c>
       <c r="J67" t="n">
-        <v>2650.9311255005</v>
-      </c>
-      <c r="K67" t="s">
-        <v>18</v>
-      </c>
+        <v>3732.77786046719</v>
+      </c>
+      <c r="K67"/>
       <c r="L67" t="s">
         <v>18</v>
       </c>
@@ -17161,24 +17161,24 @@
       <c r="D68" t="s">
         <v>42</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68"/>
+      <c r="F68" t="n">
         <v>140082.52</v>
       </c>
-      <c r="F68"/>
       <c r="G68" t="n">
         <v>137869.41914</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68"/>
+      <c r="I68" t="n">
         <v>2370.43601654964</v>
       </c>
-      <c r="I68"/>
       <c r="J68" t="n">
         <v>3732.77786046719</v>
       </c>
-      <c r="K68" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68"/>
+      <c r="K68"/>
+      <c r="L68" t="s">
+        <v>18</v>
+      </c>
       <c r="M68" t="s">
         <v>18</v>
       </c>
@@ -17197,19 +17197,19 @@
         <v>42</v>
       </c>
       <c r="E69" t="n">
+        <v>129315.219</v>
+      </c>
+      <c r="F69" t="n">
         <v>138886.88</v>
-      </c>
-      <c r="F69" t="n">
-        <v>129315.219</v>
       </c>
       <c r="G69" t="n">
         <v>136656.19272</v>
       </c>
       <c r="H69" t="n">
+        <v>7933.14150963542</v>
+      </c>
+      <c r="I69" t="n">
         <v>2853.77532573269</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7933.14150963542</v>
       </c>
       <c r="J69" t="n">
         <v>3377.35570136336</v>
@@ -17238,19 +17238,19 @@
         <v>42</v>
       </c>
       <c r="E70" t="n">
+        <v>123462.56</v>
+      </c>
+      <c r="F70" t="n">
         <v>128459.268</v>
-      </c>
-      <c r="F70" t="n">
-        <v>123462.56</v>
       </c>
       <c r="G70" t="n">
         <v>128211.12</v>
       </c>
       <c r="H70" t="n">
+        <v>5374.13798409126</v>
+      </c>
+      <c r="I70" t="n">
         <v>3828.75050954293</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5374.13798409126</v>
       </c>
       <c r="J70" t="n">
         <v>3752.58986133942</v>
@@ -17279,19 +17279,19 @@
         <v>42</v>
       </c>
       <c r="E71" t="n">
+        <v>129478.786</v>
+      </c>
+      <c r="F71" t="n">
         <v>125836.84</v>
-      </c>
-      <c r="F71" t="n">
-        <v>129478.786</v>
       </c>
       <c r="G71" t="n">
         <v>126085.1328</v>
       </c>
       <c r="H71" t="n">
+        <v>2650.9311255005</v>
+      </c>
+      <c r="I71" t="n">
         <v>2553.1797493262</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2650.9311255005</v>
       </c>
       <c r="J71" t="n">
         <v>2625.05026342913</v>

--- a/median-income-hhsize/data/median-income-by-re-hhsize.xlsx
+++ b/median-income-hhsize/data/median-income-by-re-hhsize.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Region</t>
   </si>
   <si>
-    <t xml:space="preserve">American Indian or Alaskan Native alone</t>
+    <t xml:space="preserve">American Indian or Alaskan Native</t>
   </si>
   <si>
     <t xml:space="preserve">detail</t>
@@ -76,43 +76,43 @@
     <t xml:space="preserve">single-person</t>
   </si>
   <si>
-    <t xml:space="preserve">Asian alone</t>
+    <t xml:space="preserve">Asian</t>
   </si>
   <si>
     <t xml:space="preserve">good</t>
   </si>
   <si>
-    <t xml:space="preserve">Black or African American alone</t>
+    <t xml:space="preserve">Black or African American</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
-    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
+    <t xml:space="preserve">Native Hawaiian or Pacific Islander</t>
   </si>
   <si>
-    <t xml:space="preserve">Some Other Race alone</t>
+    <t xml:space="preserve">Some Other Race</t>
   </si>
   <si>
     <t xml:space="preserve">Two or More Races</t>
   </si>
   <si>
-    <t xml:space="preserve">White alone</t>
+    <t xml:space="preserve">White</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace PSRC</t>
+    <t xml:space="preserve">Multirace PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race PSRC</t>
+    <t xml:space="preserve">Single race PSRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Single race Harvard</t>
+    <t xml:space="preserve">Single race Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">Total People of color</t>
+    <t xml:space="preserve">People of color</t>
   </si>
   <si>
     <t xml:space="preserve">King</t>
@@ -136,31 +136,31 @@
     <t xml:space="preserve">multi-person</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian</t>
+    <t xml:space="preserve">MNAW</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. Asian, white</t>
+    <t xml:space="preserve">Multirace incl. Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial incl. white</t>
+    <t xml:space="preserve">Multirace incl. Asian, white</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not Asian or white</t>
+    <t xml:space="preserve">Multirace incl. white</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Multirace Harvard</t>
+    <t xml:space="preserve">Multirace Harvard</t>
   </si>
   <si>
     <t xml:space="preserve">dichot</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiracial not white</t>
+    <t xml:space="preserve">MNW</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Races</t>
+    <t xml:space="preserve">Multirace</t>
   </si>
 </sst>
 </file>
@@ -3865,17 +3865,17 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>140840.9775</v>
+        <v>119396.055</v>
       </c>
       <c r="G11" t="n">
-        <v>135799.7976</v>
+        <v>110122.575</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>5898.46796957727</v>
+        <v>4710.37812679202</v>
       </c>
       <c r="J11" t="n">
-        <v>8157.7013376749</v>
+        <v>8095.95197053973</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="s">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>181639.8848</v>
+        <v>140840.9775</v>
       </c>
       <c r="G12" t="n">
-        <v>182331.744</v>
+        <v>135799.7976</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>5531.44262432623</v>
+        <v>5898.46796957727</v>
       </c>
       <c r="J12" t="n">
-        <v>5282.99897805594</v>
+        <v>8157.7013376749</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="s">
@@ -3941,17 +3941,17 @@
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
-        <v>142732.52</v>
+        <v>181639.8848</v>
       </c>
       <c r="G13" t="n">
-        <v>137233.384</v>
+        <v>182331.744</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>3214.69867679675</v>
+        <v>5531.44262432623</v>
       </c>
       <c r="J13" t="n">
-        <v>3056.4370514043</v>
+        <v>5282.99897805594</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="s">
@@ -3979,17 +3979,17 @@
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
-        <v>119396.055</v>
+        <v>142732.52</v>
       </c>
       <c r="G14" t="n">
-        <v>110122.575</v>
+        <v>137233.384</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="n">
-        <v>4710.37812679202</v>
+        <v>3214.69867679675</v>
       </c>
       <c r="J14" t="n">
-        <v>8095.95197053973</v>
+        <v>3056.4370514043</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="s">
@@ -4627,17 +4627,17 @@
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
-        <v>154456.977</v>
+        <v>126809.76</v>
       </c>
       <c r="G29" t="n">
-        <v>149869.146</v>
+        <v>113965.44</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>11671.4010511167</v>
+        <v>13279.6880812759</v>
       </c>
       <c r="J29" t="n">
-        <v>14252.9722939988</v>
+        <v>15054.4025212806</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="s">
@@ -4665,17 +4665,17 @@
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>210020.708</v>
+        <v>154456.977</v>
       </c>
       <c r="G30" t="n">
-        <v>210081.298</v>
+        <v>149869.146</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>9268.32381610211</v>
+        <v>11671.4010511167</v>
       </c>
       <c r="J30" t="n">
-        <v>9406.80798793569</v>
+        <v>14252.9722939988</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="s">
@@ -4703,17 +4703,17 @@
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
-        <v>162796.2</v>
+        <v>210020.708</v>
       </c>
       <c r="G31" t="n">
-        <v>157005.772</v>
+        <v>210081.298</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>5210.14226054</v>
+        <v>9268.32381610211</v>
       </c>
       <c r="J31" t="n">
-        <v>3611.42712030773</v>
+        <v>9406.80798793569</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="s">
@@ -4741,17 +4741,17 @@
       </c>
       <c r="E32"/>
       <c r="F32" t="n">
-        <v>126809.76</v>
+        <v>162796.2</v>
       </c>
       <c r="G32" t="n">
-        <v>113965.44</v>
+        <v>157005.772</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>13279.6880812759</v>
+        <v>5210.14226054</v>
       </c>
       <c r="J32" t="n">
-        <v>15054.4025212806</v>
+        <v>3611.42712030773</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="s">
@@ -5389,24 +5389,24 @@
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>124756.6496</v>
+        <v>89717.584</v>
       </c>
       <c r="G47" t="n">
-        <v>100574.5008</v>
+        <v>83461.32</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>60316.7915229755</v>
+        <v>21106.3659822485</v>
       </c>
       <c r="J47" t="n">
-        <v>36290.045118852</v>
+        <v>17655.4342195104</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N47" t="s">
         <v>38</v>
@@ -5427,24 +5427,24 @@
       </c>
       <c r="E48"/>
       <c r="F48" t="n">
-        <v>128066.344</v>
+        <v>124756.6496</v>
       </c>
       <c r="G48" t="n">
-        <v>128066.344</v>
+        <v>100574.5008</v>
       </c>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>11286.4100202151</v>
+        <v>60316.7915229755</v>
       </c>
       <c r="J48" t="n">
-        <v>12150.6809649802</v>
+        <v>36290.045118852</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N48" t="s">
         <v>38</v>
@@ -5465,17 +5465,17 @@
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
-        <v>124605.48996</v>
+        <v>128066.344</v>
       </c>
       <c r="G49" t="n">
-        <v>122342.16</v>
+        <v>128066.344</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="n">
-        <v>7273.04319156673</v>
+        <v>11286.4100202151</v>
       </c>
       <c r="J49" t="n">
-        <v>6818.74292609626</v>
+        <v>12150.6809649802</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="s">
@@ -5503,17 +5503,17 @@
       </c>
       <c r="E50"/>
       <c r="F50" t="n">
-        <v>89717.584</v>
+        <v>124605.48996</v>
       </c>
       <c r="G50" t="n">
-        <v>83461.32</v>
+        <v>122342.16</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="n">
-        <v>21106.3659822485</v>
+        <v>7273.04319156673</v>
       </c>
       <c r="J50" t="n">
-        <v>17655.4342195104</v>
+        <v>6818.74292609626</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="s">
@@ -6151,17 +6151,17 @@
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
-        <v>122342.16</v>
+        <v>115476.7712</v>
       </c>
       <c r="G65" t="n">
-        <v>112778.3</v>
+        <v>104326.65</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>12615.9157730295</v>
+        <v>8443.58489337815</v>
       </c>
       <c r="J65" t="n">
-        <v>20874.7028658815</v>
+        <v>13519.2005684025</v>
       </c>
       <c r="K65"/>
       <c r="L65" t="s">
@@ -6189,17 +6189,17 @@
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
-        <v>143586.2484</v>
+        <v>122342.16</v>
       </c>
       <c r="G66" t="n">
-        <v>142594.66</v>
+        <v>112778.3</v>
       </c>
       <c r="H66"/>
       <c r="I66" t="n">
-        <v>9059.30826934687</v>
+        <v>12615.9157730295</v>
       </c>
       <c r="J66" t="n">
-        <v>9217.00271115485</v>
+        <v>20874.7028658815</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="s">
@@ -6227,17 +6227,17 @@
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
-        <v>124381.196</v>
+        <v>143586.2484</v>
       </c>
       <c r="G67" t="n">
-        <v>119487.5096</v>
+        <v>142594.66</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>5548.46485584311</v>
+        <v>9059.30826934687</v>
       </c>
       <c r="J67" t="n">
-        <v>5682.16595569948</v>
+        <v>9217.00271115485</v>
       </c>
       <c r="K67"/>
       <c r="L67" t="s">
@@ -6265,17 +6265,17 @@
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
-        <v>115476.7712</v>
+        <v>124381.196</v>
       </c>
       <c r="G68" t="n">
-        <v>104326.65</v>
+        <v>119487.5096</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>8443.58489337815</v>
+        <v>5548.46485584311</v>
       </c>
       <c r="J68" t="n">
-        <v>13519.2005684025</v>
+        <v>5682.16595569948</v>
       </c>
       <c r="K68"/>
       <c r="L68" t="s">
@@ -6913,17 +6913,17 @@
       </c>
       <c r="E83"/>
       <c r="F83" t="n">
-        <v>140082.52</v>
+        <v>120795.35424</v>
       </c>
       <c r="G83" t="n">
-        <v>138162.2528</v>
+        <v>120795.35424</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>14754.7142184667</v>
+        <v>10941.8075530846</v>
       </c>
       <c r="J83" t="n">
-        <v>14613.8334319742</v>
+        <v>11811.7006629493</v>
       </c>
       <c r="K83"/>
       <c r="L83" t="s">
@@ -6951,17 +6951,17 @@
       </c>
       <c r="E84"/>
       <c r="F84" t="n">
-        <v>158535.049</v>
+        <v>140082.52</v>
       </c>
       <c r="G84" t="n">
-        <v>161695.5548</v>
+        <v>138162.2528</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>11170.355008284</v>
+        <v>14754.7142184667</v>
       </c>
       <c r="J84" t="n">
-        <v>13235.2415473843</v>
+        <v>14613.8334319742</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="s">
@@ -6989,17 +6989,17 @@
       </c>
       <c r="E85"/>
       <c r="F85" t="n">
-        <v>139102.2</v>
+        <v>158535.049</v>
       </c>
       <c r="G85" t="n">
-        <v>134465.46</v>
+        <v>161695.5548</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>4776.38938367235</v>
+        <v>11170.355008284</v>
       </c>
       <c r="J85" t="n">
-        <v>4876.52608549957</v>
+        <v>13235.2415473843</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="s">
@@ -7027,17 +7027,17 @@
       </c>
       <c r="E86"/>
       <c r="F86" t="n">
-        <v>120795.35424</v>
+        <v>139102.2</v>
       </c>
       <c r="G86" t="n">
-        <v>120795.35424</v>
+        <v>134465.46</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>10941.8075530846</v>
+        <v>4776.38938367235</v>
       </c>
       <c r="J86" t="n">
-        <v>11811.7006629493</v>
+        <v>4876.52608549957</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="s">
@@ -10644,24 +10644,24 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>151943.12</v>
+        <v>127439.75</v>
       </c>
       <c r="G11" t="n">
-        <v>146978.5504</v>
+        <v>121322.642</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>2424.27453418516</v>
+        <v>3616.45776563897</v>
       </c>
       <c r="J11" t="n">
-        <v>2466.30163200838</v>
+        <v>4184.43722363556</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="s">
@@ -10682,24 +10682,24 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
-        <v>127439.75</v>
+        <v>151943.12</v>
       </c>
       <c r="G12" t="n">
-        <v>121322.642</v>
+        <v>146978.5504</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>3616.45776563897</v>
+        <v>2424.27453418516</v>
       </c>
       <c r="J12" t="n">
-        <v>4184.43722363556</v>
+        <v>2466.30163200838</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="s">
@@ -11330,24 +11330,24 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>176376.614</v>
+        <v>135799.7976</v>
       </c>
       <c r="G27" t="n">
-        <v>173318.06</v>
+        <v>129274.8824</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="n">
-        <v>3905.00667229531</v>
+        <v>7893.34572076315</v>
       </c>
       <c r="J27" t="n">
-        <v>3719.69697294347</v>
+        <v>4741.50341510183</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="s">
@@ -11368,24 +11368,24 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
-        <v>135799.7976</v>
+        <v>176376.614</v>
       </c>
       <c r="G28" t="n">
-        <v>129274.8824</v>
+        <v>173318.06</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>7893.34572076315</v>
+        <v>3905.00667229531</v>
       </c>
       <c r="J28" t="n">
-        <v>4741.50341510183</v>
+        <v>3719.69697294347</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="s">
@@ -12016,24 +12016,24 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="n">
-        <v>125539.7355</v>
+        <v>94971.2</v>
       </c>
       <c r="G43" t="n">
-        <v>124605.48996</v>
+        <v>92269.1968</v>
       </c>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>5964.11235258241</v>
+        <v>20572.5644878137</v>
       </c>
       <c r="J43" t="n">
-        <v>5287.60700133882</v>
+        <v>11252.6838684979</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="s">
@@ -12054,24 +12054,24 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
-        <v>94971.2</v>
+        <v>125539.7355</v>
       </c>
       <c r="G44" t="n">
-        <v>92269.1968</v>
+        <v>124605.48996</v>
       </c>
       <c r="H44"/>
       <c r="I44" t="n">
-        <v>20572.5644878137</v>
+        <v>5964.11235258241</v>
       </c>
       <c r="J44" t="n">
-        <v>11252.6838684979</v>
+        <v>5287.60700133882</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="s">
@@ -12702,24 +12702,24 @@
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
         <v>44</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
-        <v>127510.35</v>
+        <v>117807.97155</v>
       </c>
       <c r="G59" t="n">
-        <v>124810.42</v>
+        <v>107890.46828</v>
       </c>
       <c r="H59"/>
       <c r="I59" t="n">
-        <v>3842.17296623472</v>
+        <v>7203.52450750144</v>
       </c>
       <c r="J59" t="n">
-        <v>4550.57762723557</v>
+        <v>11763.2228693812</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="s">
@@ -12740,24 +12740,24 @@
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
         <v>44</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="n">
-        <v>117807.97155</v>
+        <v>127510.35</v>
       </c>
       <c r="G60" t="n">
-        <v>107890.46828</v>
+        <v>124810.42</v>
       </c>
       <c r="H60"/>
       <c r="I60" t="n">
-        <v>7203.52450750144</v>
+        <v>3842.17296623472</v>
       </c>
       <c r="J60" t="n">
-        <v>11763.2228693812</v>
+        <v>4550.57762723557</v>
       </c>
       <c r="K60"/>
       <c r="L60" t="s">
@@ -13388,24 +13388,24 @@
         <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
         <v>44</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
-        <v>142456.8</v>
+        <v>125771.5725</v>
       </c>
       <c r="G75" t="n">
-        <v>139797.711</v>
+        <v>124810.42</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>2399.1500464149</v>
+        <v>5845.09900412048</v>
       </c>
       <c r="J75" t="n">
-        <v>2558.74058501535</v>
+        <v>5567.97138771177</v>
       </c>
       <c r="K75"/>
       <c r="L75" t="s">
@@ -13426,24 +13426,24 @@
         <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
         <v>44</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
-        <v>125771.5725</v>
+        <v>142456.8</v>
       </c>
       <c r="G76" t="n">
-        <v>124810.42</v>
+        <v>139797.711</v>
       </c>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>5845.09900412048</v>
+        <v>2399.1500464149</v>
       </c>
       <c r="J76" t="n">
-        <v>5567.97138771177</v>
+        <v>2558.74058501535</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="s">

--- a/median-income-hhsize/data/median-income-by-re-hhsize.xlsx
+++ b/median-income-hhsize/data/median-income-by-re-hhsize.xlsx
@@ -94,13 +94,13 @@
     <t xml:space="preserve">Some Other Race</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two or More Races</t>
   </si>
   <si>
     <t xml:space="preserve">White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Multirace PSRC</t>
@@ -814,22 +814,22 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="F8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="G8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3125.25308491457</v>
+        <v>1264.48170014687</v>
       </c>
       <c r="I8" t="n">
-        <v>3125.25308491457</v>
+        <v>1028.22535144888</v>
       </c>
       <c r="J8" t="n">
-        <v>3125.25308491457</v>
+        <v>1264.48170014687</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -858,22 +858,22 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>57487.0912</v>
+        <v>54191.89875</v>
       </c>
       <c r="F9" t="n">
-        <v>57521.324</v>
+        <v>54191.89875</v>
       </c>
       <c r="G9" t="n">
-        <v>57487.0912</v>
+        <v>54191.89875</v>
       </c>
       <c r="H9" t="n">
-        <v>1253.34432695792</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="I9" t="n">
-        <v>1209.8527365922</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="J9" t="n">
-        <v>1253.34432695792</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -902,22 +902,22 @@
         <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>57959.25</v>
+        <v>57487.0912</v>
       </c>
       <c r="F10" t="n">
-        <v>57959.25</v>
+        <v>57521.324</v>
       </c>
       <c r="G10" t="n">
-        <v>57959.25</v>
+        <v>57487.0912</v>
       </c>
       <c r="H10" t="n">
-        <v>1264.48170014687</v>
+        <v>1253.34432695792</v>
       </c>
       <c r="I10" t="n">
-        <v>1028.22535144888</v>
+        <v>1209.8527365922</v>
       </c>
       <c r="J10" t="n">
-        <v>1264.48170014687</v>
+        <v>1253.34432695792</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -1386,22 +1386,22 @@
         <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>55350.708</v>
+        <v>64105.56</v>
       </c>
       <c r="F21" t="n">
-        <v>55350.708</v>
+        <v>64331.5858</v>
       </c>
       <c r="G21" t="n">
-        <v>55350.708</v>
+        <v>64105.56</v>
       </c>
       <c r="H21" t="n">
-        <v>5917.02153301515</v>
+        <v>2214.60709266114</v>
       </c>
       <c r="I21" t="n">
-        <v>5917.02153301515</v>
+        <v>2114.88132442924</v>
       </c>
       <c r="J21" t="n">
-        <v>5917.02153301515</v>
+        <v>2214.60709266114</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -1430,22 +1430,22 @@
         <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>64817.844</v>
+        <v>55350.708</v>
       </c>
       <c r="F22" t="n">
-        <v>64854.1344</v>
+        <v>55350.708</v>
       </c>
       <c r="G22" t="n">
-        <v>64817.844</v>
+        <v>55350.708</v>
       </c>
       <c r="H22" t="n">
-        <v>2162.62587050882</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="I22" t="n">
-        <v>2025.48263815248</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="J22" t="n">
-        <v>2162.62587050882</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
@@ -1474,22 +1474,22 @@
         <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>64105.56</v>
+        <v>64817.844</v>
       </c>
       <c r="F23" t="n">
-        <v>64331.5858</v>
+        <v>64854.1344</v>
       </c>
       <c r="G23" t="n">
-        <v>64105.56</v>
+        <v>64817.844</v>
       </c>
       <c r="H23" t="n">
-        <v>2214.60709266114</v>
+        <v>2162.62587050882</v>
       </c>
       <c r="I23" t="n">
-        <v>2114.88132442924</v>
+        <v>2025.48263815248</v>
       </c>
       <c r="J23" t="n">
-        <v>2214.60709266114</v>
+        <v>2162.62587050882</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -1958,31 +1958,31 @@
         <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>62730.8024</v>
+        <v>49147.596</v>
       </c>
       <c r="F34" t="n">
-        <v>62730.8024</v>
+        <v>49171.35314</v>
       </c>
       <c r="G34" t="n">
-        <v>62730.8024</v>
+        <v>49147.596</v>
       </c>
       <c r="H34" t="n">
-        <v>20746.1460009376</v>
+        <v>2717.26132515061</v>
       </c>
       <c r="I34" t="n">
-        <v>20746.1460009376</v>
+        <v>2734.44430974366</v>
       </c>
       <c r="J34" t="n">
-        <v>20746.1460009376</v>
+        <v>2717.26132515061</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N34" t="s">
         <v>18</v>
@@ -2002,31 +2002,31 @@
         <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="F35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="G35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="H35" t="n">
-        <v>2917.94605346304</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="I35" t="n">
-        <v>2962.98381458141</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="J35" t="n">
-        <v>2917.94605346304</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N35" t="s">
         <v>18</v>
@@ -2046,22 +2046,22 @@
         <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>49147.596</v>
+        <v>49171.35314</v>
       </c>
       <c r="F36" t="n">
         <v>49171.35314</v>
       </c>
       <c r="G36" t="n">
-        <v>49147.596</v>
+        <v>49171.35314</v>
       </c>
       <c r="H36" t="n">
-        <v>2717.26132515061</v>
+        <v>2917.94605346304</v>
       </c>
       <c r="I36" t="n">
-        <v>2734.44430974366</v>
+        <v>2962.98381458141</v>
       </c>
       <c r="J36" t="n">
-        <v>2717.26132515061</v>
+        <v>2917.94605346304</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
@@ -2530,22 +2530,22 @@
         <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="F47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="G47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="H47" t="n">
-        <v>9859.83185896309</v>
+        <v>1900.05386102308</v>
       </c>
       <c r="I47" t="n">
-        <v>9859.83185896309</v>
+        <v>1880.39830998911</v>
       </c>
       <c r="J47" t="n">
-        <v>9859.83185896309</v>
+        <v>1900.05386102308</v>
       </c>
       <c r="K47" t="s">
         <v>20</v>
@@ -2574,22 +2574,22 @@
         <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>50683.8836</v>
+        <v>53322.51</v>
       </c>
       <c r="F48" t="n">
-        <v>50723.904</v>
+        <v>53322.51</v>
       </c>
       <c r="G48" t="n">
-        <v>50683.8836</v>
+        <v>53322.51</v>
       </c>
       <c r="H48" t="n">
-        <v>2822.14856241887</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="I48" t="n">
-        <v>2842.41542380844</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="J48" t="n">
-        <v>2822.14856241887</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
@@ -2618,22 +2618,22 @@
         <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>49844.955</v>
+        <v>50683.8836</v>
       </c>
       <c r="F49" t="n">
-        <v>49844.955</v>
+        <v>50723.904</v>
       </c>
       <c r="G49" t="n">
-        <v>49844.955</v>
+        <v>50683.8836</v>
       </c>
       <c r="H49" t="n">
-        <v>1900.05386102308</v>
+        <v>2822.14856241887</v>
       </c>
       <c r="I49" t="n">
-        <v>1880.39830998911</v>
+        <v>2842.41542380844</v>
       </c>
       <c r="J49" t="n">
-        <v>1900.05386102308</v>
+        <v>2822.14856241887</v>
       </c>
       <c r="K49" t="s">
         <v>20</v>
@@ -3102,22 +3102,22 @@
         <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>48936.864</v>
+        <v>50975.9</v>
       </c>
       <c r="F60" t="n">
-        <v>48936.864</v>
+        <v>51004.14</v>
       </c>
       <c r="G60" t="n">
-        <v>48936.864</v>
+        <v>50975.9</v>
       </c>
       <c r="H60" t="n">
-        <v>8412.2346187217</v>
+        <v>2566.40103174919</v>
       </c>
       <c r="I60" t="n">
-        <v>8412.2346187217</v>
+        <v>2623.1295232966</v>
       </c>
       <c r="J60" t="n">
-        <v>8412.2346187217</v>
+        <v>2566.40103174919</v>
       </c>
       <c r="K60" t="s">
         <v>20</v>
@@ -3146,22 +3146,22 @@
         <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="F61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="G61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="H61" t="n">
-        <v>3326.3870604713</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="I61" t="n">
-        <v>3295.86949196496</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="J61" t="n">
-        <v>3326.3870604713</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="K61" t="s">
         <v>20</v>
@@ -3193,19 +3193,19 @@
         <v>50975.9</v>
       </c>
       <c r="F62" t="n">
-        <v>51004.14</v>
+        <v>50975.9</v>
       </c>
       <c r="G62" t="n">
         <v>50975.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2566.40103174919</v>
+        <v>3326.3870604713</v>
       </c>
       <c r="I62" t="n">
-        <v>2623.1295232966</v>
+        <v>3295.86949196496</v>
       </c>
       <c r="J62" t="n">
-        <v>2566.40103174919</v>
+        <v>3326.3870604713</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
@@ -3732,22 +3732,22 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>126809.76</v>
+        <v>136521.1</v>
       </c>
       <c r="F8" t="n">
-        <v>100849.095</v>
+        <v>136521.1</v>
       </c>
       <c r="G8" t="n">
-        <v>107486.368</v>
+        <v>136521.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4332.25277201833</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="I8" t="n">
-        <v>6428.32084072217</v>
+        <v>1085.28363716262</v>
       </c>
       <c r="J8" t="n">
-        <v>8227.9137695208</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -3776,22 +3776,22 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>142732.52</v>
+        <v>126809.76</v>
       </c>
       <c r="F9" t="n">
-        <v>140840.9775</v>
+        <v>100849.095</v>
       </c>
       <c r="G9" t="n">
-        <v>141652.407</v>
+        <v>107486.368</v>
       </c>
       <c r="H9" t="n">
-        <v>1428.63578540444</v>
+        <v>4332.25277201833</v>
       </c>
       <c r="I9" t="n">
-        <v>1479.34869364543</v>
+        <v>6428.32084072217</v>
       </c>
       <c r="J9" t="n">
-        <v>1460.92572429665</v>
+        <v>8227.9137695208</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -3820,22 +3820,22 @@
         <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>136521.1</v>
+        <v>142732.52</v>
       </c>
       <c r="F10" t="n">
-        <v>136521.1</v>
+        <v>140840.9775</v>
       </c>
       <c r="G10" t="n">
-        <v>136521.1</v>
+        <v>141652.407</v>
       </c>
       <c r="H10" t="n">
-        <v>1066.12046660227</v>
+        <v>1428.63578540444</v>
       </c>
       <c r="I10" t="n">
-        <v>1085.28363716262</v>
+        <v>1479.34869364543</v>
       </c>
       <c r="J10" t="n">
-        <v>1066.12046660227</v>
+        <v>1460.92572429665</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -4494,22 +4494,22 @@
         <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>142834.4718</v>
+        <v>156489.975</v>
       </c>
       <c r="F26" t="n">
-        <v>109088.426</v>
+        <v>156489.975</v>
       </c>
       <c r="G26" t="n">
-        <v>122393.1359</v>
+        <v>156489.975</v>
       </c>
       <c r="H26" t="n">
-        <v>10577.2385772801</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="I26" t="n">
-        <v>12096.2742091487</v>
+        <v>1788.75431262822</v>
       </c>
       <c r="J26" t="n">
-        <v>20177.7621517745</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
@@ -4538,22 +4538,22 @@
         <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>168220.47</v>
+        <v>142834.4718</v>
       </c>
       <c r="F27" t="n">
-        <v>165012.46</v>
+        <v>109088.426</v>
       </c>
       <c r="G27" t="n">
-        <v>165943.5932</v>
+        <v>122393.1359</v>
       </c>
       <c r="H27" t="n">
-        <v>2504.44178656926</v>
+        <v>10577.2385772801</v>
       </c>
       <c r="I27" t="n">
-        <v>2845.95886728038</v>
+        <v>12096.2742091487</v>
       </c>
       <c r="J27" t="n">
-        <v>2986.07009140882</v>
+        <v>20177.7621517745</v>
       </c>
       <c r="K27" t="s">
         <v>20</v>
@@ -4582,22 +4582,22 @@
         <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>156489.975</v>
+        <v>168220.47</v>
       </c>
       <c r="F28" t="n">
-        <v>156489.975</v>
+        <v>165012.46</v>
       </c>
       <c r="G28" t="n">
-        <v>156489.975</v>
+        <v>165943.5932</v>
       </c>
       <c r="H28" t="n">
-        <v>1800.43590264081</v>
+        <v>2504.44178656926</v>
       </c>
       <c r="I28" t="n">
-        <v>1788.75431262822</v>
+        <v>2845.95886728038</v>
       </c>
       <c r="J28" t="n">
-        <v>1800.43590264081</v>
+        <v>2986.07009140882</v>
       </c>
       <c r="K28" t="s">
         <v>20</v>
@@ -5256,22 +5256,22 @@
         <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>94815.174</v>
+        <v>118298.572</v>
       </c>
       <c r="F44" t="n">
-        <v>94937.2515</v>
+        <v>118298.572</v>
       </c>
       <c r="G44" t="n">
-        <v>95507.104</v>
+        <v>118298.572</v>
       </c>
       <c r="H44" t="n">
-        <v>6342.65022080927</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="I44" t="n">
-        <v>14638.3239283411</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="J44" t="n">
-        <v>12435.8630344971</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="K44" t="s">
         <v>20</v>
@@ -5300,22 +5300,22 @@
         <v>16</v>
       </c>
       <c r="E45" t="n">
-        <v>121598.5065</v>
+        <v>94815.174</v>
       </c>
       <c r="F45" t="n">
-        <v>120771.2</v>
+        <v>94937.2515</v>
       </c>
       <c r="G45" t="n">
-        <v>121088.28</v>
+        <v>95507.104</v>
       </c>
       <c r="H45" t="n">
-        <v>3029.87727404456</v>
+        <v>6342.65022080927</v>
       </c>
       <c r="I45" t="n">
-        <v>3502.54364546422</v>
+        <v>14638.3239283411</v>
       </c>
       <c r="J45" t="n">
-        <v>3564.59376476758</v>
+        <v>12435.8630344971</v>
       </c>
       <c r="K45" t="s">
         <v>20</v>
@@ -5344,22 +5344,22 @@
         <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>118298.572</v>
+        <v>121598.5065</v>
       </c>
       <c r="F46" t="n">
-        <v>118298.572</v>
+        <v>120771.2</v>
       </c>
       <c r="G46" t="n">
-        <v>118298.572</v>
+        <v>121088.28</v>
       </c>
       <c r="H46" t="n">
-        <v>3383.90722201948</v>
+        <v>3029.87727404456</v>
       </c>
       <c r="I46" t="n">
-        <v>3383.90722201948</v>
+        <v>3502.54364546422</v>
       </c>
       <c r="J46" t="n">
-        <v>3383.90722201948</v>
+        <v>3564.59376476758</v>
       </c>
       <c r="K46" t="s">
         <v>20</v>
@@ -6018,22 +6018,22 @@
         <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>103990.836</v>
+        <v>115222.989</v>
       </c>
       <c r="F62" t="n">
-        <v>80916.704</v>
+        <v>115222.989</v>
       </c>
       <c r="G62" t="n">
-        <v>82150.088</v>
+        <v>115222.989</v>
       </c>
       <c r="H62" t="n">
-        <v>8843.18489533869</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="I62" t="n">
-        <v>7753.56910572762</v>
+        <v>1841.65328029918</v>
       </c>
       <c r="J62" t="n">
-        <v>9514.16986203294</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
@@ -6062,22 +6062,22 @@
         <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>121978.912</v>
+        <v>103990.836</v>
       </c>
       <c r="F63" t="n">
-        <v>120555.24</v>
+        <v>80916.704</v>
       </c>
       <c r="G63" t="n">
-        <v>121088.28</v>
+        <v>82150.088</v>
       </c>
       <c r="H63" t="n">
-        <v>2248.58898249227</v>
+        <v>8843.18489533869</v>
       </c>
       <c r="I63" t="n">
-        <v>2103.89340159665</v>
+        <v>7753.56910572762</v>
       </c>
       <c r="J63" t="n">
-        <v>2164.21133347385</v>
+        <v>9514.16986203294</v>
       </c>
       <c r="K63" t="s">
         <v>20</v>
@@ -6106,22 +6106,22 @@
         <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>115222.989</v>
+        <v>121978.912</v>
       </c>
       <c r="F64" t="n">
-        <v>115222.989</v>
+        <v>120555.24</v>
       </c>
       <c r="G64" t="n">
-        <v>115222.989</v>
+        <v>121088.28</v>
       </c>
       <c r="H64" t="n">
-        <v>1829.92844779909</v>
+        <v>2248.58898249227</v>
       </c>
       <c r="I64" t="n">
-        <v>1841.65328029918</v>
+        <v>2103.89340159665</v>
       </c>
       <c r="J64" t="n">
-        <v>1829.92844779909</v>
+        <v>2164.21133347385</v>
       </c>
       <c r="K64" t="s">
         <v>20</v>
@@ -6780,22 +6780,22 @@
         <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>129315.219</v>
+        <v>129478.786</v>
       </c>
       <c r="F80" t="n">
-        <v>118951.428</v>
+        <v>129478.786</v>
       </c>
       <c r="G80" t="n">
-        <v>119544.998</v>
+        <v>129478.786</v>
       </c>
       <c r="H80" t="n">
-        <v>7933.14150963542</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="I80" t="n">
-        <v>10525.5474188639</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="J80" t="n">
-        <v>12155.1133818182</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="K80" t="s">
         <v>20</v>
@@ -6824,22 +6824,22 @@
         <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>131517.822</v>
+        <v>129315.219</v>
       </c>
       <c r="F81" t="n">
-        <v>129828.72</v>
+        <v>118951.428</v>
       </c>
       <c r="G81" t="n">
-        <v>130229.258</v>
+        <v>119544.998</v>
       </c>
       <c r="H81" t="n">
-        <v>2659.93321186545</v>
+        <v>7933.14150963542</v>
       </c>
       <c r="I81" t="n">
-        <v>3072.44619562329</v>
+        <v>10525.5474188639</v>
       </c>
       <c r="J81" t="n">
-        <v>2930.76839293921</v>
+        <v>12155.1133818182</v>
       </c>
       <c r="K81" t="s">
         <v>20</v>
@@ -6868,22 +6868,22 @@
         <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>129478.786</v>
+        <v>131517.822</v>
       </c>
       <c r="F82" t="n">
-        <v>129478.786</v>
+        <v>129828.72</v>
       </c>
       <c r="G82" t="n">
-        <v>129478.786</v>
+        <v>130229.258</v>
       </c>
       <c r="H82" t="n">
-        <v>2650.9311255005</v>
+        <v>2659.93321186545</v>
       </c>
       <c r="I82" t="n">
-        <v>2650.9311255005</v>
+        <v>3072.44619562329</v>
       </c>
       <c r="J82" t="n">
-        <v>2650.9311255005</v>
+        <v>2930.76839293921</v>
       </c>
       <c r="K82" t="s">
         <v>20</v>
@@ -7600,22 +7600,22 @@
         <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="F8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="G8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3125.25308491457</v>
+        <v>1264.48170014687</v>
       </c>
       <c r="I8" t="n">
-        <v>3125.25308491457</v>
+        <v>1028.22535144888</v>
       </c>
       <c r="J8" t="n">
-        <v>3125.25308491457</v>
+        <v>1264.48170014687</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -7644,22 +7644,22 @@
         <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>57487.0912</v>
+        <v>54191.89875</v>
       </c>
       <c r="F9" t="n">
-        <v>57521.324</v>
+        <v>54191.89875</v>
       </c>
       <c r="G9" t="n">
-        <v>57487.0912</v>
+        <v>54191.89875</v>
       </c>
       <c r="H9" t="n">
-        <v>1253.34432695792</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="I9" t="n">
-        <v>1209.8527365922</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="J9" t="n">
-        <v>1253.34432695792</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -7688,22 +7688,22 @@
         <v>44</v>
       </c>
       <c r="E10" t="n">
-        <v>57959.25</v>
+        <v>57487.0912</v>
       </c>
       <c r="F10" t="n">
-        <v>57959.25</v>
+        <v>57521.324</v>
       </c>
       <c r="G10" t="n">
-        <v>57959.25</v>
+        <v>57487.0912</v>
       </c>
       <c r="H10" t="n">
-        <v>1264.48170014687</v>
+        <v>1253.34432695792</v>
       </c>
       <c r="I10" t="n">
-        <v>1028.22535144888</v>
+        <v>1209.8527365922</v>
       </c>
       <c r="J10" t="n">
-        <v>1264.48170014687</v>
+        <v>1253.34432695792</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -8172,22 +8172,22 @@
         <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>55350.708</v>
+        <v>64105.56</v>
       </c>
       <c r="F21" t="n">
-        <v>55350.708</v>
+        <v>64331.5858</v>
       </c>
       <c r="G21" t="n">
-        <v>55350.708</v>
+        <v>64105.56</v>
       </c>
       <c r="H21" t="n">
-        <v>5917.02153301515</v>
+        <v>2214.60709266114</v>
       </c>
       <c r="I21" t="n">
-        <v>5917.02153301515</v>
+        <v>2114.88132442924</v>
       </c>
       <c r="J21" t="n">
-        <v>5917.02153301515</v>
+        <v>2214.60709266114</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -8216,22 +8216,22 @@
         <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>64817.844</v>
+        <v>55350.708</v>
       </c>
       <c r="F22" t="n">
-        <v>64854.1344</v>
+        <v>55350.708</v>
       </c>
       <c r="G22" t="n">
-        <v>64817.844</v>
+        <v>55350.708</v>
       </c>
       <c r="H22" t="n">
-        <v>2162.62587050882</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="I22" t="n">
-        <v>2025.48263815248</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="J22" t="n">
-        <v>2162.62587050882</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
@@ -8260,22 +8260,22 @@
         <v>44</v>
       </c>
       <c r="E23" t="n">
-        <v>64105.56</v>
+        <v>64817.844</v>
       </c>
       <c r="F23" t="n">
-        <v>64331.5858</v>
+        <v>64854.1344</v>
       </c>
       <c r="G23" t="n">
-        <v>64105.56</v>
+        <v>64817.844</v>
       </c>
       <c r="H23" t="n">
-        <v>2214.60709266114</v>
+        <v>2162.62587050882</v>
       </c>
       <c r="I23" t="n">
-        <v>2114.88132442924</v>
+        <v>2025.48263815248</v>
       </c>
       <c r="J23" t="n">
-        <v>2214.60709266114</v>
+        <v>2162.62587050882</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -8744,31 +8744,31 @@
         <v>44</v>
       </c>
       <c r="E34" t="n">
-        <v>62730.8024</v>
+        <v>49147.596</v>
       </c>
       <c r="F34" t="n">
-        <v>62730.8024</v>
+        <v>49171.35314</v>
       </c>
       <c r="G34" t="n">
-        <v>62730.8024</v>
+        <v>49147.596</v>
       </c>
       <c r="H34" t="n">
-        <v>20746.1460009376</v>
+        <v>2717.26132515061</v>
       </c>
       <c r="I34" t="n">
-        <v>20746.1460009376</v>
+        <v>2734.44430974366</v>
       </c>
       <c r="J34" t="n">
-        <v>20746.1460009376</v>
+        <v>2717.26132515061</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N34" t="s">
         <v>18</v>
@@ -8788,31 +8788,31 @@
         <v>44</v>
       </c>
       <c r="E35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="F35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="G35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="H35" t="n">
-        <v>2917.94605346304</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="I35" t="n">
-        <v>2962.98381458141</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="J35" t="n">
-        <v>2917.94605346304</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N35" t="s">
         <v>18</v>
@@ -8832,22 +8832,22 @@
         <v>44</v>
       </c>
       <c r="E36" t="n">
-        <v>49147.596</v>
+        <v>49171.35314</v>
       </c>
       <c r="F36" t="n">
         <v>49171.35314</v>
       </c>
       <c r="G36" t="n">
-        <v>49147.596</v>
+        <v>49171.35314</v>
       </c>
       <c r="H36" t="n">
-        <v>2717.26132515061</v>
+        <v>2917.94605346304</v>
       </c>
       <c r="I36" t="n">
-        <v>2734.44430974366</v>
+        <v>2962.98381458141</v>
       </c>
       <c r="J36" t="n">
-        <v>2717.26132515061</v>
+        <v>2917.94605346304</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
@@ -9316,22 +9316,22 @@
         <v>44</v>
       </c>
       <c r="E47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="F47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="G47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="H47" t="n">
-        <v>9859.83185896309</v>
+        <v>1900.05386102308</v>
       </c>
       <c r="I47" t="n">
-        <v>9859.83185896309</v>
+        <v>1880.39830998911</v>
       </c>
       <c r="J47" t="n">
-        <v>9859.83185896309</v>
+        <v>1900.05386102308</v>
       </c>
       <c r="K47" t="s">
         <v>20</v>
@@ -9360,22 +9360,22 @@
         <v>44</v>
       </c>
       <c r="E48" t="n">
-        <v>50683.8836</v>
+        <v>53322.51</v>
       </c>
       <c r="F48" t="n">
-        <v>50723.904</v>
+        <v>53322.51</v>
       </c>
       <c r="G48" t="n">
-        <v>50683.8836</v>
+        <v>53322.51</v>
       </c>
       <c r="H48" t="n">
-        <v>2822.14856241887</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="I48" t="n">
-        <v>2842.41542380844</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="J48" t="n">
-        <v>2822.14856241887</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
@@ -9404,22 +9404,22 @@
         <v>44</v>
       </c>
       <c r="E49" t="n">
-        <v>49844.955</v>
+        <v>50683.8836</v>
       </c>
       <c r="F49" t="n">
-        <v>49844.955</v>
+        <v>50723.904</v>
       </c>
       <c r="G49" t="n">
-        <v>49844.955</v>
+        <v>50683.8836</v>
       </c>
       <c r="H49" t="n">
-        <v>1900.05386102308</v>
+        <v>2822.14856241887</v>
       </c>
       <c r="I49" t="n">
-        <v>1880.39830998911</v>
+        <v>2842.41542380844</v>
       </c>
       <c r="J49" t="n">
-        <v>1900.05386102308</v>
+        <v>2822.14856241887</v>
       </c>
       <c r="K49" t="s">
         <v>20</v>
@@ -9888,22 +9888,22 @@
         <v>44</v>
       </c>
       <c r="E60" t="n">
-        <v>48936.864</v>
+        <v>50975.9</v>
       </c>
       <c r="F60" t="n">
-        <v>48936.864</v>
+        <v>51004.14</v>
       </c>
       <c r="G60" t="n">
-        <v>48936.864</v>
+        <v>50975.9</v>
       </c>
       <c r="H60" t="n">
-        <v>8412.2346187217</v>
+        <v>2566.40103174919</v>
       </c>
       <c r="I60" t="n">
-        <v>8412.2346187217</v>
+        <v>2623.1295232966</v>
       </c>
       <c r="J60" t="n">
-        <v>8412.2346187217</v>
+        <v>2566.40103174919</v>
       </c>
       <c r="K60" t="s">
         <v>20</v>
@@ -9932,22 +9932,22 @@
         <v>44</v>
       </c>
       <c r="E61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="F61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="G61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="H61" t="n">
-        <v>3326.3870604713</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="I61" t="n">
-        <v>3295.86949196496</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="J61" t="n">
-        <v>3326.3870604713</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="K61" t="s">
         <v>20</v>
@@ -9979,19 +9979,19 @@
         <v>50975.9</v>
       </c>
       <c r="F62" t="n">
-        <v>51004.14</v>
+        <v>50975.9</v>
       </c>
       <c r="G62" t="n">
         <v>50975.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2566.40103174919</v>
+        <v>3326.3870604713</v>
       </c>
       <c r="I62" t="n">
-        <v>2623.1295232966</v>
+        <v>3295.86949196496</v>
       </c>
       <c r="J62" t="n">
-        <v>2566.40103174919</v>
+        <v>3326.3870604713</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
@@ -10518,22 +10518,22 @@
         <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>126809.76</v>
+        <v>136521.1</v>
       </c>
       <c r="F8" t="n">
-        <v>100849.095</v>
+        <v>136521.1</v>
       </c>
       <c r="G8" t="n">
-        <v>107486.368</v>
+        <v>136521.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4332.25277201833</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="I8" t="n">
-        <v>6428.32084072217</v>
+        <v>1085.28363716262</v>
       </c>
       <c r="J8" t="n">
-        <v>8227.9137695208</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -10562,22 +10562,22 @@
         <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>142732.52</v>
+        <v>126809.76</v>
       </c>
       <c r="F9" t="n">
-        <v>140840.9775</v>
+        <v>100849.095</v>
       </c>
       <c r="G9" t="n">
-        <v>141652.407</v>
+        <v>107486.368</v>
       </c>
       <c r="H9" t="n">
-        <v>1428.63578540444</v>
+        <v>4332.25277201833</v>
       </c>
       <c r="I9" t="n">
-        <v>1479.34869364543</v>
+        <v>6428.32084072217</v>
       </c>
       <c r="J9" t="n">
-        <v>1460.92572429665</v>
+        <v>8227.9137695208</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -10606,22 +10606,22 @@
         <v>44</v>
       </c>
       <c r="E10" t="n">
-        <v>136521.1</v>
+        <v>142732.52</v>
       </c>
       <c r="F10" t="n">
-        <v>136521.1</v>
+        <v>140840.9775</v>
       </c>
       <c r="G10" t="n">
-        <v>136521.1</v>
+        <v>141652.407</v>
       </c>
       <c r="H10" t="n">
-        <v>1066.12046660227</v>
+        <v>1428.63578540444</v>
       </c>
       <c r="I10" t="n">
-        <v>1085.28363716262</v>
+        <v>1479.34869364543</v>
       </c>
       <c r="J10" t="n">
-        <v>1066.12046660227</v>
+        <v>1460.92572429665</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -11204,22 +11204,22 @@
         <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>142834.4718</v>
+        <v>156489.975</v>
       </c>
       <c r="F24" t="n">
-        <v>109088.426</v>
+        <v>156489.975</v>
       </c>
       <c r="G24" t="n">
-        <v>122393.1359</v>
+        <v>156489.975</v>
       </c>
       <c r="H24" t="n">
-        <v>10577.2385772801</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="I24" t="n">
-        <v>12096.2742091487</v>
+        <v>1788.75431262822</v>
       </c>
       <c r="J24" t="n">
-        <v>20177.7621517745</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
@@ -11248,22 +11248,22 @@
         <v>44</v>
       </c>
       <c r="E25" t="n">
-        <v>168220.47</v>
+        <v>142834.4718</v>
       </c>
       <c r="F25" t="n">
-        <v>165012.46</v>
+        <v>109088.426</v>
       </c>
       <c r="G25" t="n">
-        <v>165943.5932</v>
+        <v>122393.1359</v>
       </c>
       <c r="H25" t="n">
-        <v>2504.44178656926</v>
+        <v>10577.2385772801</v>
       </c>
       <c r="I25" t="n">
-        <v>2845.95886728038</v>
+        <v>12096.2742091487</v>
       </c>
       <c r="J25" t="n">
-        <v>2986.07009140882</v>
+        <v>20177.7621517745</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
@@ -11292,22 +11292,22 @@
         <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>156489.975</v>
+        <v>168220.47</v>
       </c>
       <c r="F26" t="n">
-        <v>156489.975</v>
+        <v>165012.46</v>
       </c>
       <c r="G26" t="n">
-        <v>156489.975</v>
+        <v>165943.5932</v>
       </c>
       <c r="H26" t="n">
-        <v>1800.43590264081</v>
+        <v>2504.44178656926</v>
       </c>
       <c r="I26" t="n">
-        <v>1788.75431262822</v>
+        <v>2845.95886728038</v>
       </c>
       <c r="J26" t="n">
-        <v>1800.43590264081</v>
+        <v>2986.07009140882</v>
       </c>
       <c r="K26" t="s">
         <v>20</v>
@@ -11890,22 +11890,22 @@
         <v>44</v>
       </c>
       <c r="E40" t="n">
-        <v>94815.174</v>
+        <v>118298.572</v>
       </c>
       <c r="F40" t="n">
-        <v>94937.2515</v>
+        <v>118298.572</v>
       </c>
       <c r="G40" t="n">
-        <v>95507.104</v>
+        <v>118298.572</v>
       </c>
       <c r="H40" t="n">
-        <v>6342.65022080927</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="I40" t="n">
-        <v>14638.3239283411</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="J40" t="n">
-        <v>12435.8630344971</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="K40" t="s">
         <v>20</v>
@@ -11934,22 +11934,22 @@
         <v>44</v>
       </c>
       <c r="E41" t="n">
-        <v>121598.5065</v>
+        <v>94815.174</v>
       </c>
       <c r="F41" t="n">
-        <v>120771.2</v>
+        <v>94937.2515</v>
       </c>
       <c r="G41" t="n">
-        <v>121088.28</v>
+        <v>95507.104</v>
       </c>
       <c r="H41" t="n">
-        <v>3029.87727404456</v>
+        <v>6342.65022080927</v>
       </c>
       <c r="I41" t="n">
-        <v>3502.54364546422</v>
+        <v>14638.3239283411</v>
       </c>
       <c r="J41" t="n">
-        <v>3564.59376476758</v>
+        <v>12435.8630344971</v>
       </c>
       <c r="K41" t="s">
         <v>20</v>
@@ -11978,22 +11978,22 @@
         <v>44</v>
       </c>
       <c r="E42" t="n">
-        <v>118298.572</v>
+        <v>121598.5065</v>
       </c>
       <c r="F42" t="n">
-        <v>118298.572</v>
+        <v>120771.2</v>
       </c>
       <c r="G42" t="n">
-        <v>118298.572</v>
+        <v>121088.28</v>
       </c>
       <c r="H42" t="n">
-        <v>3383.90722201948</v>
+        <v>3029.87727404456</v>
       </c>
       <c r="I42" t="n">
-        <v>3383.90722201948</v>
+        <v>3502.54364546422</v>
       </c>
       <c r="J42" t="n">
-        <v>3383.90722201948</v>
+        <v>3564.59376476758</v>
       </c>
       <c r="K42" t="s">
         <v>20</v>
@@ -12576,22 +12576,22 @@
         <v>44</v>
       </c>
       <c r="E56" t="n">
-        <v>103990.836</v>
+        <v>115222.989</v>
       </c>
       <c r="F56" t="n">
-        <v>80916.704</v>
+        <v>115222.989</v>
       </c>
       <c r="G56" t="n">
-        <v>82150.088</v>
+        <v>115222.989</v>
       </c>
       <c r="H56" t="n">
-        <v>8843.18489533869</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="I56" t="n">
-        <v>7753.56910572762</v>
+        <v>1841.65328029918</v>
       </c>
       <c r="J56" t="n">
-        <v>9514.16986203294</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="K56" t="s">
         <v>20</v>
@@ -12620,22 +12620,22 @@
         <v>44</v>
       </c>
       <c r="E57" t="n">
-        <v>121978.912</v>
+        <v>103990.836</v>
       </c>
       <c r="F57" t="n">
-        <v>120555.24</v>
+        <v>80916.704</v>
       </c>
       <c r="G57" t="n">
-        <v>121088.28</v>
+        <v>82150.088</v>
       </c>
       <c r="H57" t="n">
-        <v>2248.58898249227</v>
+        <v>8843.18489533869</v>
       </c>
       <c r="I57" t="n">
-        <v>2103.89340159665</v>
+        <v>7753.56910572762</v>
       </c>
       <c r="J57" t="n">
-        <v>2164.21133347385</v>
+        <v>9514.16986203294</v>
       </c>
       <c r="K57" t="s">
         <v>20</v>
@@ -12664,22 +12664,22 @@
         <v>44</v>
       </c>
       <c r="E58" t="n">
-        <v>115222.989</v>
+        <v>121978.912</v>
       </c>
       <c r="F58" t="n">
-        <v>115222.989</v>
+        <v>120555.24</v>
       </c>
       <c r="G58" t="n">
-        <v>115222.989</v>
+        <v>121088.28</v>
       </c>
       <c r="H58" t="n">
-        <v>1829.92844779909</v>
+        <v>2248.58898249227</v>
       </c>
       <c r="I58" t="n">
-        <v>1841.65328029918</v>
+        <v>2103.89340159665</v>
       </c>
       <c r="J58" t="n">
-        <v>1829.92844779909</v>
+        <v>2164.21133347385</v>
       </c>
       <c r="K58" t="s">
         <v>20</v>
@@ -13262,22 +13262,22 @@
         <v>44</v>
       </c>
       <c r="E72" t="n">
-        <v>129315.219</v>
+        <v>129478.786</v>
       </c>
       <c r="F72" t="n">
-        <v>118951.428</v>
+        <v>129478.786</v>
       </c>
       <c r="G72" t="n">
-        <v>119544.998</v>
+        <v>129478.786</v>
       </c>
       <c r="H72" t="n">
-        <v>7933.14150963542</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="I72" t="n">
-        <v>10525.5474188639</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="J72" t="n">
-        <v>12155.1133818182</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="K72" t="s">
         <v>20</v>
@@ -13306,22 +13306,22 @@
         <v>44</v>
       </c>
       <c r="E73" t="n">
-        <v>131517.822</v>
+        <v>129315.219</v>
       </c>
       <c r="F73" t="n">
-        <v>129828.72</v>
+        <v>118951.428</v>
       </c>
       <c r="G73" t="n">
-        <v>130229.258</v>
+        <v>119544.998</v>
       </c>
       <c r="H73" t="n">
-        <v>2659.93321186545</v>
+        <v>7933.14150963542</v>
       </c>
       <c r="I73" t="n">
-        <v>3072.44619562329</v>
+        <v>10525.5474188639</v>
       </c>
       <c r="J73" t="n">
-        <v>2930.76839293921</v>
+        <v>12155.1133818182</v>
       </c>
       <c r="K73" t="s">
         <v>20</v>
@@ -13350,22 +13350,22 @@
         <v>44</v>
       </c>
       <c r="E74" t="n">
-        <v>129478.786</v>
+        <v>131517.822</v>
       </c>
       <c r="F74" t="n">
-        <v>129478.786</v>
+        <v>129828.72</v>
       </c>
       <c r="G74" t="n">
-        <v>129478.786</v>
+        <v>130229.258</v>
       </c>
       <c r="H74" t="n">
-        <v>2650.9311255005</v>
+        <v>2659.93321186545</v>
       </c>
       <c r="I74" t="n">
-        <v>2650.9311255005</v>
+        <v>3072.44619562329</v>
       </c>
       <c r="J74" t="n">
-        <v>2650.9311255005</v>
+        <v>2930.76839293921</v>
       </c>
       <c r="K74" t="s">
         <v>20</v>
@@ -14006,22 +14006,22 @@
         <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="F8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="G8" t="n">
-        <v>54191.89875</v>
+        <v>57959.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3125.25308491457</v>
+        <v>1264.48170014687</v>
       </c>
       <c r="I8" t="n">
-        <v>3125.25308491457</v>
+        <v>1028.22535144888</v>
       </c>
       <c r="J8" t="n">
-        <v>3125.25308491457</v>
+        <v>1264.48170014687</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -14050,22 +14050,22 @@
         <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>57487.0912</v>
+        <v>54191.89875</v>
       </c>
       <c r="F9" t="n">
-        <v>57521.324</v>
+        <v>54191.89875</v>
       </c>
       <c r="G9" t="n">
-        <v>57487.0912</v>
+        <v>54191.89875</v>
       </c>
       <c r="H9" t="n">
-        <v>1253.34432695792</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="I9" t="n">
-        <v>1209.8527365922</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="J9" t="n">
-        <v>1253.34432695792</v>
+        <v>3125.25308491457</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -14094,22 +14094,22 @@
         <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>57959.25</v>
+        <v>57487.0912</v>
       </c>
       <c r="F10" t="n">
-        <v>57959.25</v>
+        <v>57521.324</v>
       </c>
       <c r="G10" t="n">
-        <v>57959.25</v>
+        <v>57487.0912</v>
       </c>
       <c r="H10" t="n">
-        <v>1264.48170014687</v>
+        <v>1253.34432695792</v>
       </c>
       <c r="I10" t="n">
-        <v>1028.22535144888</v>
+        <v>1209.8527365922</v>
       </c>
       <c r="J10" t="n">
-        <v>1264.48170014687</v>
+        <v>1253.34432695792</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -14578,22 +14578,22 @@
         <v>46</v>
       </c>
       <c r="E21" t="n">
-        <v>55350.708</v>
+        <v>64105.56</v>
       </c>
       <c r="F21" t="n">
-        <v>55350.708</v>
+        <v>64331.5858</v>
       </c>
       <c r="G21" t="n">
-        <v>55350.708</v>
+        <v>64105.56</v>
       </c>
       <c r="H21" t="n">
-        <v>5917.02153301515</v>
+        <v>2214.60709266114</v>
       </c>
       <c r="I21" t="n">
-        <v>5917.02153301515</v>
+        <v>2114.88132442924</v>
       </c>
       <c r="J21" t="n">
-        <v>5917.02153301515</v>
+        <v>2214.60709266114</v>
       </c>
       <c r="K21" t="s">
         <v>20</v>
@@ -14622,22 +14622,22 @@
         <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>64817.844</v>
+        <v>55350.708</v>
       </c>
       <c r="F22" t="n">
-        <v>64854.1344</v>
+        <v>55350.708</v>
       </c>
       <c r="G22" t="n">
-        <v>64817.844</v>
+        <v>55350.708</v>
       </c>
       <c r="H22" t="n">
-        <v>2162.62587050882</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="I22" t="n">
-        <v>2025.48263815248</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="J22" t="n">
-        <v>2162.62587050882</v>
+        <v>5917.02153301515</v>
       </c>
       <c r="K22" t="s">
         <v>20</v>
@@ -14666,22 +14666,22 @@
         <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>64105.56</v>
+        <v>64817.844</v>
       </c>
       <c r="F23" t="n">
-        <v>64331.5858</v>
+        <v>64854.1344</v>
       </c>
       <c r="G23" t="n">
-        <v>64105.56</v>
+        <v>64817.844</v>
       </c>
       <c r="H23" t="n">
-        <v>2214.60709266114</v>
+        <v>2162.62587050882</v>
       </c>
       <c r="I23" t="n">
-        <v>2114.88132442924</v>
+        <v>2025.48263815248</v>
       </c>
       <c r="J23" t="n">
-        <v>2214.60709266114</v>
+        <v>2162.62587050882</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -15150,31 +15150,31 @@
         <v>46</v>
       </c>
       <c r="E34" t="n">
-        <v>62730.8024</v>
+        <v>49147.596</v>
       </c>
       <c r="F34" t="n">
-        <v>62730.8024</v>
+        <v>49171.35314</v>
       </c>
       <c r="G34" t="n">
-        <v>62730.8024</v>
+        <v>49147.596</v>
       </c>
       <c r="H34" t="n">
-        <v>20746.1460009376</v>
+        <v>2717.26132515061</v>
       </c>
       <c r="I34" t="n">
-        <v>20746.1460009376</v>
+        <v>2734.44430974366</v>
       </c>
       <c r="J34" t="n">
-        <v>20746.1460009376</v>
+        <v>2717.26132515061</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N34" t="s">
         <v>18</v>
@@ -15194,31 +15194,31 @@
         <v>46</v>
       </c>
       <c r="E35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="F35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="G35" t="n">
-        <v>49171.35314</v>
+        <v>62730.8024</v>
       </c>
       <c r="H35" t="n">
-        <v>2917.94605346304</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="I35" t="n">
-        <v>2962.98381458141</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="J35" t="n">
-        <v>2917.94605346304</v>
+        <v>20746.1460009376</v>
       </c>
       <c r="K35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N35" t="s">
         <v>18</v>
@@ -15238,22 +15238,22 @@
         <v>46</v>
       </c>
       <c r="E36" t="n">
-        <v>49147.596</v>
+        <v>49171.35314</v>
       </c>
       <c r="F36" t="n">
         <v>49171.35314</v>
       </c>
       <c r="G36" t="n">
-        <v>49147.596</v>
+        <v>49171.35314</v>
       </c>
       <c r="H36" t="n">
-        <v>2717.26132515061</v>
+        <v>2917.94605346304</v>
       </c>
       <c r="I36" t="n">
-        <v>2734.44430974366</v>
+        <v>2962.98381458141</v>
       </c>
       <c r="J36" t="n">
-        <v>2717.26132515061</v>
+        <v>2917.94605346304</v>
       </c>
       <c r="K36" t="s">
         <v>20</v>
@@ -15722,22 +15722,22 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="F47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="G47" t="n">
-        <v>53322.51</v>
+        <v>49844.955</v>
       </c>
       <c r="H47" t="n">
-        <v>9859.83185896309</v>
+        <v>1900.05386102308</v>
       </c>
       <c r="I47" t="n">
-        <v>9859.83185896309</v>
+        <v>1880.39830998911</v>
       </c>
       <c r="J47" t="n">
-        <v>9859.83185896309</v>
+        <v>1900.05386102308</v>
       </c>
       <c r="K47" t="s">
         <v>20</v>
@@ -15766,22 +15766,22 @@
         <v>46</v>
       </c>
       <c r="E48" t="n">
-        <v>50683.8836</v>
+        <v>53322.51</v>
       </c>
       <c r="F48" t="n">
-        <v>50723.904</v>
+        <v>53322.51</v>
       </c>
       <c r="G48" t="n">
-        <v>50683.8836</v>
+        <v>53322.51</v>
       </c>
       <c r="H48" t="n">
-        <v>2822.14856241887</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="I48" t="n">
-        <v>2842.41542380844</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="J48" t="n">
-        <v>2822.14856241887</v>
+        <v>9859.83185896309</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
@@ -15810,22 +15810,22 @@
         <v>46</v>
       </c>
       <c r="E49" t="n">
-        <v>49844.955</v>
+        <v>50683.8836</v>
       </c>
       <c r="F49" t="n">
-        <v>49844.955</v>
+        <v>50723.904</v>
       </c>
       <c r="G49" t="n">
-        <v>49844.955</v>
+        <v>50683.8836</v>
       </c>
       <c r="H49" t="n">
-        <v>1900.05386102308</v>
+        <v>2822.14856241887</v>
       </c>
       <c r="I49" t="n">
-        <v>1880.39830998911</v>
+        <v>2842.41542380844</v>
       </c>
       <c r="J49" t="n">
-        <v>1900.05386102308</v>
+        <v>2822.14856241887</v>
       </c>
       <c r="K49" t="s">
         <v>20</v>
@@ -16294,22 +16294,22 @@
         <v>46</v>
       </c>
       <c r="E60" t="n">
-        <v>48936.864</v>
+        <v>50975.9</v>
       </c>
       <c r="F60" t="n">
-        <v>48936.864</v>
+        <v>51004.14</v>
       </c>
       <c r="G60" t="n">
-        <v>48936.864</v>
+        <v>50975.9</v>
       </c>
       <c r="H60" t="n">
-        <v>8412.2346187217</v>
+        <v>2566.40103174919</v>
       </c>
       <c r="I60" t="n">
-        <v>8412.2346187217</v>
+        <v>2623.1295232966</v>
       </c>
       <c r="J60" t="n">
-        <v>8412.2346187217</v>
+        <v>2566.40103174919</v>
       </c>
       <c r="K60" t="s">
         <v>20</v>
@@ -16338,22 +16338,22 @@
         <v>46</v>
       </c>
       <c r="E61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="F61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="G61" t="n">
-        <v>50975.9</v>
+        <v>48936.864</v>
       </c>
       <c r="H61" t="n">
-        <v>3326.3870604713</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="I61" t="n">
-        <v>3295.86949196496</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="J61" t="n">
-        <v>3326.3870604713</v>
+        <v>8412.2346187217</v>
       </c>
       <c r="K61" t="s">
         <v>20</v>
@@ -16385,19 +16385,19 @@
         <v>50975.9</v>
       </c>
       <c r="F62" t="n">
-        <v>51004.14</v>
+        <v>50975.9</v>
       </c>
       <c r="G62" t="n">
         <v>50975.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2566.40103174919</v>
+        <v>3326.3870604713</v>
       </c>
       <c r="I62" t="n">
-        <v>2623.1295232966</v>
+        <v>3295.86949196496</v>
       </c>
       <c r="J62" t="n">
-        <v>2566.40103174919</v>
+        <v>3326.3870604713</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
@@ -16924,22 +16924,22 @@
         <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>126809.76</v>
+        <v>136521.1</v>
       </c>
       <c r="F8" t="n">
-        <v>100849.095</v>
+        <v>136521.1</v>
       </c>
       <c r="G8" t="n">
-        <v>107486.368</v>
+        <v>136521.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4332.25277201833</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="I8" t="n">
-        <v>6428.32084072217</v>
+        <v>1085.28363716262</v>
       </c>
       <c r="J8" t="n">
-        <v>8227.9137695208</v>
+        <v>1066.12046660227</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -16968,22 +16968,22 @@
         <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>142732.52</v>
+        <v>126809.76</v>
       </c>
       <c r="F9" t="n">
-        <v>140840.9775</v>
+        <v>100849.095</v>
       </c>
       <c r="G9" t="n">
-        <v>141652.407</v>
+        <v>107486.368</v>
       </c>
       <c r="H9" t="n">
-        <v>1428.63578540444</v>
+        <v>4332.25277201833</v>
       </c>
       <c r="I9" t="n">
-        <v>1479.34869364543</v>
+        <v>6428.32084072217</v>
       </c>
       <c r="J9" t="n">
-        <v>1460.92572429665</v>
+        <v>8227.9137695208</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -17012,22 +17012,22 @@
         <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>136521.1</v>
+        <v>142732.52</v>
       </c>
       <c r="F10" t="n">
-        <v>136521.1</v>
+        <v>140840.9775</v>
       </c>
       <c r="G10" t="n">
-        <v>136521.1</v>
+        <v>141652.407</v>
       </c>
       <c r="H10" t="n">
-        <v>1066.12046660227</v>
+        <v>1428.63578540444</v>
       </c>
       <c r="I10" t="n">
-        <v>1085.28363716262</v>
+        <v>1479.34869364543</v>
       </c>
       <c r="J10" t="n">
-        <v>1066.12046660227</v>
+        <v>1460.92572429665</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -17572,22 +17572,22 @@
         <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>142834.4718</v>
+        <v>156489.975</v>
       </c>
       <c r="F23" t="n">
-        <v>109088.426</v>
+        <v>156489.975</v>
       </c>
       <c r="G23" t="n">
-        <v>122393.1359</v>
+        <v>156489.975</v>
       </c>
       <c r="H23" t="n">
-        <v>10577.2385772801</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="I23" t="n">
-        <v>12096.2742091487</v>
+        <v>1788.75431262822</v>
       </c>
       <c r="J23" t="n">
-        <v>20177.7621517745</v>
+        <v>1800.43590264081</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
@@ -17616,22 +17616,22 @@
         <v>46</v>
       </c>
       <c r="E24" t="n">
-        <v>168220.47</v>
+        <v>142834.4718</v>
       </c>
       <c r="F24" t="n">
-        <v>165012.46</v>
+        <v>109088.426</v>
       </c>
       <c r="G24" t="n">
-        <v>165943.5932</v>
+        <v>122393.1359</v>
       </c>
       <c r="H24" t="n">
-        <v>2504.44178656926</v>
+        <v>10577.2385772801</v>
       </c>
       <c r="I24" t="n">
-        <v>2845.95886728038</v>
+        <v>12096.2742091487</v>
       </c>
       <c r="J24" t="n">
-        <v>2986.07009140882</v>
+        <v>20177.7621517745</v>
       </c>
       <c r="K24" t="s">
         <v>20</v>
@@ -17660,22 +17660,22 @@
         <v>46</v>
       </c>
       <c r="E25" t="n">
-        <v>156489.975</v>
+        <v>168220.47</v>
       </c>
       <c r="F25" t="n">
-        <v>156489.975</v>
+        <v>165012.46</v>
       </c>
       <c r="G25" t="n">
-        <v>156489.975</v>
+        <v>165943.5932</v>
       </c>
       <c r="H25" t="n">
-        <v>1800.43590264081</v>
+        <v>2504.44178656926</v>
       </c>
       <c r="I25" t="n">
-        <v>1788.75431262822</v>
+        <v>2845.95886728038</v>
       </c>
       <c r="J25" t="n">
-        <v>1800.43590264081</v>
+        <v>2986.07009140882</v>
       </c>
       <c r="K25" t="s">
         <v>20</v>
@@ -18220,22 +18220,22 @@
         <v>46</v>
       </c>
       <c r="E38" t="n">
-        <v>94815.174</v>
+        <v>118298.572</v>
       </c>
       <c r="F38" t="n">
-        <v>94937.2515</v>
+        <v>118298.572</v>
       </c>
       <c r="G38" t="n">
-        <v>95507.104</v>
+        <v>118298.572</v>
       </c>
       <c r="H38" t="n">
-        <v>6342.65022080927</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="I38" t="n">
-        <v>14638.3239283411</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="J38" t="n">
-        <v>12435.8630344971</v>
+        <v>3383.90722201948</v>
       </c>
       <c r="K38" t="s">
         <v>20</v>
@@ -18264,22 +18264,22 @@
         <v>46</v>
       </c>
       <c r="E39" t="n">
-        <v>121598.5065</v>
+        <v>94815.174</v>
       </c>
       <c r="F39" t="n">
-        <v>120771.2</v>
+        <v>94937.2515</v>
       </c>
       <c r="G39" t="n">
-        <v>121088.28</v>
+        <v>95507.104</v>
       </c>
       <c r="H39" t="n">
-        <v>3029.87727404456</v>
+        <v>6342.65022080927</v>
       </c>
       <c r="I39" t="n">
-        <v>3502.54364546422</v>
+        <v>14638.3239283411</v>
       </c>
       <c r="J39" t="n">
-        <v>3564.59376476758</v>
+        <v>12435.8630344971</v>
       </c>
       <c r="K39" t="s">
         <v>20</v>
@@ -18308,22 +18308,22 @@
         <v>46</v>
       </c>
       <c r="E40" t="n">
-        <v>118298.572</v>
+        <v>121598.5065</v>
       </c>
       <c r="F40" t="n">
-        <v>118298.572</v>
+        <v>120771.2</v>
       </c>
       <c r="G40" t="n">
-        <v>118298.572</v>
+        <v>121088.28</v>
       </c>
       <c r="H40" t="n">
-        <v>3383.90722201948</v>
+        <v>3029.87727404456</v>
       </c>
       <c r="I40" t="n">
-        <v>3383.90722201948</v>
+        <v>3502.54364546422</v>
       </c>
       <c r="J40" t="n">
-        <v>3383.90722201948</v>
+        <v>3564.59376476758</v>
       </c>
       <c r="K40" t="s">
         <v>20</v>
@@ -18868,22 +18868,22 @@
         <v>46</v>
       </c>
       <c r="E53" t="n">
-        <v>103990.836</v>
+        <v>115222.989</v>
       </c>
       <c r="F53" t="n">
-        <v>80916.704</v>
+        <v>115222.989</v>
       </c>
       <c r="G53" t="n">
-        <v>82150.088</v>
+        <v>115222.989</v>
       </c>
       <c r="H53" t="n">
-        <v>8843.18489533869</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="I53" t="n">
-        <v>7753.56910572762</v>
+        <v>1841.65328029918</v>
       </c>
       <c r="J53" t="n">
-        <v>9514.16986203294</v>
+        <v>1829.92844779909</v>
       </c>
       <c r="K53" t="s">
         <v>20</v>
@@ -18912,22 +18912,22 @@
         <v>46</v>
       </c>
       <c r="E54" t="n">
-        <v>121978.912</v>
+        <v>103990.836</v>
       </c>
       <c r="F54" t="n">
-        <v>120555.24</v>
+        <v>80916.704</v>
       </c>
       <c r="G54" t="n">
-        <v>121088.28</v>
+        <v>82150.088</v>
       </c>
       <c r="H54" t="n">
-        <v>2248.58898249227</v>
+        <v>8843.18489533869</v>
       </c>
       <c r="I54" t="n">
-        <v>2103.89340159665</v>
+        <v>7753.56910572762</v>
       </c>
       <c r="J54" t="n">
-        <v>2164.21133347385</v>
+        <v>9514.16986203294</v>
       </c>
       <c r="K54" t="s">
         <v>20</v>
@@ -18956,22 +18956,22 @@
         <v>46</v>
       </c>
       <c r="E55" t="n">
-        <v>115222.989</v>
+        <v>121978.912</v>
       </c>
       <c r="F55" t="n">
-        <v>115222.989</v>
+        <v>120555.24</v>
       </c>
       <c r="G55" t="n">
-        <v>115222.989</v>
+        <v>121088.28</v>
       </c>
       <c r="H55" t="n">
-        <v>1829.92844779909</v>
+        <v>2248.58898249227</v>
       </c>
       <c r="I55" t="n">
-        <v>1841.65328029918</v>
+        <v>2103.89340159665</v>
       </c>
       <c r="J55" t="n">
-        <v>1829.92844779909</v>
+        <v>2164.21133347385</v>
       </c>
       <c r="K55" t="s">
         <v>20</v>
@@ -19516,22 +19516,22 @@
         <v>46</v>
       </c>
       <c r="E68" t="n">
-        <v>129315.219</v>
+        <v>129478.786</v>
       </c>
       <c r="F68" t="n">
-        <v>118951.428</v>
+        <v>129478.786</v>
       </c>
       <c r="G68" t="n">
-        <v>119544.998</v>
+        <v>129478.786</v>
       </c>
       <c r="H68" t="n">
-        <v>7933.14150963542</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="I68" t="n">
-        <v>10525.5474188639</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="J68" t="n">
-        <v>12155.1133818182</v>
+        <v>2650.9311255005</v>
       </c>
       <c r="K68" t="s">
         <v>20</v>
@@ -19560,22 +19560,22 @@
         <v>46</v>
       </c>
       <c r="E69" t="n">
-        <v>131517.822</v>
+        <v>129315.219</v>
       </c>
       <c r="F69" t="n">
-        <v>129828.72</v>
+        <v>118951.428</v>
       </c>
       <c r="G69" t="n">
-        <v>130229.258</v>
+        <v>119544.998</v>
       </c>
       <c r="H69" t="n">
-        <v>2659.93321186545</v>
+        <v>7933.14150963542</v>
       </c>
       <c r="I69" t="n">
-        <v>3072.44619562329</v>
+        <v>10525.5474188639</v>
       </c>
       <c r="J69" t="n">
-        <v>2930.76839293921</v>
+        <v>12155.1133818182</v>
       </c>
       <c r="K69" t="s">
         <v>20</v>
@@ -19604,22 +19604,22 @@
         <v>46</v>
       </c>
       <c r="E70" t="n">
-        <v>129478.786</v>
+        <v>131517.822</v>
       </c>
       <c r="F70" t="n">
-        <v>129478.786</v>
+        <v>129828.72</v>
       </c>
       <c r="G70" t="n">
-        <v>129478.786</v>
+        <v>130229.258</v>
       </c>
       <c r="H70" t="n">
-        <v>2650.9311255005</v>
+        <v>2659.93321186545</v>
       </c>
       <c r="I70" t="n">
-        <v>2650.9311255005</v>
+        <v>3072.44619562329</v>
       </c>
       <c r="J70" t="n">
-        <v>2650.9311255005</v>
+        <v>2930.76839293921</v>
       </c>
       <c r="K70" t="s">
         <v>20</v>
